--- a/Text/research results.xlsx
+++ b/Text/research results.xlsx
@@ -97,7 +97,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -188,30 +187,30 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="V27" activeCellId="0" sqref="V27"/>
+      <selection pane="topRight" activeCell="S9" activeCellId="0" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0561224489796"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.61224489795918"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.52551020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46938775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.52551020408163"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.46938775510204"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.52551020408163"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.16836734693878"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.52551020408163"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.18877551020408"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.52551020408163"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.64285714285714"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="6.52551020408163"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.33163265306122"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="6.52551020408163"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="7.91836734693878"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="6.52551020408163"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="7.64285714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="6.52551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="6.47959183673469"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -279,6 +278,60 @@
       <c r="A4" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="B4" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -520,6 +573,60 @@
       <c r="A9" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="B9" s="0" t="n">
+        <v>107</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>107</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>107</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>107</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>108</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
@@ -767,6 +874,24 @@
       <c r="M26" s="0" t="n">
         <v>80</v>
       </c>
+      <c r="N26" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="P26" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q26" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="R26" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="S26" s="0" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
@@ -1043,6 +1168,24 @@
       </c>
       <c r="M31" s="0" t="n">
         <v>87</v>
+      </c>
+      <c r="N31" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="O31" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="P31" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q31" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="R31" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="S31" s="0" t="n">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Text/research results.xlsx
+++ b/Text/research results.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucasfaijdherbe/Library/Mobile Documents/com~apple~CloudDocs/Computer Science/Intelligent Systems/Project/VU-Intelligent-Systems/Text/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -22,96 +27,78 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="21">
   <si>
-    <t xml:space="preserve">Against Rand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Round 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Round 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Round 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Round 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Round 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Round 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Round 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Round 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Round 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ml_stripped</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ml_minimal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ml_advanced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ml_lucas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ml_combined</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Against Bully</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bully</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Against Rdeep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rdeep</t>
+    <t>Against Rand</t>
+  </si>
+  <si>
+    <t>Round 1</t>
+  </si>
+  <si>
+    <t>Rand</t>
+  </si>
+  <si>
+    <t>Round 2</t>
+  </si>
+  <si>
+    <t>Round 3</t>
+  </si>
+  <si>
+    <t>Round 4</t>
+  </si>
+  <si>
+    <t>Round 5</t>
+  </si>
+  <si>
+    <t>Round 6</t>
+  </si>
+  <si>
+    <t>Round 7</t>
+  </si>
+  <si>
+    <t>Round 8</t>
+  </si>
+  <si>
+    <t>Round 9</t>
+  </si>
+  <si>
+    <t>ml_stripped</t>
+  </si>
+  <si>
+    <t>ml_minimal</t>
+  </si>
+  <si>
+    <t>ml</t>
+  </si>
+  <si>
+    <t>ml_advanced</t>
+  </si>
+  <si>
+    <t>ml_lucas</t>
+  </si>
+  <si>
+    <t>ml_combined</t>
+  </si>
+  <si>
+    <t>Against Bully</t>
+  </si>
+  <si>
+    <t>Bully</t>
+  </si>
+  <si>
+    <t>Against Rdeep</t>
+  </si>
+  <si>
+    <t>Rdeep</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,7 +110,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -131,1068 +118,1553 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+  <a:themeElements>
+    <a:clrScheme name="Kantoor">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Kantoor">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Kantoor">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:S31"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="S9" activeCellId="0" sqref="S9"/>
+    <sheetView windowProtection="1" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B16" sqref="B16:S20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="6.47959183673469"/>
+    <col min="1" max="1" width="12.83203125"/>
+    <col min="2" max="2" width="8.33203125"/>
+    <col min="3" max="3" width="6.5"/>
+    <col min="4" max="4" width="8.1640625"/>
+    <col min="5" max="5" width="6.5"/>
+    <col min="6" max="6" width="8.1640625"/>
+    <col min="7" max="7" width="6.5"/>
+    <col min="8" max="8" width="9"/>
+    <col min="9" max="9" width="6.5"/>
+    <col min="10" max="10" width="8"/>
+    <col min="11" max="11" width="6.5"/>
+    <col min="12" max="12" width="7.5"/>
+    <col min="13" max="13" width="6.5"/>
+    <col min="14" max="14" width="8.1640625"/>
+    <col min="15" max="15" width="6.5"/>
+    <col min="16" max="16" width="7.6640625"/>
+    <col min="17" max="17" width="6.5"/>
+    <col min="18" max="18" width="7.5"/>
+    <col min="19" max="1025" width="6.5"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="K3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="L3" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="M3" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="N3" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="0" t="s">
+      <c r="O3" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="0" t="s">
+      <c r="P3" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="Q3" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="0" t="s">
+      <c r="R3" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="0" t="s">
+      <c r="S3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>98</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>22</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4">
         <v>90</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>30</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4">
         <v>95</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4">
         <v>25</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4">
         <v>101</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4">
         <v>19</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4">
         <v>96</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4">
         <v>24</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="L4">
         <v>91</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M4">
         <v>29</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="N4">
         <v>88</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="O4">
         <v>32</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="P4">
         <v>93</v>
       </c>
-      <c r="Q4" s="0" t="n">
+      <c r="Q4">
         <v>27</v>
       </c>
-      <c r="R4" s="0" t="n">
+      <c r="R4">
         <v>91</v>
       </c>
-      <c r="S4" s="0" t="n">
+      <c r="S4">
         <v>29</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>76</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>44</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5">
         <v>83</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>37</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5">
         <v>89</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5">
         <v>31</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5">
         <v>82</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5">
         <v>38</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5">
         <v>80</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5">
         <v>40</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="L5">
         <v>76</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="M5">
         <v>44</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="N5">
         <v>80</v>
       </c>
-      <c r="O5" s="0" t="n">
+      <c r="O5">
         <v>40</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="P5">
         <v>81</v>
       </c>
-      <c r="Q5" s="0" t="n">
+      <c r="Q5">
         <v>39</v>
       </c>
-      <c r="R5" s="0" t="n">
+      <c r="R5">
         <v>89</v>
       </c>
-      <c r="S5" s="0" t="n">
+      <c r="S5">
         <v>31</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>91</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>29</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6">
         <v>101</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>19</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6">
         <v>100</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6">
         <v>20</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6">
         <v>96</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6">
         <v>24</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6">
         <v>100</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K6">
         <v>20</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="L6">
         <v>98</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="M6">
         <v>22</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="N6">
         <v>89</v>
       </c>
-      <c r="O6" s="0" t="n">
+      <c r="O6">
         <v>31</v>
       </c>
-      <c r="P6" s="0" t="n">
+      <c r="P6">
         <v>96</v>
       </c>
-      <c r="Q6" s="0" t="n">
+      <c r="Q6">
         <v>24</v>
       </c>
-      <c r="R6" s="0" t="n">
+      <c r="R6">
         <v>95</v>
       </c>
-      <c r="S6" s="0" t="n">
+      <c r="S6">
         <v>25</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>90</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>30</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7">
         <v>95</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>25</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7">
         <v>92</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7">
         <v>28</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7">
         <v>108</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7">
         <v>12</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7">
         <v>106</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K7">
         <v>14</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="L7">
         <v>110</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="M7">
         <v>10</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="N7">
         <v>96</v>
       </c>
-      <c r="O7" s="0" t="n">
+      <c r="O7">
         <v>24</v>
       </c>
-      <c r="P7" s="0" t="n">
+      <c r="P7">
         <v>89</v>
       </c>
-      <c r="Q7" s="0" t="n">
+      <c r="Q7">
         <v>31</v>
       </c>
-      <c r="R7" s="0" t="n">
+      <c r="R7">
         <v>95</v>
       </c>
-      <c r="S7" s="0" t="n">
+      <c r="S7">
         <v>25</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>94</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8">
         <v>26</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8">
         <v>98</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8">
         <v>22</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8">
         <v>92</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8">
         <v>28</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8">
         <v>89</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8">
         <v>31</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8">
         <v>96</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="K8">
         <v>24</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="L8">
         <v>95</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="M8">
         <v>25</v>
       </c>
-      <c r="N8" s="0" t="n">
+      <c r="N8">
         <v>99</v>
       </c>
-      <c r="O8" s="0" t="n">
+      <c r="O8">
         <v>21</v>
       </c>
-      <c r="P8" s="0" t="n">
+      <c r="P8">
         <v>95</v>
       </c>
-      <c r="Q8" s="0" t="n">
+      <c r="Q8">
         <v>25</v>
       </c>
-      <c r="R8" s="0" t="n">
+      <c r="R8">
         <v>98</v>
       </c>
-      <c r="S8" s="0" t="n">
+      <c r="S8">
         <v>22</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>107</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9">
         <v>13</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9">
         <v>105</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>15</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9">
         <v>107</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9">
         <v>13</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9">
         <v>106</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9">
         <v>14</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9">
         <v>107</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="K9">
         <v>13</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="L9">
         <v>103</v>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="M9">
         <v>17</v>
       </c>
-      <c r="N9" s="0" t="n">
+      <c r="N9">
         <v>99</v>
       </c>
-      <c r="O9" s="0" t="n">
+      <c r="O9">
         <v>21</v>
       </c>
-      <c r="P9" s="0" t="n">
+      <c r="P9">
         <v>107</v>
       </c>
-      <c r="Q9" s="0" t="n">
+      <c r="Q9">
         <v>13</v>
       </c>
-      <c r="R9" s="0" t="n">
+      <c r="R9">
         <v>108</v>
       </c>
-      <c r="S9" s="0" t="n">
+      <c r="S9">
         <v>12</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>3</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" t="s">
         <v>4</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="H14" t="s">
         <v>5</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="0" t="s">
+      <c r="J14" t="s">
         <v>6</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="0" t="s">
+      <c r="L14" t="s">
         <v>7</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N14" s="0" t="s">
+      <c r="N14" t="s">
         <v>8</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P14" s="0" t="s">
+      <c r="P14" t="s">
         <v>9</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R14" s="0" t="s">
+      <c r="R14" t="s">
         <v>10</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="B16">
+        <v>98</v>
+      </c>
+      <c r="C16">
+        <v>22</v>
+      </c>
+      <c r="D16">
+        <v>92</v>
+      </c>
+      <c r="E16">
+        <v>28</v>
+      </c>
+      <c r="F16">
+        <v>93</v>
+      </c>
+      <c r="G16">
+        <v>27</v>
+      </c>
+      <c r="H16">
+        <v>93</v>
+      </c>
+      <c r="I16">
+        <v>27</v>
+      </c>
+      <c r="J16">
+        <v>97</v>
+      </c>
+      <c r="K16">
+        <v>23</v>
+      </c>
+      <c r="L16">
+        <v>79</v>
+      </c>
+      <c r="M16">
+        <v>41</v>
+      </c>
+      <c r="N16">
+        <v>103</v>
+      </c>
+      <c r="O16">
+        <v>17</v>
+      </c>
+      <c r="P16">
+        <v>92</v>
+      </c>
+      <c r="Q16">
+        <v>28</v>
+      </c>
+      <c r="R16">
+        <v>96</v>
+      </c>
+      <c r="S16">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>98</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17">
         <v>22</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17">
         <v>101</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17">
         <v>19</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17">
         <v>92</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="G17">
         <v>28</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="H17">
         <v>91</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="I17">
         <v>29</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="J17">
         <v>96</v>
       </c>
-      <c r="K17" s="0" t="n">
+      <c r="K17">
         <v>24</v>
       </c>
-      <c r="L17" s="0" t="n">
+      <c r="L17">
         <v>91</v>
       </c>
-      <c r="M17" s="0" t="n">
+      <c r="M17">
         <v>29</v>
       </c>
-      <c r="N17" s="0" t="n">
+      <c r="N17">
         <v>105</v>
       </c>
-      <c r="O17" s="0" t="n">
+      <c r="O17">
         <v>15</v>
       </c>
-      <c r="P17" s="0" t="n">
+      <c r="P17">
         <v>97</v>
       </c>
-      <c r="Q17" s="0" t="n">
+      <c r="Q17">
         <v>23</v>
       </c>
-      <c r="R17" s="0" t="n">
+      <c r="R17">
         <v>105</v>
       </c>
-      <c r="S17" s="0" t="n">
+      <c r="S17">
         <v>15</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="B18">
+        <v>84</v>
+      </c>
+      <c r="C18">
+        <v>36</v>
+      </c>
+      <c r="D18">
+        <v>81</v>
+      </c>
+      <c r="E18">
+        <v>39</v>
+      </c>
+      <c r="F18">
+        <v>90</v>
+      </c>
+      <c r="G18">
+        <v>30</v>
+      </c>
+      <c r="H18">
+        <v>95</v>
+      </c>
+      <c r="I18">
+        <v>25</v>
+      </c>
+      <c r="J18">
+        <v>83</v>
+      </c>
+      <c r="K18">
+        <v>27</v>
+      </c>
+      <c r="L18">
+        <v>88</v>
+      </c>
+      <c r="M18">
+        <v>32</v>
+      </c>
+      <c r="N18">
+        <v>83</v>
+      </c>
+      <c r="O18">
+        <v>37</v>
+      </c>
+      <c r="P18">
+        <v>87</v>
+      </c>
+      <c r="Q18">
+        <v>33</v>
+      </c>
+      <c r="R18">
+        <v>81</v>
+      </c>
+      <c r="S18">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="B19">
+        <v>84</v>
+      </c>
+      <c r="C19">
+        <v>36</v>
+      </c>
+      <c r="D19">
+        <v>89</v>
+      </c>
+      <c r="E19">
+        <v>31</v>
+      </c>
+      <c r="F19">
+        <v>87</v>
+      </c>
+      <c r="G19">
+        <v>33</v>
+      </c>
+      <c r="H19">
+        <v>93</v>
+      </c>
+      <c r="I19">
+        <v>27</v>
+      </c>
+      <c r="J19">
+        <v>94</v>
+      </c>
+      <c r="K19">
+        <v>26</v>
+      </c>
+      <c r="L19">
+        <v>102</v>
+      </c>
+      <c r="M19">
+        <v>18</v>
+      </c>
+      <c r="N19">
+        <v>79</v>
+      </c>
+      <c r="O19">
+        <v>41</v>
+      </c>
+      <c r="P19">
+        <v>87</v>
+      </c>
+      <c r="Q19">
+        <v>33</v>
+      </c>
+      <c r="R19">
+        <v>93</v>
+      </c>
+      <c r="S19">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="B20">
+        <v>90</v>
+      </c>
+      <c r="C20">
+        <v>30</v>
+      </c>
+      <c r="D20">
+        <v>82</v>
+      </c>
+      <c r="E20">
+        <v>38</v>
+      </c>
+      <c r="F20">
+        <v>82</v>
+      </c>
+      <c r="G20">
+        <v>38</v>
+      </c>
+      <c r="H20">
+        <v>91</v>
+      </c>
+      <c r="I20">
+        <v>29</v>
+      </c>
+      <c r="J20">
+        <v>83</v>
+      </c>
+      <c r="K20">
+        <v>37</v>
+      </c>
+      <c r="L20">
+        <v>86</v>
+      </c>
+      <c r="M20">
+        <v>34</v>
+      </c>
+      <c r="N20">
+        <v>71</v>
+      </c>
+      <c r="O20">
+        <v>49</v>
+      </c>
+      <c r="P20">
+        <v>85</v>
+      </c>
+      <c r="Q20">
+        <v>35</v>
+      </c>
+      <c r="R20">
+        <v>89</v>
+      </c>
+      <c r="S20">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E25" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="F25" t="s">
         <v>4</v>
       </c>
-      <c r="G25" s="0" t="s">
+      <c r="G25" t="s">
         <v>20</v>
       </c>
-      <c r="H25" s="0" t="s">
+      <c r="H25" t="s">
         <v>5</v>
       </c>
-      <c r="I25" s="0" t="s">
+      <c r="I25" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="0" t="s">
+      <c r="J25" t="s">
         <v>6</v>
       </c>
-      <c r="K25" s="0" t="s">
+      <c r="K25" t="s">
         <v>20</v>
       </c>
-      <c r="L25" s="0" t="s">
+      <c r="L25" t="s">
         <v>7</v>
       </c>
-      <c r="M25" s="0" t="s">
+      <c r="M25" t="s">
         <v>20</v>
       </c>
-      <c r="N25" s="0" t="s">
+      <c r="N25" t="s">
         <v>8</v>
       </c>
-      <c r="O25" s="0" t="s">
+      <c r="O25" t="s">
         <v>20</v>
       </c>
-      <c r="P25" s="0" t="s">
+      <c r="P25" t="s">
         <v>9</v>
       </c>
-      <c r="Q25" s="0" t="s">
+      <c r="Q25" t="s">
         <v>20</v>
       </c>
-      <c r="R25" s="0" t="s">
+      <c r="R25" t="s">
         <v>10</v>
       </c>
-      <c r="S25" s="0" t="s">
+      <c r="S25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26">
         <v>39</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26">
         <v>81</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26">
         <v>32</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26">
         <v>88</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26">
         <v>39</v>
       </c>
-      <c r="G26" s="0" t="n">
+      <c r="G26">
         <v>81</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="H26">
         <v>33</v>
       </c>
-      <c r="I26" s="0" t="n">
+      <c r="I26">
         <v>87</v>
       </c>
-      <c r="J26" s="0" t="n">
+      <c r="J26">
         <v>43</v>
       </c>
-      <c r="K26" s="0" t="n">
+      <c r="K26">
         <v>77</v>
       </c>
-      <c r="L26" s="0" t="n">
+      <c r="L26">
         <v>40</v>
       </c>
-      <c r="M26" s="0" t="n">
+      <c r="M26">
         <v>80</v>
       </c>
-      <c r="N26" s="0" t="n">
+      <c r="N26">
         <v>45</v>
       </c>
-      <c r="O26" s="0" t="n">
+      <c r="O26">
         <v>75</v>
       </c>
-      <c r="P26" s="0" t="n">
+      <c r="P26">
         <v>44</v>
       </c>
-      <c r="Q26" s="0" t="n">
+      <c r="Q26">
         <v>76</v>
       </c>
-      <c r="R26" s="0" t="n">
+      <c r="R26">
         <v>33</v>
       </c>
-      <c r="S26" s="0" t="n">
+      <c r="S26">
         <v>87</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27">
         <v>19</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27">
         <v>101</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27">
         <v>34</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27">
         <v>86</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F27">
         <v>29</v>
       </c>
-      <c r="G27" s="0" t="n">
+      <c r="G27">
         <v>91</v>
       </c>
-      <c r="H27" s="0" t="n">
+      <c r="H27">
         <v>33</v>
       </c>
-      <c r="I27" s="0" t="n">
+      <c r="I27">
         <v>87</v>
       </c>
-      <c r="J27" s="0" t="n">
+      <c r="J27">
         <v>29</v>
       </c>
-      <c r="K27" s="0" t="n">
+      <c r="K27">
         <v>91</v>
       </c>
-      <c r="L27" s="0" t="n">
+      <c r="L27">
         <v>36</v>
       </c>
-      <c r="M27" s="0" t="n">
+      <c r="M27">
         <v>84</v>
       </c>
-      <c r="N27" s="0" t="n">
+      <c r="N27">
         <v>37</v>
       </c>
-      <c r="O27" s="0" t="n">
+      <c r="O27">
         <v>83</v>
       </c>
-      <c r="P27" s="0" t="n">
+      <c r="P27">
         <v>38</v>
       </c>
-      <c r="Q27" s="0" t="n">
+      <c r="Q27">
         <v>82</v>
       </c>
-      <c r="R27" s="0" t="n">
+      <c r="R27">
         <v>28</v>
       </c>
-      <c r="S27" s="0" t="n">
+      <c r="S27">
         <v>92</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28">
         <v>31</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28">
         <v>89</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28">
         <v>41</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28">
         <v>79</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F28">
         <v>32</v>
       </c>
-      <c r="G28" s="0" t="n">
+      <c r="G28">
         <v>88</v>
       </c>
-      <c r="H28" s="0" t="n">
+      <c r="H28">
         <v>28</v>
       </c>
-      <c r="I28" s="0" t="n">
+      <c r="I28">
         <v>92</v>
       </c>
-      <c r="J28" s="0" t="n">
+      <c r="J28">
         <v>29</v>
       </c>
-      <c r="K28" s="0" t="n">
+      <c r="K28">
         <v>91</v>
       </c>
-      <c r="L28" s="0" t="n">
+      <c r="L28">
         <v>23</v>
       </c>
-      <c r="M28" s="0" t="n">
+      <c r="M28">
         <v>97</v>
       </c>
-      <c r="N28" s="0" t="n">
+      <c r="N28">
         <v>28</v>
       </c>
-      <c r="O28" s="0" t="n">
+      <c r="O28">
         <v>92</v>
       </c>
-      <c r="P28" s="0" t="n">
+      <c r="P28">
         <v>22</v>
       </c>
-      <c r="Q28" s="0" t="n">
+      <c r="Q28">
         <v>98</v>
       </c>
-      <c r="R28" s="0" t="n">
+      <c r="R28">
         <v>23</v>
       </c>
-      <c r="S28" s="0" t="n">
+      <c r="S28">
         <v>97</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29">
         <v>53</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29">
         <v>67</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29">
         <v>51</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29">
         <v>69</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F29">
         <v>46</v>
       </c>
-      <c r="G29" s="0" t="n">
+      <c r="G29">
         <v>74</v>
       </c>
-      <c r="H29" s="0" t="n">
+      <c r="H29">
         <v>24</v>
       </c>
-      <c r="I29" s="0" t="n">
+      <c r="I29">
         <v>96</v>
       </c>
-      <c r="J29" s="0" t="n">
+      <c r="J29">
         <v>30</v>
       </c>
-      <c r="K29" s="0" t="n">
+      <c r="K29">
         <v>90</v>
       </c>
-      <c r="L29" s="0" t="n">
+      <c r="L29">
         <v>23</v>
       </c>
-      <c r="M29" s="0" t="n">
+      <c r="M29">
         <v>97</v>
       </c>
-      <c r="N29" s="0" t="n">
+      <c r="N29">
         <v>19</v>
       </c>
-      <c r="O29" s="0" t="n">
+      <c r="O29">
         <v>101</v>
       </c>
-      <c r="P29" s="0" t="n">
+      <c r="P29">
         <v>21</v>
       </c>
-      <c r="Q29" s="0" t="n">
+      <c r="Q29">
         <v>99</v>
       </c>
-      <c r="R29" s="0" t="n">
+      <c r="R29">
         <v>17</v>
       </c>
-      <c r="S29" s="0" t="n">
+      <c r="S29">
         <v>103</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30">
         <v>23</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30">
         <v>97</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30">
         <v>33</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30">
         <v>87</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="F30">
         <v>26</v>
       </c>
-      <c r="G30" s="0" t="n">
+      <c r="G30">
         <v>94</v>
       </c>
-      <c r="H30" s="0" t="n">
+      <c r="H30">
         <v>34</v>
       </c>
-      <c r="I30" s="0" t="n">
+      <c r="I30">
         <v>86</v>
       </c>
-      <c r="J30" s="0" t="n">
+      <c r="J30">
         <v>30</v>
       </c>
-      <c r="K30" s="0" t="n">
+      <c r="K30">
         <v>90</v>
       </c>
-      <c r="L30" s="0" t="n">
+      <c r="L30">
         <v>44</v>
       </c>
-      <c r="M30" s="0" t="n">
+      <c r="M30">
         <v>76</v>
       </c>
-      <c r="N30" s="0" t="n">
+      <c r="N30">
         <v>36</v>
       </c>
-      <c r="O30" s="0" t="n">
+      <c r="O30">
         <v>84</v>
       </c>
-      <c r="P30" s="0" t="n">
+      <c r="P30">
         <v>38</v>
       </c>
-      <c r="Q30" s="0" t="n">
+      <c r="Q30">
         <v>82</v>
       </c>
-      <c r="R30" s="0" t="n">
+      <c r="R30">
         <v>28</v>
       </c>
-      <c r="S30" s="0" t="n">
+      <c r="S30">
         <v>92</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31">
         <v>21</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31">
         <v>99</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31">
         <v>20</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31">
         <v>100</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="F31">
         <v>33</v>
       </c>
-      <c r="G31" s="0" t="n">
+      <c r="G31">
         <v>87</v>
       </c>
-      <c r="H31" s="0" t="n">
+      <c r="H31">
         <v>25</v>
       </c>
-      <c r="I31" s="0" t="n">
+      <c r="I31">
         <v>95</v>
       </c>
-      <c r="J31" s="0" t="n">
+      <c r="J31">
         <v>27</v>
       </c>
-      <c r="K31" s="0" t="n">
+      <c r="K31">
         <v>93</v>
       </c>
-      <c r="L31" s="0" t="n">
+      <c r="L31">
         <v>33</v>
       </c>
-      <c r="M31" s="0" t="n">
+      <c r="M31">
         <v>87</v>
       </c>
-      <c r="N31" s="0" t="n">
+      <c r="N31">
         <v>26</v>
       </c>
-      <c r="O31" s="0" t="n">
+      <c r="O31">
         <v>94</v>
       </c>
-      <c r="P31" s="0" t="n">
+      <c r="P31">
         <v>28</v>
       </c>
-      <c r="Q31" s="0" t="n">
+      <c r="Q31">
         <v>92</v>
       </c>
-      <c r="R31" s="0" t="n">
+      <c r="R31">
         <v>61</v>
       </c>
-      <c r="S31" s="0" t="n">
+      <c r="S31">
         <v>59</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/Text/research results.xlsx
+++ b/Text/research results.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="26">
   <si>
     <t xml:space="preserve">Against Rand</t>
   </si>
@@ -65,7 +65,7 @@
     <t xml:space="preserve">ml</t>
   </si>
   <si>
-    <t xml:space="preserve">ml_advancedSImple</t>
+    <t xml:space="preserve">ml_enriched</t>
   </si>
   <si>
     <t xml:space="preserve">ml_advanced</t>
@@ -204,18 +204,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S69"/>
+  <dimension ref="A1:S79"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B91" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A91" activeCellId="0" sqref="A91"/>
-      <selection pane="topRight" activeCell="D121" activeCellId="0" sqref="D121"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B22" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+      <selection pane="topRight" activeCell="F52" activeCellId="0" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.3112244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -820,65 +820,65 @@
       <c r="A31" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="B31" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="L31" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="M31" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="N31" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="O31" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="P31" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="Q31" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="R31" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="S31" s="0" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="0" t="n">
-        <v>98</v>
-      </c>
-      <c r="C32" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>92</v>
-      </c>
-      <c r="E32" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="F32" s="0" t="n">
-        <v>93</v>
-      </c>
-      <c r="G32" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="H32" s="0" t="n">
-        <v>93</v>
-      </c>
-      <c r="I32" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="J32" s="0" t="n">
-        <v>97</v>
-      </c>
-      <c r="K32" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="L32" s="0" t="n">
-        <v>79</v>
-      </c>
-      <c r="M32" s="0" t="n">
-        <v>41</v>
-      </c>
-      <c r="N32" s="0" t="n">
-        <v>103</v>
-      </c>
-      <c r="O32" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="P32" s="0" t="n">
-        <v>92</v>
-      </c>
-      <c r="Q32" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="R32" s="0" t="n">
-        <v>96</v>
-      </c>
-      <c r="S32" s="0" t="n">
-        <v>24</v>
-      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
@@ -1134,36 +1134,36 @@
       <c r="B41" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C41" s="1" t="e">
+      <c r="C41" s="1" t="n">
         <f aca="false">AVERAGE(B31,D31,F31,H31,J31,L31,N31,P31,R31)</f>
-        <v>#DIV/0!</v>
+        <v>93.6666666666667</v>
       </c>
       <c r="D41" s="1"/>
-      <c r="E41" s="1" t="e">
+      <c r="E41" s="1" t="n">
         <f aca="false">C41/120</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F41" s="1" t="e">
+        <v>0.780555555555556</v>
+      </c>
+      <c r="F41" s="1" t="n">
         <f aca="false">E41*100</f>
-        <v>#DIV/0!</v>
+        <v>78.0555555555556</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="1" t="n">
+      <c r="C42" s="1" t="e">
         <f aca="false">AVERAGE(B32,D32,F32,H32,J32,L32,N32,P32,R32)</f>
-        <v>93.6666666666667</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D42" s="1"/>
-      <c r="E42" s="1" t="n">
+      <c r="E42" s="1" t="e">
         <f aca="false">C42/120</f>
-        <v>0.780555555555556</v>
-      </c>
-      <c r="F42" s="1" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F42" s="1" t="e">
         <f aca="false">E42*100</f>
-        <v>78.0555555555556</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1651,6 +1651,128 @@
       </c>
       <c r="S69" s="0" t="n">
         <v>59</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F73" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="1" t="n">
+        <f aca="false">AVERAGE(B64,D64,F64,H64,J64,L64,N64,P64,R64)</f>
+        <v>38.6666666666667</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1" t="n">
+        <f aca="false">C74/120</f>
+        <v>0.322222222222222</v>
+      </c>
+      <c r="F74" s="1" t="n">
+        <f aca="false">E74*100</f>
+        <v>32.2222222222222</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="1" t="n">
+        <f aca="false">AVERAGE(B65,D65,F65,H65,J65,L65,N65,P65,R65)</f>
+        <v>31.4444444444444</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1" t="n">
+        <f aca="false">C75/120</f>
+        <v>0.262037037037037</v>
+      </c>
+      <c r="F75" s="1" t="n">
+        <f aca="false">E75*100</f>
+        <v>26.2037037037037</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" s="1" t="n">
+        <f aca="false">AVERAGE(B66,D66,F66,H66,J66,L66,N66,P66,R66)</f>
+        <v>28.5555555555556</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1" t="n">
+        <f aca="false">C76/120</f>
+        <v>0.237962962962963</v>
+      </c>
+      <c r="F76" s="1" t="n">
+        <f aca="false">E76*100</f>
+        <v>23.7962962962963</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" s="1" t="n">
+        <f aca="false">AVERAGE(B67,D67,F67,H67,J67,L67,N67,P67,R67)</f>
+        <v>31.5555555555556</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1" t="n">
+        <f aca="false">C77/120</f>
+        <v>0.262962962962963</v>
+      </c>
+      <c r="F77" s="1" t="n">
+        <f aca="false">E77*100</f>
+        <v>26.2962962962963</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" s="1" t="n">
+        <f aca="false">AVERAGE(B68,D68,F68,H68,J68,L68,N68,P68,R68)</f>
+        <v>32.4444444444444</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1" t="n">
+        <f aca="false">C78/120</f>
+        <v>0.27037037037037</v>
+      </c>
+      <c r="F78" s="1" t="n">
+        <f aca="false">E78*100</f>
+        <v>27.037037037037</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" s="1" t="n">
+        <f aca="false">AVERAGE(B69,D69,F69,H69,J69,L69,N69,P69,R69)</f>
+        <v>30.4444444444444</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1" t="n">
+        <f aca="false">C79/120</f>
+        <v>0.253703703703704</v>
+      </c>
+      <c r="F79" s="1" t="n">
+        <f aca="false">E79*100</f>
+        <v>25.3703703703704</v>
       </c>
     </row>
   </sheetData>
@@ -1674,30 +1796,30 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="S31" activeCellId="0" sqref="S31"/>
+      <selection pane="topRight" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="6.20918367346939"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2176,68 +2298,68 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="S15" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>11</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>98</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>92</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>93</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <v>93</v>
-      </c>
-      <c r="I16" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="J16" s="0" t="n">
-        <v>97</v>
-      </c>
-      <c r="K16" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="L16" s="0" t="n">
-        <v>79</v>
-      </c>
-      <c r="M16" s="0" t="n">
-        <v>41</v>
-      </c>
-      <c r="N16" s="0" t="n">
-        <v>103</v>
-      </c>
-      <c r="O16" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="P16" s="0" t="n">
-        <v>92</v>
-      </c>
-      <c r="Q16" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="R16" s="0" t="n">
-        <v>96</v>
-      </c>
-      <c r="S16" s="0" t="n">
-        <v>24</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Text/research results.xlsx
+++ b/Text/research results.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucasfaijdherbe/Library/Mobile Documents/com~apple~CloudDocs/Computer Science/Intelligent Systems/Project/VU-Intelligent-Systems/Text/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22720" windowHeight="14000" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="nieuwe namen" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Oude benamingen" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="nieuwe namen" sheetId="1" r:id="rId1"/>
+    <sheet name="Oude benamingen" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="171027" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -23,113 +28,94 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="26">
   <si>
-    <t xml:space="preserve">Against Rand</t>
+    <t>Against Rand</t>
   </si>
   <si>
-    <t xml:space="preserve">Round 1</t>
+    <t>Round 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Rand</t>
+    <t>Rand</t>
   </si>
   <si>
-    <t xml:space="preserve">Round 2</t>
+    <t>Round 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Round 3</t>
+    <t>Round 3</t>
   </si>
   <si>
-    <t xml:space="preserve">Round 4</t>
+    <t>Round 4</t>
   </si>
   <si>
-    <t xml:space="preserve">Round 5</t>
+    <t>Round 5</t>
   </si>
   <si>
-    <t xml:space="preserve">Round 6</t>
+    <t>Round 6</t>
   </si>
   <si>
-    <t xml:space="preserve">Round 7</t>
+    <t>Round 7</t>
   </si>
   <si>
-    <t xml:space="preserve">Round 8</t>
+    <t>Round 8</t>
   </si>
   <si>
-    <t xml:space="preserve">Round 9</t>
+    <t>Round 9</t>
   </si>
   <si>
-    <t xml:space="preserve">ml_minimal</t>
+    <t>ml_minimal</t>
   </si>
   <si>
-    <t xml:space="preserve">ml_stripped</t>
+    <t>ml_stripped</t>
   </si>
   <si>
-    <t xml:space="preserve">ml</t>
+    <t>ml</t>
   </si>
   <si>
-    <t xml:space="preserve">ml_enriched</t>
+    <t>ml_enriched</t>
   </si>
   <si>
-    <t xml:space="preserve">ml_advanced</t>
+    <t>ml_advanced</t>
   </si>
   <si>
-    <t xml:space="preserve">ml_combined</t>
+    <t>ml_combined</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean</t>
+    <t>Mean</t>
   </si>
   <si>
-    <t xml:space="preserve">mean won games</t>
+    <t>mean won games</t>
   </si>
   <si>
-    <t xml:space="preserve">Part won</t>
+    <t>Part won</t>
   </si>
   <si>
-    <t xml:space="preserve">Percentage won</t>
+    <t>Percentage won</t>
   </si>
   <si>
-    <t xml:space="preserve">Against Bully</t>
+    <t>Against Bully</t>
   </si>
   <si>
-    <t xml:space="preserve">Bully</t>
+    <t>Bully</t>
   </si>
   <si>
-    <t xml:space="preserve">Against Rdeep</t>
+    <t>Against Rdeep</t>
   </si>
   <si>
-    <t xml:space="preserve">Rdeep</t>
+    <t>Rdeep</t>
   </si>
   <si>
-    <t xml:space="preserve">ml_lucas</t>
+    <t>ml_lucas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -141,7 +127,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -149,1637 +135,1958 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+  <a:themeElements>
+    <a:clrScheme name="Kantoor">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Kantoor">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Kantoor">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S79"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B22" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
-      <selection pane="topRight" activeCell="F52" activeCellId="0" sqref="F52"/>
+    <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A22" sqref="A22"/>
+      <selection pane="topRight" activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.3418367346939"/>
+    <col min="1" max="1" width="19"/>
+    <col min="2" max="1025" width="11.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="K2" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="L2" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="M2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="N2" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="O2" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="0" t="s">
+      <c r="P2" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="0" t="s">
+      <c r="Q2" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="0" t="s">
+      <c r="R2" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="0" t="s">
+      <c r="S2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>98</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>22</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3">
         <v>90</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>30</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3">
         <v>95</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3">
         <v>25</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3">
         <v>101</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3">
         <v>19</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3">
         <v>96</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K3">
         <v>24</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="L3">
         <v>91</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="M3">
         <v>29</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="N3">
         <v>88</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="O3">
         <v>32</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="P3">
         <v>93</v>
       </c>
-      <c r="Q3" s="0" t="n">
+      <c r="Q3">
         <v>27</v>
       </c>
-      <c r="R3" s="0" t="n">
+      <c r="R3">
         <v>91</v>
       </c>
-      <c r="S3" s="0" t="n">
+      <c r="S3">
         <v>29</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>76</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>44</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4">
         <v>83</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>37</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4">
         <v>89</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4">
         <v>31</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4">
         <v>82</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4">
         <v>38</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4">
         <v>80</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4">
         <v>40</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="L4">
         <v>76</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M4">
         <v>44</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="N4">
         <v>80</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="O4">
         <v>40</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="P4">
         <v>81</v>
       </c>
-      <c r="Q4" s="0" t="n">
+      <c r="Q4">
         <v>39</v>
       </c>
-      <c r="R4" s="0" t="n">
+      <c r="R4">
         <v>89</v>
       </c>
-      <c r="S4" s="0" t="n">
+      <c r="S4">
         <v>31</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>91</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>29</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5">
         <v>101</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>19</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5">
         <v>100</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5">
         <v>20</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5">
         <v>96</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5">
         <v>24</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5">
         <v>100</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5">
         <v>20</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="L5">
         <v>98</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="M5">
         <v>22</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="N5">
         <v>89</v>
       </c>
-      <c r="O5" s="0" t="n">
+      <c r="O5">
         <v>31</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="P5">
         <v>96</v>
       </c>
-      <c r="Q5" s="0" t="n">
+      <c r="Q5">
         <v>24</v>
       </c>
-      <c r="R5" s="0" t="n">
+      <c r="R5">
         <v>95</v>
       </c>
-      <c r="S5" s="0" t="n">
+      <c r="S5">
         <v>25</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>90</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>30</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6">
         <v>95</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>25</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6">
         <v>92</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6">
         <v>28</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6">
         <v>108</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6">
         <v>12</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6">
         <v>106</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K6">
         <v>14</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="L6">
         <v>110</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="M6">
         <v>10</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="N6">
         <v>96</v>
       </c>
-      <c r="O6" s="0" t="n">
+      <c r="O6">
         <v>24</v>
       </c>
-      <c r="P6" s="0" t="n">
+      <c r="P6">
         <v>89</v>
       </c>
-      <c r="Q6" s="0" t="n">
+      <c r="Q6">
         <v>31</v>
       </c>
-      <c r="R6" s="0" t="n">
+      <c r="R6">
         <v>95</v>
       </c>
-      <c r="S6" s="0" t="n">
+      <c r="S6">
         <v>25</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>94</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>26</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7">
         <v>98</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>22</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7">
         <v>92</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7">
         <v>28</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7">
         <v>89</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7">
         <v>31</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7">
         <v>96</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K7">
         <v>24</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="L7">
         <v>95</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="M7">
         <v>25</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="N7">
         <v>99</v>
       </c>
-      <c r="O7" s="0" t="n">
+      <c r="O7">
         <v>21</v>
       </c>
-      <c r="P7" s="0" t="n">
+      <c r="P7">
         <v>95</v>
       </c>
-      <c r="Q7" s="0" t="n">
+      <c r="Q7">
         <v>25</v>
       </c>
-      <c r="R7" s="0" t="n">
+      <c r="R7">
         <v>98</v>
       </c>
-      <c r="S7" s="0" t="n">
+      <c r="S7">
         <v>22</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>107</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8">
         <v>13</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8">
         <v>105</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8">
         <v>15</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8">
         <v>107</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8">
         <v>13</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8">
         <v>106</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8">
         <v>14</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8">
         <v>107</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="K8">
         <v>13</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="L8">
         <v>103</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="M8">
         <v>17</v>
       </c>
-      <c r="N8" s="0" t="n">
+      <c r="N8">
         <v>99</v>
       </c>
-      <c r="O8" s="0" t="n">
+      <c r="O8">
         <v>21</v>
       </c>
-      <c r="P8" s="0" t="n">
+      <c r="P8">
         <v>107</v>
       </c>
-      <c r="Q8" s="0" t="n">
+      <c r="Q8">
         <v>13</v>
       </c>
-      <c r="R8" s="0" t="n">
+      <c r="R8">
         <v>108</v>
       </c>
-      <c r="S8" s="0" t="n">
+      <c r="S8">
         <v>12</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <f aca="false">AVERAGE(B3,D3,F3,H3,J3,L3,N3,P3,R3)</f>
-        <v>93.6666666666667</v>
+      <c r="C14" s="1">
+        <f t="shared" ref="C14:C19" si="0">AVERAGE(B3,D3,F3,H3,J3,L3,N3,P3,R3)</f>
+        <v>93.666666666666671</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="1" t="n">
-        <f aca="false">C14/120</f>
-        <v>0.780555555555556</v>
-      </c>
-      <c r="F14" s="1" t="n">
-        <f aca="false">E14*100</f>
-        <v>78.0555555555556</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
+      <c r="E14" s="1">
+        <f t="shared" ref="E14:E19" si="1">C14/120</f>
+        <v>0.78055555555555556</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" ref="F14:F19" si="2">E14*100</f>
+        <v>78.055555555555557</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <f aca="false">AVERAGE(B4,D4,F4,H4,J4,L4,N4,P4,R4)</f>
-        <v>81.7777777777778</v>
+      <c r="C15" s="1">
+        <f t="shared" si="0"/>
+        <v>81.777777777777771</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="1" t="n">
-        <f aca="false">C15/120</f>
-        <v>0.681481481481481</v>
-      </c>
-      <c r="F15" s="1" t="n">
-        <f aca="false">E15*100</f>
-        <v>68.1481481481482</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
+      <c r="E15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.68148148148148147</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="2"/>
+        <v>68.148148148148152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <f aca="false">AVERAGE(B5,D5,F5,H5,J5,L5,N5,P5,R5)</f>
-        <v>96.2222222222222</v>
+      <c r="C16" s="1">
+        <f t="shared" si="0"/>
+        <v>96.222222222222229</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="1" t="n">
-        <f aca="false">C16/120</f>
-        <v>0.801851851851852</v>
-      </c>
-      <c r="F16" s="1" t="n">
-        <f aca="false">E16*100</f>
-        <v>80.1851851851852</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
+      <c r="E16" s="1">
+        <f t="shared" si="1"/>
+        <v>0.80185185185185193</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="2"/>
+        <v>80.18518518518519</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <f aca="false">AVERAGE(B6,D6,F6,H6,J6,L6,N6,P6,R6)</f>
-        <v>97.8888888888889</v>
+      <c r="C17" s="1">
+        <f t="shared" si="0"/>
+        <v>97.888888888888886</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="1" t="n">
-        <f aca="false">C17/120</f>
-        <v>0.815740740740741</v>
-      </c>
-      <c r="F17" s="1" t="n">
-        <f aca="false">E17*100</f>
-        <v>81.5740740740741</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
+      <c r="E17" s="1">
+        <f t="shared" si="1"/>
+        <v>0.81574074074074077</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="2"/>
+        <v>81.574074074074076</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="1" t="n">
-        <f aca="false">AVERAGE(B7,D7,F7,H7,J7,L7,N7,P7,R7)</f>
-        <v>95.1111111111111</v>
+      <c r="C18" s="1">
+        <f t="shared" si="0"/>
+        <v>95.111111111111114</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="1" t="n">
-        <f aca="false">C18/120</f>
-        <v>0.792592592592593</v>
-      </c>
-      <c r="F18" s="1" t="n">
-        <f aca="false">E18*100</f>
-        <v>79.2592592592593</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
+      <c r="E18" s="1">
+        <f t="shared" si="1"/>
+        <v>0.79259259259259263</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="2"/>
+        <v>79.259259259259267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="1" t="n">
-        <f aca="false">AVERAGE(B8,D8,F8,H8,J8,L8,N8,P8,R8)</f>
-        <v>105.444444444444</v>
+      <c r="C19" s="1">
+        <f t="shared" si="0"/>
+        <v>105.44444444444444</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="1" t="n">
-        <f aca="false">C19/120</f>
-        <v>0.878703703703704</v>
-      </c>
-      <c r="F19" s="1" t="n">
-        <f aca="false">E19*100</f>
-        <v>87.8703703703704</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="E19" s="1">
+        <f t="shared" si="1"/>
+        <v>0.87870370370370365</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="2"/>
+        <v>87.870370370370367</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="s">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
         <v>1</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" t="s">
         <v>3</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="0" t="s">
+      <c r="F30" t="s">
         <v>4</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="0" t="s">
+      <c r="H30" t="s">
         <v>5</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J30" s="0" t="s">
+      <c r="J30" t="s">
         <v>6</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L30" s="0" t="s">
+      <c r="L30" t="s">
         <v>7</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N30" s="0" t="s">
+      <c r="N30" t="s">
         <v>8</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="P30" s="0" t="s">
+      <c r="P30" t="s">
         <v>9</v>
       </c>
       <c r="Q30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R30" s="0" t="s">
+      <c r="R30" t="s">
         <v>10</v>
       </c>
       <c r="S30" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31">
         <v>98</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31">
         <v>22</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31">
         <v>92</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31">
         <v>28</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="F31">
         <v>93</v>
       </c>
-      <c r="G31" s="0" t="n">
+      <c r="G31">
         <v>27</v>
       </c>
-      <c r="H31" s="0" t="n">
+      <c r="H31">
         <v>93</v>
       </c>
-      <c r="I31" s="0" t="n">
+      <c r="I31">
         <v>27</v>
       </c>
-      <c r="J31" s="0" t="n">
+      <c r="J31">
         <v>97</v>
       </c>
-      <c r="K31" s="0" t="n">
+      <c r="K31">
         <v>23</v>
       </c>
-      <c r="L31" s="0" t="n">
+      <c r="L31">
         <v>79</v>
       </c>
-      <c r="M31" s="0" t="n">
+      <c r="M31">
         <v>41</v>
       </c>
-      <c r="N31" s="0" t="n">
+      <c r="N31">
         <v>103</v>
       </c>
-      <c r="O31" s="0" t="n">
+      <c r="O31">
         <v>17</v>
       </c>
-      <c r="P31" s="0" t="n">
+      <c r="P31">
         <v>92</v>
       </c>
-      <c r="Q31" s="0" t="n">
+      <c r="Q31">
         <v>28</v>
       </c>
-      <c r="R31" s="0" t="n">
+      <c r="R31">
         <v>96</v>
       </c>
-      <c r="S31" s="0" t="n">
+      <c r="S31">
         <v>24</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="B32">
+        <v>97</v>
+      </c>
+      <c r="C32">
+        <v>23</v>
+      </c>
+      <c r="D32">
+        <v>83</v>
+      </c>
+      <c r="E32">
+        <v>37</v>
+      </c>
+      <c r="F32">
+        <v>93</v>
+      </c>
+      <c r="G32">
+        <v>27</v>
+      </c>
+      <c r="H32">
+        <v>93</v>
+      </c>
+      <c r="I32">
+        <v>27</v>
+      </c>
+      <c r="J32">
+        <v>101</v>
+      </c>
+      <c r="K32">
+        <v>19</v>
+      </c>
+      <c r="L32">
+        <v>87</v>
+      </c>
+      <c r="M32">
+        <v>33</v>
+      </c>
+      <c r="N32">
+        <v>95</v>
+      </c>
+      <c r="O32">
+        <v>25</v>
+      </c>
+      <c r="P32">
+        <v>97</v>
+      </c>
+      <c r="Q32">
+        <v>23</v>
+      </c>
+      <c r="R32">
+        <v>97</v>
+      </c>
+      <c r="S32">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33">
         <v>98</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33">
         <v>22</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="D33">
         <v>101</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E33">
         <v>19</v>
       </c>
-      <c r="F33" s="0" t="n">
+      <c r="F33">
         <v>92</v>
       </c>
-      <c r="G33" s="0" t="n">
+      <c r="G33">
         <v>28</v>
       </c>
-      <c r="H33" s="0" t="n">
+      <c r="H33">
         <v>91</v>
       </c>
-      <c r="I33" s="0" t="n">
+      <c r="I33">
         <v>29</v>
       </c>
-      <c r="J33" s="0" t="n">
+      <c r="J33">
         <v>96</v>
       </c>
-      <c r="K33" s="0" t="n">
+      <c r="K33">
         <v>24</v>
       </c>
-      <c r="L33" s="0" t="n">
+      <c r="L33">
         <v>91</v>
       </c>
-      <c r="M33" s="0" t="n">
+      <c r="M33">
         <v>29</v>
       </c>
-      <c r="N33" s="0" t="n">
+      <c r="N33">
         <v>105</v>
       </c>
-      <c r="O33" s="0" t="n">
+      <c r="O33">
         <v>15</v>
       </c>
-      <c r="P33" s="0" t="n">
+      <c r="P33">
         <v>97</v>
       </c>
-      <c r="Q33" s="0" t="n">
+      <c r="Q33">
         <v>23</v>
       </c>
-      <c r="R33" s="0" t="n">
+      <c r="R33">
         <v>105</v>
       </c>
-      <c r="S33" s="0" t="n">
+      <c r="S33">
         <v>15</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34">
         <v>84</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34">
         <v>36</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="D34">
         <v>81</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34">
         <v>39</v>
       </c>
-      <c r="F34" s="0" t="n">
+      <c r="F34">
         <v>90</v>
       </c>
-      <c r="G34" s="0" t="n">
+      <c r="G34">
         <v>30</v>
       </c>
-      <c r="H34" s="0" t="n">
+      <c r="H34">
         <v>95</v>
       </c>
-      <c r="I34" s="0" t="n">
+      <c r="I34">
         <v>25</v>
       </c>
-      <c r="J34" s="0" t="n">
+      <c r="J34">
         <v>83</v>
       </c>
-      <c r="K34" s="0" t="n">
+      <c r="K34">
         <v>27</v>
       </c>
-      <c r="L34" s="0" t="n">
+      <c r="L34">
         <v>88</v>
       </c>
-      <c r="M34" s="0" t="n">
+      <c r="M34">
         <v>32</v>
       </c>
-      <c r="N34" s="0" t="n">
+      <c r="N34">
         <v>83</v>
       </c>
-      <c r="O34" s="0" t="n">
+      <c r="O34">
         <v>37</v>
       </c>
-      <c r="P34" s="0" t="n">
+      <c r="P34">
         <v>87</v>
       </c>
-      <c r="Q34" s="0" t="n">
+      <c r="Q34">
         <v>33</v>
       </c>
-      <c r="R34" s="0" t="n">
+      <c r="R34">
         <v>81</v>
       </c>
-      <c r="S34" s="0" t="n">
+      <c r="S34">
         <v>39</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35">
         <v>84</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35">
         <v>36</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="D35">
         <v>89</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35">
         <v>31</v>
       </c>
-      <c r="F35" s="0" t="n">
+      <c r="F35">
         <v>87</v>
       </c>
-      <c r="G35" s="0" t="n">
+      <c r="G35">
         <v>33</v>
       </c>
-      <c r="H35" s="0" t="n">
+      <c r="H35">
         <v>93</v>
       </c>
-      <c r="I35" s="0" t="n">
+      <c r="I35">
         <v>27</v>
       </c>
-      <c r="J35" s="0" t="n">
+      <c r="J35">
         <v>94</v>
       </c>
-      <c r="K35" s="0" t="n">
+      <c r="K35">
         <v>26</v>
       </c>
-      <c r="L35" s="0" t="n">
+      <c r="L35">
         <v>102</v>
       </c>
-      <c r="M35" s="0" t="n">
+      <c r="M35">
         <v>18</v>
       </c>
-      <c r="N35" s="0" t="n">
+      <c r="N35">
         <v>79</v>
       </c>
-      <c r="O35" s="0" t="n">
+      <c r="O35">
         <v>41</v>
       </c>
-      <c r="P35" s="0" t="n">
+      <c r="P35">
         <v>87</v>
       </c>
-      <c r="Q35" s="0" t="n">
+      <c r="Q35">
         <v>33</v>
       </c>
-      <c r="R35" s="0" t="n">
+      <c r="R35">
         <v>93</v>
       </c>
-      <c r="S35" s="0" t="n">
+      <c r="S35">
         <v>27</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36">
         <v>90</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36">
         <v>30</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="D36">
         <v>82</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E36">
         <v>38</v>
       </c>
-      <c r="F36" s="0" t="n">
+      <c r="F36">
         <v>82</v>
       </c>
-      <c r="G36" s="0" t="n">
+      <c r="G36">
         <v>38</v>
       </c>
-      <c r="H36" s="0" t="n">
+      <c r="H36">
         <v>91</v>
       </c>
-      <c r="I36" s="0" t="n">
+      <c r="I36">
         <v>29</v>
       </c>
-      <c r="J36" s="0" t="n">
+      <c r="J36">
         <v>83</v>
       </c>
-      <c r="K36" s="0" t="n">
+      <c r="K36">
         <v>37</v>
       </c>
-      <c r="L36" s="0" t="n">
+      <c r="L36">
         <v>86</v>
       </c>
-      <c r="M36" s="0" t="n">
+      <c r="M36">
         <v>34</v>
       </c>
-      <c r="N36" s="0" t="n">
+      <c r="N36">
         <v>71</v>
       </c>
-      <c r="O36" s="0" t="n">
+      <c r="O36">
         <v>49</v>
       </c>
-      <c r="P36" s="0" t="n">
+      <c r="P36">
         <v>85</v>
       </c>
-      <c r="Q36" s="0" t="n">
+      <c r="Q36">
         <v>35</v>
       </c>
-      <c r="R36" s="0" t="n">
+      <c r="R36">
         <v>89</v>
       </c>
-      <c r="S36" s="0" t="n">
+      <c r="S36">
         <v>31</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0" t="s">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" t="s">
         <v>18</v>
       </c>
-      <c r="E40" s="0" t="s">
+      <c r="E40" t="s">
         <v>19</v>
       </c>
-      <c r="F40" s="0" t="s">
+      <c r="F40" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="0" t="s">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B41" t="s">
         <v>11</v>
       </c>
-      <c r="C41" s="1" t="n">
-        <f aca="false">AVERAGE(B31,D31,F31,H31,J31,L31,N31,P31,R31)</f>
-        <v>93.6666666666667</v>
+      <c r="C41" s="1">
+        <f t="shared" ref="C41:C46" si="3">AVERAGE(B31,D31,F31,H31,J31,L31,N31,P31,R31)</f>
+        <v>93.666666666666671</v>
       </c>
       <c r="D41" s="1"/>
-      <c r="E41" s="1" t="n">
-        <f aca="false">C41/120</f>
-        <v>0.780555555555556</v>
-      </c>
-      <c r="F41" s="1" t="n">
-        <f aca="false">E41*100</f>
-        <v>78.0555555555556</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="0" t="s">
+      <c r="E41" s="1">
+        <f t="shared" ref="E41:E46" si="4">C41/120</f>
+        <v>0.78055555555555556</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" ref="F41:F46" si="5">E41*100</f>
+        <v>78.055555555555557</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="1" t="e">
-        <f aca="false">AVERAGE(B32,D32,F32,H32,J32,L32,N32,P32,R32)</f>
-        <v>#DIV/0!</v>
+      <c r="C42" s="1">
+        <f t="shared" si="3"/>
+        <v>93.666666666666671</v>
       </c>
       <c r="D42" s="1"/>
-      <c r="E42" s="1" t="e">
-        <f aca="false">C42/120</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F42" s="1" t="e">
-        <f aca="false">E42*100</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="s">
+      <c r="E42" s="1">
+        <f t="shared" si="4"/>
+        <v>0.78055555555555556</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="5"/>
+        <v>78.055555555555557</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="1" t="n">
-        <f aca="false">AVERAGE(B33,D33,F33,H33,J33,L33,N33,P33,R33)</f>
-        <v>97.3333333333333</v>
+      <c r="C43" s="1">
+        <f t="shared" si="3"/>
+        <v>97.333333333333329</v>
       </c>
       <c r="D43" s="1"/>
-      <c r="E43" s="1" t="n">
-        <f aca="false">C43/120</f>
-        <v>0.811111111111111</v>
-      </c>
-      <c r="F43" s="1" t="n">
-        <f aca="false">E43*100</f>
-        <v>81.1111111111111</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0" t="s">
+      <c r="E43" s="1">
+        <f t="shared" si="4"/>
+        <v>0.81111111111111112</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="5"/>
+        <v>81.111111111111114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="1" t="n">
-        <f aca="false">AVERAGE(B34,D34,F34,H34,J34,L34,N34,P34,R34)</f>
-        <v>85.7777777777778</v>
+      <c r="C44" s="1">
+        <f t="shared" si="3"/>
+        <v>85.777777777777771</v>
       </c>
       <c r="D44" s="1"/>
-      <c r="E44" s="1" t="n">
-        <f aca="false">C44/120</f>
-        <v>0.714814814814815</v>
-      </c>
-      <c r="F44" s="1" t="n">
-        <f aca="false">E44*100</f>
-        <v>71.4814814814815</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="s">
+      <c r="E44" s="1">
+        <f t="shared" si="4"/>
+        <v>0.71481481481481479</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="5"/>
+        <v>71.481481481481481</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="1" t="n">
-        <f aca="false">AVERAGE(B35,D35,F35,H35,J35,L35,N35,P35,R35)</f>
-        <v>89.7777777777778</v>
+      <c r="C45" s="1">
+        <f t="shared" si="3"/>
+        <v>89.777777777777771</v>
       </c>
       <c r="D45" s="1"/>
-      <c r="E45" s="1" t="n">
-        <f aca="false">C45/120</f>
-        <v>0.748148148148148</v>
-      </c>
-      <c r="F45" s="1" t="n">
-        <f aca="false">E45*100</f>
-        <v>74.8148148148148</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0" t="s">
+      <c r="E45" s="1">
+        <f t="shared" si="4"/>
+        <v>0.74814814814814812</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="5"/>
+        <v>74.81481481481481</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="1" t="n">
-        <f aca="false">AVERAGE(B36,D36,F36,H36,J36,L36,N36,P36,R36)</f>
-        <v>84.3333333333333</v>
+      <c r="C46" s="1">
+        <f t="shared" si="3"/>
+        <v>84.333333333333329</v>
       </c>
       <c r="D46" s="1"/>
-      <c r="E46" s="1" t="n">
-        <f aca="false">C46/120</f>
-        <v>0.702777777777778</v>
-      </c>
-      <c r="F46" s="1" t="n">
-        <f aca="false">E46*100</f>
-        <v>70.2777777777778</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+      <c r="E46" s="1">
+        <f t="shared" si="4"/>
+        <v>0.70277777777777772</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="5"/>
+        <v>70.277777777777771</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="0" t="s">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B63" t="s">
         <v>1</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C63" t="s">
         <v>24</v>
       </c>
-      <c r="D63" s="0" t="s">
+      <c r="D63" t="s">
         <v>3</v>
       </c>
-      <c r="E63" s="0" t="s">
+      <c r="E63" t="s">
         <v>24</v>
       </c>
-      <c r="F63" s="0" t="s">
+      <c r="F63" t="s">
         <v>4</v>
       </c>
-      <c r="G63" s="0" t="s">
+      <c r="G63" t="s">
         <v>24</v>
       </c>
-      <c r="H63" s="0" t="s">
+      <c r="H63" t="s">
         <v>5</v>
       </c>
-      <c r="I63" s="0" t="s">
+      <c r="I63" t="s">
         <v>24</v>
       </c>
-      <c r="J63" s="0" t="s">
+      <c r="J63" t="s">
         <v>6</v>
       </c>
-      <c r="K63" s="0" t="s">
+      <c r="K63" t="s">
         <v>24</v>
       </c>
-      <c r="L63" s="0" t="s">
+      <c r="L63" t="s">
         <v>7</v>
       </c>
-      <c r="M63" s="0" t="s">
+      <c r="M63" t="s">
         <v>24</v>
       </c>
-      <c r="N63" s="0" t="s">
+      <c r="N63" t="s">
         <v>8</v>
       </c>
-      <c r="O63" s="0" t="s">
+      <c r="O63" t="s">
         <v>24</v>
       </c>
-      <c r="P63" s="0" t="s">
+      <c r="P63" t="s">
         <v>9</v>
       </c>
-      <c r="Q63" s="0" t="s">
+      <c r="Q63" t="s">
         <v>24</v>
       </c>
-      <c r="R63" s="0" t="s">
+      <c r="R63" t="s">
         <v>10</v>
       </c>
-      <c r="S63" s="0" t="s">
+      <c r="S63" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
         <v>11</v>
       </c>
-      <c r="B64" s="0" t="n">
+      <c r="B64">
         <v>39</v>
       </c>
-      <c r="C64" s="0" t="n">
+      <c r="C64">
         <v>81</v>
       </c>
-      <c r="D64" s="0" t="n">
+      <c r="D64">
         <v>32</v>
       </c>
-      <c r="E64" s="0" t="n">
+      <c r="E64">
         <v>88</v>
       </c>
-      <c r="F64" s="0" t="n">
+      <c r="F64">
         <v>39</v>
       </c>
-      <c r="G64" s="0" t="n">
+      <c r="G64">
         <v>81</v>
       </c>
-      <c r="H64" s="0" t="n">
+      <c r="H64">
         <v>33</v>
       </c>
-      <c r="I64" s="0" t="n">
+      <c r="I64">
         <v>87</v>
       </c>
-      <c r="J64" s="0" t="n">
+      <c r="J64">
         <v>43</v>
       </c>
-      <c r="K64" s="0" t="n">
+      <c r="K64">
         <v>77</v>
       </c>
-      <c r="L64" s="0" t="n">
+      <c r="L64">
         <v>40</v>
       </c>
-      <c r="M64" s="0" t="n">
+      <c r="M64">
         <v>80</v>
       </c>
-      <c r="N64" s="0" t="n">
+      <c r="N64">
         <v>45</v>
       </c>
-      <c r="O64" s="0" t="n">
+      <c r="O64">
         <v>75</v>
       </c>
-      <c r="P64" s="0" t="n">
+      <c r="P64">
         <v>44</v>
       </c>
-      <c r="Q64" s="0" t="n">
+      <c r="Q64">
         <v>76</v>
       </c>
-      <c r="R64" s="0" t="n">
+      <c r="R64">
         <v>33</v>
       </c>
-      <c r="S64" s="0" t="n">
+      <c r="S64">
         <v>87</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
         <v>12</v>
       </c>
-      <c r="B65" s="0" t="n">
+      <c r="B65">
         <v>19</v>
       </c>
-      <c r="C65" s="0" t="n">
+      <c r="C65">
         <v>101</v>
       </c>
-      <c r="D65" s="0" t="n">
+      <c r="D65">
         <v>34</v>
       </c>
-      <c r="E65" s="0" t="n">
+      <c r="E65">
         <v>86</v>
       </c>
-      <c r="F65" s="0" t="n">
+      <c r="F65">
         <v>29</v>
       </c>
-      <c r="G65" s="0" t="n">
+      <c r="G65">
         <v>91</v>
       </c>
-      <c r="H65" s="0" t="n">
+      <c r="H65">
         <v>33</v>
       </c>
-      <c r="I65" s="0" t="n">
+      <c r="I65">
         <v>87</v>
       </c>
-      <c r="J65" s="0" t="n">
+      <c r="J65">
         <v>29</v>
       </c>
-      <c r="K65" s="0" t="n">
+      <c r="K65">
         <v>91</v>
       </c>
-      <c r="L65" s="0" t="n">
+      <c r="L65">
         <v>36</v>
       </c>
-      <c r="M65" s="0" t="n">
+      <c r="M65">
         <v>84</v>
       </c>
-      <c r="N65" s="0" t="n">
+      <c r="N65">
         <v>37</v>
       </c>
-      <c r="O65" s="0" t="n">
+      <c r="O65">
         <v>83</v>
       </c>
-      <c r="P65" s="0" t="n">
+      <c r="P65">
         <v>38</v>
       </c>
-      <c r="Q65" s="0" t="n">
+      <c r="Q65">
         <v>82</v>
       </c>
-      <c r="R65" s="0" t="n">
+      <c r="R65">
         <v>28</v>
       </c>
-      <c r="S65" s="0" t="n">
+      <c r="S65">
         <v>92</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
         <v>13</v>
       </c>
-      <c r="B66" s="0" t="n">
+      <c r="B66">
         <v>31</v>
       </c>
-      <c r="C66" s="0" t="n">
+      <c r="C66">
         <v>89</v>
       </c>
-      <c r="D66" s="0" t="n">
+      <c r="D66">
         <v>41</v>
       </c>
-      <c r="E66" s="0" t="n">
+      <c r="E66">
         <v>79</v>
       </c>
-      <c r="F66" s="0" t="n">
+      <c r="F66">
         <v>32</v>
       </c>
-      <c r="G66" s="0" t="n">
+      <c r="G66">
         <v>88</v>
       </c>
-      <c r="H66" s="0" t="n">
+      <c r="H66">
         <v>28</v>
       </c>
-      <c r="I66" s="0" t="n">
+      <c r="I66">
         <v>92</v>
       </c>
-      <c r="J66" s="0" t="n">
+      <c r="J66">
         <v>29</v>
       </c>
-      <c r="K66" s="0" t="n">
+      <c r="K66">
         <v>91</v>
       </c>
-      <c r="L66" s="0" t="n">
+      <c r="L66">
         <v>23</v>
       </c>
-      <c r="M66" s="0" t="n">
+      <c r="M66">
         <v>97</v>
       </c>
-      <c r="N66" s="0" t="n">
+      <c r="N66">
         <v>28</v>
       </c>
-      <c r="O66" s="0" t="n">
+      <c r="O66">
         <v>92</v>
       </c>
-      <c r="P66" s="0" t="n">
+      <c r="P66">
         <v>22</v>
       </c>
-      <c r="Q66" s="0" t="n">
+      <c r="Q66">
         <v>98</v>
       </c>
-      <c r="R66" s="0" t="n">
+      <c r="R66">
         <v>23</v>
       </c>
-      <c r="S66" s="0" t="n">
+      <c r="S66">
         <v>97</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
         <v>14</v>
       </c>
-      <c r="B67" s="0" t="n">
+      <c r="B67">
         <v>53</v>
       </c>
-      <c r="C67" s="0" t="n">
+      <c r="C67">
         <v>67</v>
       </c>
-      <c r="D67" s="0" t="n">
+      <c r="D67">
         <v>51</v>
       </c>
-      <c r="E67" s="0" t="n">
+      <c r="E67">
         <v>69</v>
       </c>
-      <c r="F67" s="0" t="n">
+      <c r="F67">
         <v>46</v>
       </c>
-      <c r="G67" s="0" t="n">
+      <c r="G67">
         <v>74</v>
       </c>
-      <c r="H67" s="0" t="n">
+      <c r="H67">
         <v>24</v>
       </c>
-      <c r="I67" s="0" t="n">
+      <c r="I67">
         <v>96</v>
       </c>
-      <c r="J67" s="0" t="n">
+      <c r="J67">
         <v>30</v>
       </c>
-      <c r="K67" s="0" t="n">
+      <c r="K67">
         <v>90</v>
       </c>
-      <c r="L67" s="0" t="n">
+      <c r="L67">
         <v>23</v>
       </c>
-      <c r="M67" s="0" t="n">
+      <c r="M67">
         <v>97</v>
       </c>
-      <c r="N67" s="0" t="n">
+      <c r="N67">
         <v>19</v>
       </c>
-      <c r="O67" s="0" t="n">
+      <c r="O67">
         <v>101</v>
       </c>
-      <c r="P67" s="0" t="n">
+      <c r="P67">
         <v>21</v>
       </c>
-      <c r="Q67" s="0" t="n">
+      <c r="Q67">
         <v>99</v>
       </c>
-      <c r="R67" s="0" t="n">
+      <c r="R67">
         <v>17</v>
       </c>
-      <c r="S67" s="0" t="n">
+      <c r="S67">
         <v>103</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
         <v>15</v>
       </c>
-      <c r="B68" s="0" t="n">
+      <c r="B68">
         <v>23</v>
       </c>
-      <c r="C68" s="0" t="n">
+      <c r="C68">
         <v>97</v>
       </c>
-      <c r="D68" s="0" t="n">
+      <c r="D68">
         <v>33</v>
       </c>
-      <c r="E68" s="0" t="n">
+      <c r="E68">
         <v>87</v>
       </c>
-      <c r="F68" s="0" t="n">
+      <c r="F68">
         <v>26</v>
       </c>
-      <c r="G68" s="0" t="n">
+      <c r="G68">
         <v>94</v>
       </c>
-      <c r="H68" s="0" t="n">
+      <c r="H68">
         <v>34</v>
       </c>
-      <c r="I68" s="0" t="n">
+      <c r="I68">
         <v>86</v>
       </c>
-      <c r="J68" s="0" t="n">
+      <c r="J68">
         <v>30</v>
       </c>
-      <c r="K68" s="0" t="n">
+      <c r="K68">
         <v>90</v>
       </c>
-      <c r="L68" s="0" t="n">
+      <c r="L68">
         <v>44</v>
       </c>
-      <c r="M68" s="0" t="n">
+      <c r="M68">
         <v>76</v>
       </c>
-      <c r="N68" s="0" t="n">
+      <c r="N68">
         <v>36</v>
       </c>
-      <c r="O68" s="0" t="n">
+      <c r="O68">
         <v>84</v>
       </c>
-      <c r="P68" s="0" t="n">
+      <c r="P68">
         <v>38</v>
       </c>
-      <c r="Q68" s="0" t="n">
+      <c r="Q68">
         <v>82</v>
       </c>
-      <c r="R68" s="0" t="n">
+      <c r="R68">
         <v>28</v>
       </c>
-      <c r="S68" s="0" t="n">
+      <c r="S68">
         <v>92</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="0" t="n">
+      <c r="B69">
         <v>21</v>
       </c>
-      <c r="C69" s="0" t="n">
+      <c r="C69">
         <v>99</v>
       </c>
-      <c r="D69" s="0" t="n">
+      <c r="D69">
         <v>20</v>
       </c>
-      <c r="E69" s="0" t="n">
+      <c r="E69">
         <v>100</v>
       </c>
-      <c r="F69" s="0" t="n">
+      <c r="F69">
         <v>33</v>
       </c>
-      <c r="G69" s="0" t="n">
+      <c r="G69">
         <v>87</v>
       </c>
-      <c r="H69" s="0" t="n">
+      <c r="H69">
         <v>25</v>
       </c>
-      <c r="I69" s="0" t="n">
+      <c r="I69">
         <v>95</v>
       </c>
-      <c r="J69" s="0" t="n">
+      <c r="J69">
         <v>27</v>
       </c>
-      <c r="K69" s="0" t="n">
+      <c r="K69">
         <v>93</v>
       </c>
-      <c r="L69" s="0" t="n">
+      <c r="L69">
         <v>33</v>
       </c>
-      <c r="M69" s="0" t="n">
+      <c r="M69">
         <v>87</v>
       </c>
-      <c r="N69" s="0" t="n">
+      <c r="N69">
         <v>26</v>
       </c>
-      <c r="O69" s="0" t="n">
+      <c r="O69">
         <v>94</v>
       </c>
-      <c r="P69" s="0" t="n">
+      <c r="P69">
         <v>28</v>
       </c>
-      <c r="Q69" s="0" t="n">
+      <c r="Q69">
         <v>92</v>
       </c>
-      <c r="R69" s="0" t="n">
+      <c r="R69">
         <v>61</v>
       </c>
-      <c r="S69" s="0" t="n">
+      <c r="S69">
         <v>59</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="0" t="s">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B73" t="s">
         <v>17</v>
       </c>
-      <c r="C73" s="0" t="s">
+      <c r="C73" t="s">
         <v>18</v>
       </c>
-      <c r="E73" s="0" t="s">
+      <c r="E73" t="s">
         <v>19</v>
       </c>
-      <c r="F73" s="0" t="s">
+      <c r="F73" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="0" t="s">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B74" t="s">
         <v>11</v>
       </c>
-      <c r="C74" s="1" t="n">
-        <f aca="false">AVERAGE(B64,D64,F64,H64,J64,L64,N64,P64,R64)</f>
-        <v>38.6666666666667</v>
+      <c r="C74" s="1">
+        <f t="shared" ref="C74:C79" si="6">AVERAGE(B64,D64,F64,H64,J64,L64,N64,P64,R64)</f>
+        <v>38.666666666666664</v>
       </c>
       <c r="D74" s="1"/>
-      <c r="E74" s="1" t="n">
-        <f aca="false">C74/120</f>
-        <v>0.322222222222222</v>
-      </c>
-      <c r="F74" s="1" t="n">
-        <f aca="false">E74*100</f>
-        <v>32.2222222222222</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="0" t="s">
+      <c r="E74" s="1">
+        <f t="shared" ref="E74:E79" si="7">C74/120</f>
+        <v>0.32222222222222219</v>
+      </c>
+      <c r="F74" s="1">
+        <f t="shared" ref="F74:F79" si="8">E74*100</f>
+        <v>32.222222222222221</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B75" t="s">
         <v>12</v>
       </c>
-      <c r="C75" s="1" t="n">
-        <f aca="false">AVERAGE(B65,D65,F65,H65,J65,L65,N65,P65,R65)</f>
-        <v>31.4444444444444</v>
+      <c r="C75" s="1">
+        <f t="shared" si="6"/>
+        <v>31.444444444444443</v>
       </c>
       <c r="D75" s="1"/>
-      <c r="E75" s="1" t="n">
-        <f aca="false">C75/120</f>
-        <v>0.262037037037037</v>
-      </c>
-      <c r="F75" s="1" t="n">
-        <f aca="false">E75*100</f>
-        <v>26.2037037037037</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="0" t="s">
+      <c r="E75" s="1">
+        <f t="shared" si="7"/>
+        <v>0.26203703703703701</v>
+      </c>
+      <c r="F75" s="1">
+        <f t="shared" si="8"/>
+        <v>26.203703703703702</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B76" t="s">
         <v>13</v>
       </c>
-      <c r="C76" s="1" t="n">
-        <f aca="false">AVERAGE(B66,D66,F66,H66,J66,L66,N66,P66,R66)</f>
-        <v>28.5555555555556</v>
+      <c r="C76" s="1">
+        <f t="shared" si="6"/>
+        <v>28.555555555555557</v>
       </c>
       <c r="D76" s="1"/>
-      <c r="E76" s="1" t="n">
-        <f aca="false">C76/120</f>
-        <v>0.237962962962963</v>
-      </c>
-      <c r="F76" s="1" t="n">
-        <f aca="false">E76*100</f>
-        <v>23.7962962962963</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="0" t="s">
+      <c r="E76" s="1">
+        <f t="shared" si="7"/>
+        <v>0.23796296296296299</v>
+      </c>
+      <c r="F76" s="1">
+        <f t="shared" si="8"/>
+        <v>23.796296296296298</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B77" t="s">
         <v>14</v>
       </c>
-      <c r="C77" s="1" t="n">
-        <f aca="false">AVERAGE(B67,D67,F67,H67,J67,L67,N67,P67,R67)</f>
-        <v>31.5555555555556</v>
+      <c r="C77" s="1">
+        <f t="shared" si="6"/>
+        <v>31.555555555555557</v>
       </c>
       <c r="D77" s="1"/>
-      <c r="E77" s="1" t="n">
-        <f aca="false">C77/120</f>
-        <v>0.262962962962963</v>
-      </c>
-      <c r="F77" s="1" t="n">
-        <f aca="false">E77*100</f>
-        <v>26.2962962962963</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="0" t="s">
+      <c r="E77" s="1">
+        <f t="shared" si="7"/>
+        <v>0.26296296296296295</v>
+      </c>
+      <c r="F77" s="1">
+        <f t="shared" si="8"/>
+        <v>26.296296296296294</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B78" t="s">
         <v>15</v>
       </c>
-      <c r="C78" s="1" t="n">
-        <f aca="false">AVERAGE(B68,D68,F68,H68,J68,L68,N68,P68,R68)</f>
-        <v>32.4444444444444</v>
+      <c r="C78" s="1">
+        <f t="shared" si="6"/>
+        <v>32.444444444444443</v>
       </c>
       <c r="D78" s="1"/>
-      <c r="E78" s="1" t="n">
-        <f aca="false">C78/120</f>
-        <v>0.27037037037037</v>
-      </c>
-      <c r="F78" s="1" t="n">
-        <f aca="false">E78*100</f>
-        <v>27.037037037037</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="0" t="s">
+      <c r="E78" s="1">
+        <f t="shared" si="7"/>
+        <v>0.27037037037037037</v>
+      </c>
+      <c r="F78" s="1">
+        <f t="shared" si="8"/>
+        <v>27.037037037037038</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B79" t="s">
         <v>16</v>
       </c>
-      <c r="C79" s="1" t="n">
-        <f aca="false">AVERAGE(B69,D69,F69,H69,J69,L69,N69,P69,R69)</f>
-        <v>30.4444444444444</v>
+      <c r="C79" s="1">
+        <f t="shared" si="6"/>
+        <v>30.444444444444443</v>
       </c>
       <c r="D79" s="1"/>
-      <c r="E79" s="1" t="n">
-        <f aca="false">C79/120</f>
-        <v>0.253703703703704</v>
-      </c>
-      <c r="F79" s="1" t="n">
-        <f aca="false">E79*100</f>
-        <v>25.3703703703704</v>
+      <c r="E79" s="1">
+        <f t="shared" si="7"/>
+        <v>0.25370370370370371</v>
+      </c>
+      <c r="F79" s="1">
+        <f t="shared" si="8"/>
+        <v>25.37037037037037</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1787,1237 +2094,1232 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:S31"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C15" activeCellId="0" sqref="C15"/>
+    <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="6.20918367346939"/>
+    <col min="1" max="1" width="12.5"/>
+    <col min="2" max="2" width="8"/>
+    <col min="3" max="3" width="6.1640625"/>
+    <col min="4" max="4" width="7.83203125"/>
+    <col min="5" max="5" width="6.1640625"/>
+    <col min="6" max="6" width="7.83203125"/>
+    <col min="7" max="7" width="6.1640625"/>
+    <col min="8" max="8" width="8.5"/>
+    <col min="9" max="9" width="6.1640625"/>
+    <col min="10" max="10" width="7.6640625"/>
+    <col min="11" max="11" width="6.1640625"/>
+    <col min="12" max="12" width="7.1640625"/>
+    <col min="13" max="13" width="6.1640625"/>
+    <col min="14" max="14" width="7.83203125"/>
+    <col min="15" max="15" width="6.1640625"/>
+    <col min="16" max="16" width="7.5"/>
+    <col min="17" max="17" width="6.1640625"/>
+    <col min="18" max="18" width="7.1640625"/>
+    <col min="19" max="1025" width="6.1640625"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="K3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="L3" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="M3" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="N3" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="0" t="s">
+      <c r="O3" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="0" t="s">
+      <c r="P3" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="Q3" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="0" t="s">
+      <c r="R3" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="0" t="s">
+      <c r="S3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>98</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>22</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4">
         <v>90</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>30</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4">
         <v>95</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4">
         <v>25</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4">
         <v>101</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4">
         <v>19</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4">
         <v>96</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4">
         <v>24</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="L4">
         <v>91</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M4">
         <v>29</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="N4">
         <v>88</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="O4">
         <v>32</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="P4">
         <v>93</v>
       </c>
-      <c r="Q4" s="0" t="n">
+      <c r="Q4">
         <v>27</v>
       </c>
-      <c r="R4" s="0" t="n">
+      <c r="R4">
         <v>91</v>
       </c>
-      <c r="S4" s="0" t="n">
+      <c r="S4">
         <v>29</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>76</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>44</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5">
         <v>83</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>37</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5">
         <v>89</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5">
         <v>31</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5">
         <v>82</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5">
         <v>38</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5">
         <v>80</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5">
         <v>40</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="L5">
         <v>76</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="M5">
         <v>44</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="N5">
         <v>80</v>
       </c>
-      <c r="O5" s="0" t="n">
+      <c r="O5">
         <v>40</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="P5">
         <v>81</v>
       </c>
-      <c r="Q5" s="0" t="n">
+      <c r="Q5">
         <v>39</v>
       </c>
-      <c r="R5" s="0" t="n">
+      <c r="R5">
         <v>89</v>
       </c>
-      <c r="S5" s="0" t="n">
+      <c r="S5">
         <v>31</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>91</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>29</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6">
         <v>101</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>19</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6">
         <v>100</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6">
         <v>20</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6">
         <v>96</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6">
         <v>24</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6">
         <v>100</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K6">
         <v>20</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="L6">
         <v>98</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="M6">
         <v>22</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="N6">
         <v>89</v>
       </c>
-      <c r="O6" s="0" t="n">
+      <c r="O6">
         <v>31</v>
       </c>
-      <c r="P6" s="0" t="n">
+      <c r="P6">
         <v>96</v>
       </c>
-      <c r="Q6" s="0" t="n">
+      <c r="Q6">
         <v>24</v>
       </c>
-      <c r="R6" s="0" t="n">
+      <c r="R6">
         <v>95</v>
       </c>
-      <c r="S6" s="0" t="n">
+      <c r="S6">
         <v>25</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>90</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>30</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7">
         <v>95</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>25</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7">
         <v>92</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7">
         <v>28</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7">
         <v>108</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7">
         <v>12</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7">
         <v>106</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K7">
         <v>14</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="L7">
         <v>110</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="M7">
         <v>10</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="N7">
         <v>96</v>
       </c>
-      <c r="O7" s="0" t="n">
+      <c r="O7">
         <v>24</v>
       </c>
-      <c r="P7" s="0" t="n">
+      <c r="P7">
         <v>89</v>
       </c>
-      <c r="Q7" s="0" t="n">
+      <c r="Q7">
         <v>31</v>
       </c>
-      <c r="R7" s="0" t="n">
+      <c r="R7">
         <v>95</v>
       </c>
-      <c r="S7" s="0" t="n">
+      <c r="S7">
         <v>25</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>94</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8">
         <v>26</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8">
         <v>98</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8">
         <v>22</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8">
         <v>92</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8">
         <v>28</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8">
         <v>89</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8">
         <v>31</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8">
         <v>96</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="K8">
         <v>24</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="L8">
         <v>95</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="M8">
         <v>25</v>
       </c>
-      <c r="N8" s="0" t="n">
+      <c r="N8">
         <v>99</v>
       </c>
-      <c r="O8" s="0" t="n">
+      <c r="O8">
         <v>21</v>
       </c>
-      <c r="P8" s="0" t="n">
+      <c r="P8">
         <v>95</v>
       </c>
-      <c r="Q8" s="0" t="n">
+      <c r="Q8">
         <v>25</v>
       </c>
-      <c r="R8" s="0" t="n">
+      <c r="R8">
         <v>98</v>
       </c>
-      <c r="S8" s="0" t="n">
+      <c r="S8">
         <v>22</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>107</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9">
         <v>13</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9">
         <v>105</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>15</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9">
         <v>107</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9">
         <v>13</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9">
         <v>106</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9">
         <v>14</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9">
         <v>107</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="K9">
         <v>13</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="L9">
         <v>103</v>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="M9">
         <v>17</v>
       </c>
-      <c r="N9" s="0" t="n">
+      <c r="N9">
         <v>99</v>
       </c>
-      <c r="O9" s="0" t="n">
+      <c r="O9">
         <v>21</v>
       </c>
-      <c r="P9" s="0" t="n">
+      <c r="P9">
         <v>107</v>
       </c>
-      <c r="Q9" s="0" t="n">
+      <c r="Q9">
         <v>13</v>
       </c>
-      <c r="R9" s="0" t="n">
+      <c r="R9">
         <v>108</v>
       </c>
-      <c r="S9" s="0" t="n">
+      <c r="S9">
         <v>12</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>3</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" t="s">
         <v>4</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="H14" t="s">
         <v>5</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="0" t="s">
+      <c r="J14" t="s">
         <v>6</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="0" t="s">
+      <c r="L14" t="s">
         <v>7</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N14" s="0" t="s">
+      <c r="N14" t="s">
         <v>8</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="P14" s="0" t="s">
+      <c r="P14" t="s">
         <v>9</v>
       </c>
       <c r="Q14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R14" s="0" t="s">
+      <c r="R14" t="s">
         <v>10</v>
       </c>
       <c r="S14" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>98</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15">
         <v>22</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15">
         <v>92</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15">
         <v>28</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15">
         <v>93</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15">
         <v>27</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15">
         <v>93</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="I15">
         <v>27</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="J15">
         <v>97</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="K15">
         <v>23</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="L15">
         <v>79</v>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="M15">
         <v>41</v>
       </c>
-      <c r="N15" s="0" t="n">
+      <c r="N15">
         <v>103</v>
       </c>
-      <c r="O15" s="0" t="n">
+      <c r="O15">
         <v>17</v>
       </c>
-      <c r="P15" s="0" t="n">
+      <c r="P15">
         <v>92</v>
       </c>
-      <c r="Q15" s="0" t="n">
+      <c r="Q15">
         <v>28</v>
       </c>
-      <c r="R15" s="0" t="n">
+      <c r="R15">
         <v>96</v>
       </c>
-      <c r="S15" s="0" t="n">
+      <c r="S15">
         <v>24</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>98</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17">
         <v>22</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17">
         <v>101</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17">
         <v>19</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17">
         <v>92</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="G17">
         <v>28</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="H17">
         <v>91</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="I17">
         <v>29</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="J17">
         <v>96</v>
       </c>
-      <c r="K17" s="0" t="n">
+      <c r="K17">
         <v>24</v>
       </c>
-      <c r="L17" s="0" t="n">
+      <c r="L17">
         <v>91</v>
       </c>
-      <c r="M17" s="0" t="n">
+      <c r="M17">
         <v>29</v>
       </c>
-      <c r="N17" s="0" t="n">
+      <c r="N17">
         <v>105</v>
       </c>
-      <c r="O17" s="0" t="n">
+      <c r="O17">
         <v>15</v>
       </c>
-      <c r="P17" s="0" t="n">
+      <c r="P17">
         <v>97</v>
       </c>
-      <c r="Q17" s="0" t="n">
+      <c r="Q17">
         <v>23</v>
       </c>
-      <c r="R17" s="0" t="n">
+      <c r="R17">
         <v>105</v>
       </c>
-      <c r="S17" s="0" t="n">
+      <c r="S17">
         <v>15</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18">
         <v>84</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18">
         <v>36</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18">
         <v>81</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18">
         <v>39</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18">
         <v>90</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="G18">
         <v>30</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="H18">
         <v>95</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="I18">
         <v>25</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="J18">
         <v>83</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="K18">
         <v>27</v>
       </c>
-      <c r="L18" s="0" t="n">
+      <c r="L18">
         <v>88</v>
       </c>
-      <c r="M18" s="0" t="n">
+      <c r="M18">
         <v>32</v>
       </c>
-      <c r="N18" s="0" t="n">
+      <c r="N18">
         <v>83</v>
       </c>
-      <c r="O18" s="0" t="n">
+      <c r="O18">
         <v>37</v>
       </c>
-      <c r="P18" s="0" t="n">
+      <c r="P18">
         <v>87</v>
       </c>
-      <c r="Q18" s="0" t="n">
+      <c r="Q18">
         <v>33</v>
       </c>
-      <c r="R18" s="0" t="n">
+      <c r="R18">
         <v>81</v>
       </c>
-      <c r="S18" s="0" t="n">
+      <c r="S18">
         <v>39</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19">
         <v>84</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19">
         <v>36</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19">
         <v>89</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19">
         <v>31</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19">
         <v>87</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="G19">
         <v>33</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="H19">
         <v>93</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="I19">
         <v>27</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="J19">
         <v>94</v>
       </c>
-      <c r="K19" s="0" t="n">
+      <c r="K19">
         <v>26</v>
       </c>
-      <c r="L19" s="0" t="n">
+      <c r="L19">
         <v>102</v>
       </c>
-      <c r="M19" s="0" t="n">
+      <c r="M19">
         <v>18</v>
       </c>
-      <c r="N19" s="0" t="n">
+      <c r="N19">
         <v>79</v>
       </c>
-      <c r="O19" s="0" t="n">
+      <c r="O19">
         <v>41</v>
       </c>
-      <c r="P19" s="0" t="n">
+      <c r="P19">
         <v>87</v>
       </c>
-      <c r="Q19" s="0" t="n">
+      <c r="Q19">
         <v>33</v>
       </c>
-      <c r="R19" s="0" t="n">
+      <c r="R19">
         <v>93</v>
       </c>
-      <c r="S19" s="0" t="n">
+      <c r="S19">
         <v>27</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20">
         <v>90</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20">
         <v>30</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20">
         <v>82</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20">
         <v>38</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20">
         <v>82</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="G20">
         <v>38</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="H20">
         <v>91</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="I20">
         <v>29</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="J20">
         <v>83</v>
       </c>
-      <c r="K20" s="0" t="n">
+      <c r="K20">
         <v>37</v>
       </c>
-      <c r="L20" s="0" t="n">
+      <c r="L20">
         <v>86</v>
       </c>
-      <c r="M20" s="0" t="n">
+      <c r="M20">
         <v>34</v>
       </c>
-      <c r="N20" s="0" t="n">
+      <c r="N20">
         <v>71</v>
       </c>
-      <c r="O20" s="0" t="n">
+      <c r="O20">
         <v>49</v>
       </c>
-      <c r="P20" s="0" t="n">
+      <c r="P20">
         <v>85</v>
       </c>
-      <c r="Q20" s="0" t="n">
+      <c r="Q20">
         <v>35</v>
       </c>
-      <c r="R20" s="0" t="n">
+      <c r="R20">
         <v>89</v>
       </c>
-      <c r="S20" s="0" t="n">
+      <c r="S20">
         <v>31</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E25" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="F25" t="s">
         <v>4</v>
       </c>
-      <c r="G25" s="0" t="s">
+      <c r="G25" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="0" t="s">
+      <c r="H25" t="s">
         <v>5</v>
       </c>
-      <c r="I25" s="0" t="s">
+      <c r="I25" t="s">
         <v>24</v>
       </c>
-      <c r="J25" s="0" t="s">
+      <c r="J25" t="s">
         <v>6</v>
       </c>
-      <c r="K25" s="0" t="s">
+      <c r="K25" t="s">
         <v>24</v>
       </c>
-      <c r="L25" s="0" t="s">
+      <c r="L25" t="s">
         <v>7</v>
       </c>
-      <c r="M25" s="0" t="s">
+      <c r="M25" t="s">
         <v>24</v>
       </c>
-      <c r="N25" s="0" t="s">
+      <c r="N25" t="s">
         <v>8</v>
       </c>
-      <c r="O25" s="0" t="s">
+      <c r="O25" t="s">
         <v>24</v>
       </c>
-      <c r="P25" s="0" t="s">
+      <c r="P25" t="s">
         <v>9</v>
       </c>
-      <c r="Q25" s="0" t="s">
+      <c r="Q25" t="s">
         <v>24</v>
       </c>
-      <c r="R25" s="0" t="s">
+      <c r="R25" t="s">
         <v>10</v>
       </c>
-      <c r="S25" s="0" t="s">
+      <c r="S25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26">
         <v>39</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26">
         <v>81</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26">
         <v>32</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26">
         <v>88</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26">
         <v>39</v>
       </c>
-      <c r="G26" s="0" t="n">
+      <c r="G26">
         <v>81</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="H26">
         <v>33</v>
       </c>
-      <c r="I26" s="0" t="n">
+      <c r="I26">
         <v>87</v>
       </c>
-      <c r="J26" s="0" t="n">
+      <c r="J26">
         <v>43</v>
       </c>
-      <c r="K26" s="0" t="n">
+      <c r="K26">
         <v>77</v>
       </c>
-      <c r="L26" s="0" t="n">
+      <c r="L26">
         <v>40</v>
       </c>
-      <c r="M26" s="0" t="n">
+      <c r="M26">
         <v>80</v>
       </c>
-      <c r="N26" s="0" t="n">
+      <c r="N26">
         <v>45</v>
       </c>
-      <c r="O26" s="0" t="n">
+      <c r="O26">
         <v>75</v>
       </c>
-      <c r="P26" s="0" t="n">
+      <c r="P26">
         <v>44</v>
       </c>
-      <c r="Q26" s="0" t="n">
+      <c r="Q26">
         <v>76</v>
       </c>
-      <c r="R26" s="0" t="n">
+      <c r="R26">
         <v>33</v>
       </c>
-      <c r="S26" s="0" t="n">
+      <c r="S26">
         <v>87</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27">
         <v>19</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27">
         <v>101</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27">
         <v>34</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27">
         <v>86</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F27">
         <v>29</v>
       </c>
-      <c r="G27" s="0" t="n">
+      <c r="G27">
         <v>91</v>
       </c>
-      <c r="H27" s="0" t="n">
+      <c r="H27">
         <v>33</v>
       </c>
-      <c r="I27" s="0" t="n">
+      <c r="I27">
         <v>87</v>
       </c>
-      <c r="J27" s="0" t="n">
+      <c r="J27">
         <v>29</v>
       </c>
-      <c r="K27" s="0" t="n">
+      <c r="K27">
         <v>91</v>
       </c>
-      <c r="L27" s="0" t="n">
+      <c r="L27">
         <v>36</v>
       </c>
-      <c r="M27" s="0" t="n">
+      <c r="M27">
         <v>84</v>
       </c>
-      <c r="N27" s="0" t="n">
+      <c r="N27">
         <v>37</v>
       </c>
-      <c r="O27" s="0" t="n">
+      <c r="O27">
         <v>83</v>
       </c>
-      <c r="P27" s="0" t="n">
+      <c r="P27">
         <v>38</v>
       </c>
-      <c r="Q27" s="0" t="n">
+      <c r="Q27">
         <v>82</v>
       </c>
-      <c r="R27" s="0" t="n">
+      <c r="R27">
         <v>28</v>
       </c>
-      <c r="S27" s="0" t="n">
+      <c r="S27">
         <v>92</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28">
         <v>31</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28">
         <v>89</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28">
         <v>41</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28">
         <v>79</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F28">
         <v>32</v>
       </c>
-      <c r="G28" s="0" t="n">
+      <c r="G28">
         <v>88</v>
       </c>
-      <c r="H28" s="0" t="n">
+      <c r="H28">
         <v>28</v>
       </c>
-      <c r="I28" s="0" t="n">
+      <c r="I28">
         <v>92</v>
       </c>
-      <c r="J28" s="0" t="n">
+      <c r="J28">
         <v>29</v>
       </c>
-      <c r="K28" s="0" t="n">
+      <c r="K28">
         <v>91</v>
       </c>
-      <c r="L28" s="0" t="n">
+      <c r="L28">
         <v>23</v>
       </c>
-      <c r="M28" s="0" t="n">
+      <c r="M28">
         <v>97</v>
       </c>
-      <c r="N28" s="0" t="n">
+      <c r="N28">
         <v>28</v>
       </c>
-      <c r="O28" s="0" t="n">
+      <c r="O28">
         <v>92</v>
       </c>
-      <c r="P28" s="0" t="n">
+      <c r="P28">
         <v>22</v>
       </c>
-      <c r="Q28" s="0" t="n">
+      <c r="Q28">
         <v>98</v>
       </c>
-      <c r="R28" s="0" t="n">
+      <c r="R28">
         <v>23</v>
       </c>
-      <c r="S28" s="0" t="n">
+      <c r="S28">
         <v>97</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29">
         <v>53</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29">
         <v>67</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29">
         <v>51</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29">
         <v>69</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F29">
         <v>46</v>
       </c>
-      <c r="G29" s="0" t="n">
+      <c r="G29">
         <v>74</v>
       </c>
-      <c r="H29" s="0" t="n">
+      <c r="H29">
         <v>24</v>
       </c>
-      <c r="I29" s="0" t="n">
+      <c r="I29">
         <v>96</v>
       </c>
-      <c r="J29" s="0" t="n">
+      <c r="J29">
         <v>30</v>
       </c>
-      <c r="K29" s="0" t="n">
+      <c r="K29">
         <v>90</v>
       </c>
-      <c r="L29" s="0" t="n">
+      <c r="L29">
         <v>23</v>
       </c>
-      <c r="M29" s="0" t="n">
+      <c r="M29">
         <v>97</v>
       </c>
-      <c r="N29" s="0" t="n">
+      <c r="N29">
         <v>19</v>
       </c>
-      <c r="O29" s="0" t="n">
+      <c r="O29">
         <v>101</v>
       </c>
-      <c r="P29" s="0" t="n">
+      <c r="P29">
         <v>21</v>
       </c>
-      <c r="Q29" s="0" t="n">
+      <c r="Q29">
         <v>99</v>
       </c>
-      <c r="R29" s="0" t="n">
+      <c r="R29">
         <v>17</v>
       </c>
-      <c r="S29" s="0" t="n">
+      <c r="S29">
         <v>103</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30">
         <v>23</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30">
         <v>97</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30">
         <v>33</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30">
         <v>87</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="F30">
         <v>26</v>
       </c>
-      <c r="G30" s="0" t="n">
+      <c r="G30">
         <v>94</v>
       </c>
-      <c r="H30" s="0" t="n">
+      <c r="H30">
         <v>34</v>
       </c>
-      <c r="I30" s="0" t="n">
+      <c r="I30">
         <v>86</v>
       </c>
-      <c r="J30" s="0" t="n">
+      <c r="J30">
         <v>30</v>
       </c>
-      <c r="K30" s="0" t="n">
+      <c r="K30">
         <v>90</v>
       </c>
-      <c r="L30" s="0" t="n">
+      <c r="L30">
         <v>44</v>
       </c>
-      <c r="M30" s="0" t="n">
+      <c r="M30">
         <v>76</v>
       </c>
-      <c r="N30" s="0" t="n">
+      <c r="N30">
         <v>36</v>
       </c>
-      <c r="O30" s="0" t="n">
+      <c r="O30">
         <v>84</v>
       </c>
-      <c r="P30" s="0" t="n">
+      <c r="P30">
         <v>38</v>
       </c>
-      <c r="Q30" s="0" t="n">
+      <c r="Q30">
         <v>82</v>
       </c>
-      <c r="R30" s="0" t="n">
+      <c r="R30">
         <v>28</v>
       </c>
-      <c r="S30" s="0" t="n">
+      <c r="S30">
         <v>92</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31">
         <v>21</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31">
         <v>99</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31">
         <v>20</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31">
         <v>100</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="F31">
         <v>33</v>
       </c>
-      <c r="G31" s="0" t="n">
+      <c r="G31">
         <v>87</v>
       </c>
-      <c r="H31" s="0" t="n">
+      <c r="H31">
         <v>25</v>
       </c>
-      <c r="I31" s="0" t="n">
+      <c r="I31">
         <v>95</v>
       </c>
-      <c r="J31" s="0" t="n">
+      <c r="J31">
         <v>27</v>
       </c>
-      <c r="K31" s="0" t="n">
+      <c r="K31">
         <v>93</v>
       </c>
-      <c r="L31" s="0" t="n">
+      <c r="L31">
         <v>33</v>
       </c>
-      <c r="M31" s="0" t="n">
+      <c r="M31">
         <v>87</v>
       </c>
-      <c r="N31" s="0" t="n">
+      <c r="N31">
         <v>26</v>
       </c>
-      <c r="O31" s="0" t="n">
+      <c r="O31">
         <v>94</v>
       </c>
-      <c r="P31" s="0" t="n">
+      <c r="P31">
         <v>28</v>
       </c>
-      <c r="Q31" s="0" t="n">
+      <c r="Q31">
         <v>92</v>
       </c>
-      <c r="R31" s="0" t="n">
+      <c r="R31">
         <v>61</v>
       </c>
-      <c r="S31" s="0" t="n">
+      <c r="S31">
         <v>59</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/Text/research results.xlsx
+++ b/Text/research results.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucasfaijdherbe/Library/Mobile Documents/com~apple~CloudDocs/Computer Science/Intelligent Systems/Project/VU-Intelligent-Systems/Text/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <workbookProtection lockWindows="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22720" windowHeight="14000" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="nieuwe namen" sheetId="1" r:id="rId1"/>
-    <sheet name="Oude benamingen" sheetId="2" r:id="rId2"/>
+    <sheet name="nieuwe namen" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Oude benamingen" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -28,94 +23,113 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="26">
   <si>
-    <t>Against Rand</t>
+    <t xml:space="preserve">Against Rand</t>
   </si>
   <si>
-    <t>Round 1</t>
+    <t xml:space="preserve">Round 1</t>
   </si>
   <si>
-    <t>Rand</t>
+    <t xml:space="preserve">Rand</t>
   </si>
   <si>
-    <t>Round 2</t>
+    <t xml:space="preserve">Round 2</t>
   </si>
   <si>
-    <t>Round 3</t>
+    <t xml:space="preserve">Round 3</t>
   </si>
   <si>
-    <t>Round 4</t>
+    <t xml:space="preserve">Round 4</t>
   </si>
   <si>
-    <t>Round 5</t>
+    <t xml:space="preserve">Round 5</t>
   </si>
   <si>
-    <t>Round 6</t>
+    <t xml:space="preserve">Round 6</t>
   </si>
   <si>
-    <t>Round 7</t>
+    <t xml:space="preserve">Round 7</t>
   </si>
   <si>
-    <t>Round 8</t>
+    <t xml:space="preserve">Round 8</t>
   </si>
   <si>
-    <t>Round 9</t>
+    <t xml:space="preserve">Round 9</t>
   </si>
   <si>
-    <t>ml_minimal</t>
+    <t xml:space="preserve">ml_minimal</t>
   </si>
   <si>
-    <t>ml_stripped</t>
+    <t xml:space="preserve">ml_stripped</t>
   </si>
   <si>
-    <t>ml</t>
+    <t xml:space="preserve">ml</t>
   </si>
   <si>
-    <t>ml_enriched</t>
+    <t xml:space="preserve">ml_enriched</t>
   </si>
   <si>
-    <t>ml_advanced</t>
+    <t xml:space="preserve">ml_advanced</t>
   </si>
   <si>
-    <t>ml_combined</t>
+    <t xml:space="preserve">ml_combined</t>
   </si>
   <si>
-    <t>Mean</t>
+    <t xml:space="preserve">Mean</t>
   </si>
   <si>
-    <t>mean won games</t>
+    <t xml:space="preserve">mean won games</t>
   </si>
   <si>
-    <t>Part won</t>
+    <t xml:space="preserve">Part won</t>
   </si>
   <si>
-    <t>Percentage won</t>
+    <t xml:space="preserve">Percentage won</t>
   </si>
   <si>
-    <t>Against Bully</t>
+    <t xml:space="preserve">Against Bully</t>
   </si>
   <si>
-    <t>Bully</t>
+    <t xml:space="preserve">Bully</t>
   </si>
   <si>
-    <t>Against Rdeep</t>
+    <t xml:space="preserve">Against Rdeep</t>
   </si>
   <si>
-    <t>Rdeep</t>
+    <t xml:space="preserve">Rdeep</t>
   </si>
   <si>
-    <t>ml_lucas</t>
+    <t xml:space="preserve">ml_lucas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -127,7 +141,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -135,1958 +149,1690 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
-  <a:themeElements>
-    <a:clrScheme name="Kantoor">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Kantoor">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:S79"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection activeCell="A22" sqref="A22"/>
-      <selection pane="topRight" activeCell="R28" sqref="R28"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B7" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topRight" activeCell="E41" activeCellId="0" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="19"/>
-    <col min="2" max="1025" width="11.33203125"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.765306122449"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
+    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="0" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0" t="n">
         <v>98</v>
       </c>
-      <c r="C3">
-        <v>22</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="0" t="n">
         <v>101</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="0" t="n">
         <v>96</v>
       </c>
-      <c r="K3">
-        <v>24</v>
-      </c>
-      <c r="L3">
+      <c r="K3" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="L3" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="0" t="n">
         <v>88</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="0" t="n">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0" t="n">
         <v>76</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="0" t="n">
         <v>89</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="0" t="n">
         <v>82</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="0" t="n">
         <v>76</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="0" t="n">
         <v>81</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="0" t="n">
         <v>89</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="0" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0" t="n">
         <v>101</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="0" t="n">
         <v>96</v>
       </c>
-      <c r="I5">
-        <v>24</v>
-      </c>
-      <c r="J5">
+      <c r="I5" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="J5" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="0" t="n">
         <v>98</v>
       </c>
-      <c r="M5">
-        <v>22</v>
-      </c>
-      <c r="N5">
+      <c r="M5" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="N5" s="0" t="n">
         <v>89</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="0" t="n">
         <v>96</v>
       </c>
-      <c r="Q5">
-        <v>24</v>
-      </c>
-      <c r="R5">
+      <c r="Q5" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="R5" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="0" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="0" t="n">
         <v>108</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="0" t="n">
         <v>106</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="0" t="n">
         <v>110</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="0" t="n">
         <v>96</v>
       </c>
-      <c r="O6">
-        <v>24</v>
-      </c>
-      <c r="P6">
+      <c r="O6" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="P6" s="0" t="n">
         <v>89</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="0" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0" t="n">
         <v>94</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="0" t="n">
         <v>98</v>
       </c>
-      <c r="E7">
-        <v>22</v>
-      </c>
-      <c r="F7">
+      <c r="E7" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="F7" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="0" t="n">
         <v>89</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="0" t="n">
         <v>96</v>
       </c>
-      <c r="K7">
-        <v>24</v>
-      </c>
-      <c r="L7">
+      <c r="K7" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="L7" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="0" t="n">
         <v>98</v>
       </c>
-      <c r="S7">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="S7" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0" t="n">
         <v>107</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="0" t="n">
         <v>105</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="0" t="n">
         <v>107</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="0" t="n">
         <v>106</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="0" t="n">
         <v>107</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="0" t="n">
         <v>103</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="0" t="n">
         <v>107</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="0" t="n">
         <v>108</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="0" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
+    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
+    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="1">
-        <f t="shared" ref="C14:C19" si="0">AVERAGE(B3,D3,F3,H3,J3,L3,N3,P3,R3)</f>
-        <v>93.666666666666671</v>
+      <c r="C14" s="1" t="n">
+        <f aca="false">AVERAGE(B3,D3,F3,H3,J3,L3,N3,P3,R3)</f>
+        <v>93.6666666666667</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="1">
-        <f t="shared" ref="E14:E19" si="1">C14/120</f>
-        <v>0.78055555555555556</v>
-      </c>
-      <c r="F14" s="1">
-        <f t="shared" ref="F14:F19" si="2">E14*100</f>
-        <v>78.055555555555557</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
+      <c r="E14" s="1" t="n">
+        <f aca="false">C14/120</f>
+        <v>0.780555555555556</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <f aca="false">E14*100</f>
+        <v>78.0555555555556</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="1">
-        <f t="shared" si="0"/>
-        <v>81.777777777777771</v>
+      <c r="C15" s="1" t="n">
+        <f aca="false">AVERAGE(B4,D4,F4,H4,J4,L4,N4,P4,R4)</f>
+        <v>81.7777777777778</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="1">
-        <f t="shared" si="1"/>
-        <v>0.68148148148148147</v>
-      </c>
-      <c r="F15" s="1">
-        <f t="shared" si="2"/>
-        <v>68.148148148148152</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="B16" t="s">
+      <c r="E15" s="1" t="n">
+        <f aca="false">C15/120</f>
+        <v>0.681481481481481</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <f aca="false">E15*100</f>
+        <v>68.1481481481482</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="1">
-        <f t="shared" si="0"/>
-        <v>96.222222222222229</v>
+      <c r="C16" s="1" t="n">
+        <f aca="false">AVERAGE(B5,D5,F5,H5,J5,L5,N5,P5,R5)</f>
+        <v>96.2222222222222</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="1">
-        <f t="shared" si="1"/>
-        <v>0.80185185185185193</v>
-      </c>
-      <c r="F16" s="1">
-        <f t="shared" si="2"/>
-        <v>80.18518518518519</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="B17" t="s">
+      <c r="E16" s="1" t="n">
+        <f aca="false">C16/120</f>
+        <v>0.801851851851852</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <f aca="false">E16*100</f>
+        <v>80.1851851851852</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="1">
-        <f t="shared" si="0"/>
-        <v>97.888888888888886</v>
+      <c r="C17" s="1" t="n">
+        <f aca="false">AVERAGE(B6,D6,F6,H6,J6,L6,N6,P6,R6)</f>
+        <v>97.8888888888889</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="1">
-        <f t="shared" si="1"/>
-        <v>0.81574074074074077</v>
-      </c>
-      <c r="F17" s="1">
-        <f t="shared" si="2"/>
-        <v>81.574074074074076</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="B18" t="s">
+      <c r="E17" s="1" t="n">
+        <f aca="false">C17/120</f>
+        <v>0.815740740740741</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <f aca="false">E17*100</f>
+        <v>81.5740740740741</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="1">
-        <f t="shared" si="0"/>
-        <v>95.111111111111114</v>
+      <c r="C18" s="1" t="n">
+        <f aca="false">AVERAGE(B7,D7,F7,H7,J7,L7,N7,P7,R7)</f>
+        <v>95.1111111111111</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="1">
-        <f t="shared" si="1"/>
-        <v>0.79259259259259263</v>
-      </c>
-      <c r="F18" s="1">
-        <f t="shared" si="2"/>
-        <v>79.259259259259267</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="B19" t="s">
+      <c r="E18" s="1" t="n">
+        <f aca="false">C18/120</f>
+        <v>0.792592592592593</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <f aca="false">E18*100</f>
+        <v>79.2592592592593</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="1">
-        <f t="shared" si="0"/>
-        <v>105.44444444444444</v>
+      <c r="C19" s="1" t="n">
+        <f aca="false">AVERAGE(B8,D8,F8,H8,J8,L8,N8,P8,R8)</f>
+        <v>105.444444444444</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="1">
-        <f t="shared" si="1"/>
-        <v>0.87870370370370365</v>
-      </c>
-      <c r="F19" s="1">
-        <f t="shared" si="2"/>
-        <v>87.870370370370367</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
+      <c r="E19" s="1" t="n">
+        <f aca="false">C19/120</f>
+        <v>0.878703703703704</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <f aca="false">E19*100</f>
+        <v>87.8703703703704</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="B30" t="s">
+    <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="0" t="s">
         <v>4</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="0" t="s">
         <v>5</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" s="0" t="s">
         <v>6</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L30" s="0" t="s">
         <v>7</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N30" t="s">
+      <c r="N30" s="0" t="s">
         <v>8</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="P30" t="s">
+      <c r="P30" s="0" t="s">
         <v>9</v>
       </c>
       <c r="Q30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R30" t="s">
+      <c r="R30" s="0" t="s">
         <v>10</v>
       </c>
       <c r="S30" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
+    <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="0" t="n">
         <v>98</v>
       </c>
-      <c r="C31">
-        <v>22</v>
-      </c>
-      <c r="D31">
+      <c r="C31" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="D31" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="0" t="n">
         <v>79</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="0" t="n">
         <v>103</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="P31">
+      <c r="P31" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="Q31">
+      <c r="Q31" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="R31">
+      <c r="R31" s="0" t="n">
         <v>96</v>
       </c>
-      <c r="S31">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
+      <c r="S31" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="0" t="n">
         <v>101</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="O32">
+      <c r="O32" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="P32">
+      <c r="P32" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="Q32">
+      <c r="Q32" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="R32">
+      <c r="R32" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="S32">
+      <c r="S32" s="0" t="n">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
+    <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="0" t="n">
         <v>98</v>
       </c>
-      <c r="C33">
-        <v>22</v>
-      </c>
-      <c r="D33">
+      <c r="C33" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="D33" s="0" t="n">
         <v>101</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="0" t="n">
         <v>96</v>
       </c>
-      <c r="K33">
-        <v>24</v>
-      </c>
-      <c r="L33">
+      <c r="K33" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="L33" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="0" t="n">
         <v>105</v>
       </c>
-      <c r="O33">
+      <c r="O33" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="P33">
+      <c r="P33" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="Q33">
+      <c r="Q33" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="R33">
+      <c r="R33" s="0" t="n">
         <v>105</v>
       </c>
-      <c r="S33">
+      <c r="S33" s="0" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
+    <row r="34" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="0" t="n">
         <v>84</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="0" t="n">
         <v>81</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="0" t="n">
         <v>88</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="O34">
+      <c r="O34" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="P34">
+      <c r="P34" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="Q34">
+      <c r="Q34" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="R34">
+      <c r="R34" s="0" t="n">
         <v>81</v>
       </c>
-      <c r="S34">
+      <c r="S34" s="0" t="n">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
+    <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="0" t="n">
         <v>84</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="0" t="n">
         <v>89</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="0" t="n">
         <v>94</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="0" t="n">
         <v>102</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="0" t="n">
         <v>79</v>
       </c>
-      <c r="O35">
+      <c r="O35" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="P35">
+      <c r="P35" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="Q35">
+      <c r="Q35" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="R35">
+      <c r="R35" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="S35">
+      <c r="S35" s="0" t="n">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
+    <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="0" t="n">
         <v>82</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="0" t="n">
         <v>82</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="0" t="n">
         <v>71</v>
       </c>
-      <c r="O36">
+      <c r="O36" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="P36">
+      <c r="P36" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="Q36">
+      <c r="Q36" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="R36">
+      <c r="R36" s="0" t="n">
         <v>89</v>
       </c>
-      <c r="S36">
+      <c r="S36" s="0" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="B40" t="s">
+    <row r="40" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="B41" t="s">
+    <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C41" s="1">
-        <f t="shared" ref="C41:C46" si="3">AVERAGE(B31,D31,F31,H31,J31,L31,N31,P31,R31)</f>
-        <v>93.666666666666671</v>
+      <c r="C41" s="1" t="n">
+        <f aca="false">AVERAGE(B31,D31,F31,H31,J31,L31,N31,P31,R31)</f>
+        <v>93.6666666666667</v>
       </c>
       <c r="D41" s="1"/>
-      <c r="E41" s="1">
-        <f t="shared" ref="E41:E46" si="4">C41/120</f>
-        <v>0.78055555555555556</v>
-      </c>
-      <c r="F41" s="1">
-        <f t="shared" ref="F41:F46" si="5">E41*100</f>
-        <v>78.055555555555557</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="B42" t="s">
+      <c r="E41" s="1" t="n">
+        <f aca="false">C41/120</f>
+        <v>0.780555555555556</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <f aca="false">E41*100</f>
+        <v>78.0555555555556</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="1">
-        <f t="shared" si="3"/>
-        <v>93.666666666666671</v>
+      <c r="C42" s="1" t="n">
+        <f aca="false">AVERAGE(B32,D32,F32,H32,J32,L32,N32,P32,R32)</f>
+        <v>93.6666666666667</v>
       </c>
       <c r="D42" s="1"/>
-      <c r="E42" s="1">
-        <f t="shared" si="4"/>
-        <v>0.78055555555555556</v>
-      </c>
-      <c r="F42" s="1">
-        <f t="shared" si="5"/>
-        <v>78.055555555555557</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="B43" t="s">
+      <c r="E42" s="1" t="n">
+        <f aca="false">C42/120</f>
+        <v>0.780555555555556</v>
+      </c>
+      <c r="F42" s="1" t="n">
+        <f aca="false">E42*100</f>
+        <v>78.0555555555556</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="1">
-        <f t="shared" si="3"/>
-        <v>97.333333333333329</v>
+      <c r="C43" s="1" t="n">
+        <f aca="false">AVERAGE(B33,D33,F33,H33,J33,L33,N33,P33,R33)</f>
+        <v>97.3333333333333</v>
       </c>
       <c r="D43" s="1"/>
-      <c r="E43" s="1">
-        <f t="shared" si="4"/>
-        <v>0.81111111111111112</v>
-      </c>
-      <c r="F43" s="1">
-        <f t="shared" si="5"/>
-        <v>81.111111111111114</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="B44" t="s">
+      <c r="E43" s="1" t="n">
+        <f aca="false">C43/120</f>
+        <v>0.811111111111111</v>
+      </c>
+      <c r="F43" s="1" t="n">
+        <f aca="false">E43*100</f>
+        <v>81.1111111111111</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="1">
-        <f t="shared" si="3"/>
-        <v>85.777777777777771</v>
+      <c r="C44" s="1" t="n">
+        <f aca="false">AVERAGE(B34,D34,F34,H34,J34,L34,N34,P34,R34)</f>
+        <v>85.7777777777778</v>
       </c>
       <c r="D44" s="1"/>
-      <c r="E44" s="1">
-        <f t="shared" si="4"/>
-        <v>0.71481481481481479</v>
-      </c>
-      <c r="F44" s="1">
-        <f t="shared" si="5"/>
-        <v>71.481481481481481</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="B45" t="s">
+      <c r="E44" s="1" t="n">
+        <f aca="false">C44/120</f>
+        <v>0.714814814814815</v>
+      </c>
+      <c r="F44" s="1" t="n">
+        <f aca="false">E44*100</f>
+        <v>71.4814814814815</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="1">
-        <f t="shared" si="3"/>
-        <v>89.777777777777771</v>
+      <c r="C45" s="1" t="n">
+        <f aca="false">AVERAGE(B35,D35,F35,H35,J35,L35,N35,P35,R35)</f>
+        <v>89.7777777777778</v>
       </c>
       <c r="D45" s="1"/>
-      <c r="E45" s="1">
-        <f t="shared" si="4"/>
-        <v>0.74814814814814812</v>
-      </c>
-      <c r="F45" s="1">
-        <f t="shared" si="5"/>
-        <v>74.81481481481481</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="B46" t="s">
+      <c r="E45" s="1" t="n">
+        <f aca="false">C45/120</f>
+        <v>0.748148148148148</v>
+      </c>
+      <c r="F45" s="1" t="n">
+        <f aca="false">E45*100</f>
+        <v>74.8148148148148</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="1">
-        <f t="shared" si="3"/>
-        <v>84.333333333333329</v>
+      <c r="C46" s="1" t="n">
+        <f aca="false">AVERAGE(B36,D36,F36,H36,J36,L36,N36,P36,R36)</f>
+        <v>84.3333333333333</v>
       </c>
       <c r="D46" s="1"/>
-      <c r="E46" s="1">
-        <f t="shared" si="4"/>
-        <v>0.70277777777777772</v>
-      </c>
-      <c r="F46" s="1">
-        <f t="shared" si="5"/>
-        <v>70.277777777777771</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A62" t="s">
+      <c r="E46" s="1" t="n">
+        <f aca="false">C46/120</f>
+        <v>0.702777777777778</v>
+      </c>
+      <c r="F46" s="1" t="n">
+        <f aca="false">E46*100</f>
+        <v>70.2777777777778</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="B63" t="s">
+    <row r="63" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C63" t="s">
-        <v>24</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="C63" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D63" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E63" t="s">
-        <v>24</v>
-      </c>
-      <c r="F63" t="s">
+      <c r="E63" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F63" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="G63" t="s">
-        <v>24</v>
-      </c>
-      <c r="H63" t="s">
+      <c r="G63" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H63" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="I63" t="s">
-        <v>24</v>
-      </c>
-      <c r="J63" t="s">
+      <c r="I63" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J63" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="K63" t="s">
-        <v>24</v>
-      </c>
-      <c r="L63" t="s">
+      <c r="K63" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L63" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="M63" t="s">
-        <v>24</v>
-      </c>
-      <c r="N63" t="s">
+      <c r="M63" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="N63" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="O63" t="s">
-        <v>24</v>
-      </c>
-      <c r="P63" t="s">
+      <c r="O63" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P63" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="Q63" t="s">
-        <v>24</v>
-      </c>
-      <c r="R63" t="s">
+      <c r="Q63" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="R63" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="S63" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A64" t="s">
+      <c r="S63" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="0" t="n">
         <v>81</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="0" t="n">
         <v>88</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="0" t="n">
         <v>81</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="J64">
+      <c r="J64" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="K64">
+      <c r="K64" s="0" t="n">
         <v>77</v>
       </c>
-      <c r="L64">
+      <c r="L64" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="M64">
+      <c r="M64" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="N64">
+      <c r="N64" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="O64">
+      <c r="O64" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="P64">
+      <c r="P64" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="Q64">
+      <c r="Q64" s="0" t="n">
         <v>76</v>
       </c>
-      <c r="R64">
+      <c r="R64" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="S64">
+      <c r="S64" s="0" t="n">
         <v>87</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A65" t="s">
+    <row r="65" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="0" t="n">
         <v>101</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="K65">
+      <c r="K65" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="L65">
+      <c r="L65" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="M65">
+      <c r="M65" s="0" t="n">
         <v>84</v>
       </c>
-      <c r="N65">
+      <c r="N65" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="O65">
+      <c r="O65" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="P65">
+      <c r="P65" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="Q65">
+      <c r="Q65" s="0" t="n">
         <v>82</v>
       </c>
-      <c r="R65">
+      <c r="R65" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="S65">
+      <c r="S65" s="0" t="n">
         <v>92</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A66" t="s">
+    <row r="66" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="0" t="n">
         <v>89</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="0" t="n">
         <v>79</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="0" t="n">
         <v>88</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="K66">
+      <c r="K66" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="L66">
+      <c r="L66" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="M66">
+      <c r="M66" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="N66">
+      <c r="N66" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="O66">
+      <c r="O66" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="P66">
-        <v>22</v>
-      </c>
-      <c r="Q66">
+      <c r="P66" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q66" s="0" t="n">
         <v>98</v>
       </c>
-      <c r="R66">
+      <c r="R66" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="S66">
+      <c r="S66" s="0" t="n">
         <v>97</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A67" t="s">
+    <row r="67" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="0" t="n">
         <v>67</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="0" t="n">
         <v>69</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="0" t="n">
         <v>74</v>
       </c>
-      <c r="H67">
-        <v>24</v>
-      </c>
-      <c r="I67">
+      <c r="H67" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="I67" s="0" t="n">
         <v>96</v>
       </c>
-      <c r="J67">
+      <c r="J67" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="K67">
+      <c r="K67" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="L67">
+      <c r="L67" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="M67">
+      <c r="M67" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="N67">
+      <c r="N67" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="O67">
+      <c r="O67" s="0" t="n">
         <v>101</v>
       </c>
-      <c r="P67">
+      <c r="P67" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="Q67">
+      <c r="Q67" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="R67">
+      <c r="R67" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="S67">
+      <c r="S67" s="0" t="n">
         <v>103</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A68" t="s">
+    <row r="68" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="0" t="n">
         <v>94</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="J68">
+      <c r="J68" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="K68">
+      <c r="K68" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="L68">
+      <c r="L68" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="M68">
+      <c r="M68" s="0" t="n">
         <v>76</v>
       </c>
-      <c r="N68">
+      <c r="N68" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="O68">
+      <c r="O68" s="0" t="n">
         <v>84</v>
       </c>
-      <c r="P68">
+      <c r="P68" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="Q68">
+      <c r="Q68" s="0" t="n">
         <v>82</v>
       </c>
-      <c r="R68">
+      <c r="R68" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="S68">
+      <c r="S68" s="0" t="n">
         <v>92</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A69" t="s">
+    <row r="69" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="J69">
+      <c r="J69" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="K69">
+      <c r="K69" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="L69">
+      <c r="L69" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="M69">
+      <c r="M69" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="N69">
+      <c r="N69" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="O69">
+      <c r="O69" s="0" t="n">
         <v>94</v>
       </c>
-      <c r="P69">
+      <c r="P69" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="Q69">
+      <c r="Q69" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="R69">
+      <c r="R69" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="S69">
+      <c r="S69" s="0" t="n">
         <v>59</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="B73" t="s">
+    <row r="73" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="B74" t="s">
+    <row r="74" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C74" s="1">
-        <f t="shared" ref="C74:C79" si="6">AVERAGE(B64,D64,F64,H64,J64,L64,N64,P64,R64)</f>
-        <v>38.666666666666664</v>
+      <c r="C74" s="1" t="n">
+        <f aca="false">AVERAGE(B64,D64,F64,H64,J64,L64,N64,P64,R64)</f>
+        <v>38.6666666666667</v>
       </c>
       <c r="D74" s="1"/>
-      <c r="E74" s="1">
-        <f t="shared" ref="E74:E79" si="7">C74/120</f>
-        <v>0.32222222222222219</v>
-      </c>
-      <c r="F74" s="1">
-        <f t="shared" ref="F74:F79" si="8">E74*100</f>
-        <v>32.222222222222221</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="B75" t="s">
+      <c r="E74" s="1" t="n">
+        <f aca="false">C74/120</f>
+        <v>0.322222222222222</v>
+      </c>
+      <c r="F74" s="1" t="n">
+        <f aca="false">E74*100</f>
+        <v>32.2222222222222</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C75" s="1">
-        <f t="shared" si="6"/>
-        <v>31.444444444444443</v>
+      <c r="C75" s="1" t="n">
+        <f aca="false">AVERAGE(B65,D65,F65,H65,J65,L65,N65,P65,R65)</f>
+        <v>31.4444444444444</v>
       </c>
       <c r="D75" s="1"/>
-      <c r="E75" s="1">
-        <f t="shared" si="7"/>
-        <v>0.26203703703703701</v>
-      </c>
-      <c r="F75" s="1">
-        <f t="shared" si="8"/>
-        <v>26.203703703703702</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="B76" t="s">
+      <c r="E75" s="1" t="n">
+        <f aca="false">C75/120</f>
+        <v>0.262037037037037</v>
+      </c>
+      <c r="F75" s="1" t="n">
+        <f aca="false">E75*100</f>
+        <v>26.2037037037037</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C76" s="1">
-        <f t="shared" si="6"/>
-        <v>28.555555555555557</v>
+      <c r="C76" s="1" t="n">
+        <f aca="false">AVERAGE(B66,D66,F66,H66,J66,L66,N66,P66,R66)</f>
+        <v>28.5555555555556</v>
       </c>
       <c r="D76" s="1"/>
-      <c r="E76" s="1">
-        <f t="shared" si="7"/>
-        <v>0.23796296296296299</v>
-      </c>
-      <c r="F76" s="1">
-        <f t="shared" si="8"/>
-        <v>23.796296296296298</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="B77" t="s">
+      <c r="E76" s="1" t="n">
+        <f aca="false">C76/120</f>
+        <v>0.237962962962963</v>
+      </c>
+      <c r="F76" s="1" t="n">
+        <f aca="false">E76*100</f>
+        <v>23.7962962962963</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C77" s="1">
-        <f t="shared" si="6"/>
-        <v>31.555555555555557</v>
+      <c r="C77" s="1" t="n">
+        <f aca="false">AVERAGE(B67,D67,F67,H67,J67,L67,N67,P67,R67)</f>
+        <v>31.5555555555556</v>
       </c>
       <c r="D77" s="1"/>
-      <c r="E77" s="1">
-        <f t="shared" si="7"/>
-        <v>0.26296296296296295</v>
-      </c>
-      <c r="F77" s="1">
-        <f t="shared" si="8"/>
-        <v>26.296296296296294</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="B78" t="s">
+      <c r="E77" s="1" t="n">
+        <f aca="false">C77/120</f>
+        <v>0.262962962962963</v>
+      </c>
+      <c r="F77" s="1" t="n">
+        <f aca="false">E77*100</f>
+        <v>26.2962962962963</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C78" s="1">
-        <f t="shared" si="6"/>
-        <v>32.444444444444443</v>
+      <c r="C78" s="1" t="n">
+        <f aca="false">AVERAGE(B68,D68,F68,H68,J68,L68,N68,P68,R68)</f>
+        <v>32.4444444444444</v>
       </c>
       <c r="D78" s="1"/>
-      <c r="E78" s="1">
-        <f t="shared" si="7"/>
-        <v>0.27037037037037037</v>
-      </c>
-      <c r="F78" s="1">
-        <f t="shared" si="8"/>
-        <v>27.037037037037038</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="B79" t="s">
+      <c r="E78" s="1" t="n">
+        <f aca="false">C78/120</f>
+        <v>0.27037037037037</v>
+      </c>
+      <c r="F78" s="1" t="n">
+        <f aca="false">E78*100</f>
+        <v>27.037037037037</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C79" s="1">
-        <f t="shared" si="6"/>
-        <v>30.444444444444443</v>
+      <c r="C79" s="1" t="n">
+        <f aca="false">AVERAGE(B69,D69,F69,H69,J69,L69,N69,P69,R69)</f>
+        <v>30.4444444444444</v>
       </c>
       <c r="D79" s="1"/>
-      <c r="E79" s="1">
-        <f t="shared" si="7"/>
-        <v>0.25370370370370371</v>
-      </c>
-      <c r="F79" s="1">
-        <f t="shared" si="8"/>
-        <v>25.37037037037037</v>
+      <c r="E79" s="1" t="n">
+        <f aca="false">C79/120</f>
+        <v>0.253703703703704</v>
+      </c>
+      <c r="F79" s="1" t="n">
+        <f aca="false">E79*100</f>
+        <v>25.3703703703704</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2094,1232 +1840,1228 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A2:S31"/>
   <sheetViews>
-    <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C15" sqref="C15"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="12.5"/>
-    <col min="2" max="2" width="8"/>
-    <col min="3" max="3" width="6.1640625"/>
-    <col min="4" max="4" width="7.83203125"/>
-    <col min="5" max="5" width="6.1640625"/>
-    <col min="6" max="6" width="7.83203125"/>
-    <col min="7" max="7" width="6.1640625"/>
-    <col min="8" max="8" width="8.5"/>
-    <col min="9" max="9" width="6.1640625"/>
-    <col min="10" max="10" width="7.6640625"/>
-    <col min="11" max="11" width="6.1640625"/>
-    <col min="12" max="12" width="7.1640625"/>
-    <col min="13" max="13" width="6.1640625"/>
-    <col min="14" max="14" width="7.83203125"/>
-    <col min="15" max="15" width="6.1640625"/>
-    <col min="16" max="16" width="7.5"/>
-    <col min="17" max="17" width="6.1640625"/>
-    <col min="18" max="18" width="7.1640625"/>
-    <col min="19" max="1025" width="6.1640625"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="7.02040816326531"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
+    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="0" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0" t="n">
         <v>98</v>
       </c>
-      <c r="C4">
-        <v>22</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="0" t="n">
         <v>101</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="0" t="n">
         <v>96</v>
       </c>
-      <c r="K4">
-        <v>24</v>
-      </c>
-      <c r="L4">
+      <c r="K4" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="L4" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="0" t="n">
         <v>88</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="0" t="n">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0" t="n">
         <v>76</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="0" t="n">
         <v>89</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="0" t="n">
         <v>82</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="0" t="n">
         <v>76</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="0" t="n">
         <v>81</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="0" t="n">
         <v>89</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="0" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="0" t="n">
         <v>101</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="0" t="n">
         <v>96</v>
       </c>
-      <c r="I6">
-        <v>24</v>
-      </c>
-      <c r="J6">
+      <c r="I6" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="J6" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="0" t="n">
         <v>98</v>
       </c>
-      <c r="M6">
-        <v>22</v>
-      </c>
-      <c r="N6">
+      <c r="M6" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="N6" s="0" t="n">
         <v>89</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="0" t="n">
         <v>96</v>
       </c>
-      <c r="Q6">
-        <v>24</v>
-      </c>
-      <c r="R6">
+      <c r="Q6" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="R6" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="0" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="0" t="n">
         <v>108</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="0" t="n">
         <v>106</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="0" t="n">
         <v>110</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="0" t="n">
         <v>96</v>
       </c>
-      <c r="O7">
-        <v>24</v>
-      </c>
-      <c r="P7">
+      <c r="O7" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="P7" s="0" t="n">
         <v>89</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="0" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0" t="n">
         <v>94</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="0" t="n">
         <v>98</v>
       </c>
-      <c r="E8">
-        <v>22</v>
-      </c>
-      <c r="F8">
+      <c r="E8" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="F8" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="0" t="n">
         <v>89</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="0" t="n">
         <v>96</v>
       </c>
-      <c r="K8">
-        <v>24</v>
-      </c>
-      <c r="L8">
+      <c r="K8" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="L8" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="0" t="n">
         <v>98</v>
       </c>
-      <c r="S8">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+      <c r="S8" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0" t="n">
         <v>107</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="0" t="n">
         <v>105</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="0" t="n">
         <v>107</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="0" t="n">
         <v>106</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="0" t="n">
         <v>107</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="0" t="n">
         <v>103</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="0" t="n">
         <v>107</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="0" t="n">
         <v>108</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="0" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
+    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="0" t="s">
         <v>4</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="0" t="s">
         <v>5</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="0" t="s">
         <v>6</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="0" t="s">
         <v>7</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N14" s="0" t="s">
         <v>8</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="P14" t="s">
+      <c r="P14" s="0" t="s">
         <v>9</v>
       </c>
       <c r="Q14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R14" t="s">
+      <c r="R14" s="0" t="s">
         <v>10</v>
       </c>
       <c r="S14" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
+    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0" t="n">
         <v>98</v>
       </c>
-      <c r="C15">
-        <v>22</v>
-      </c>
-      <c r="D15">
+      <c r="C15" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="D15" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="0" t="n">
         <v>79</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="0" t="n">
         <v>103</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="0" t="n">
         <v>96</v>
       </c>
-      <c r="S15">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
+      <c r="S15" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
+    <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0" t="n">
         <v>98</v>
       </c>
-      <c r="C17">
-        <v>22</v>
-      </c>
-      <c r="D17">
+      <c r="C17" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="D17" s="0" t="n">
         <v>101</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="0" t="n">
         <v>96</v>
       </c>
-      <c r="K17">
-        <v>24</v>
-      </c>
-      <c r="L17">
+      <c r="K17" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="L17" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="0" t="n">
         <v>105</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="0" t="n">
         <v>105</v>
       </c>
-      <c r="S17">
+      <c r="S17" s="0" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
+    <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0" t="n">
         <v>84</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="0" t="n">
         <v>81</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="0" t="n">
         <v>88</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="0" t="n">
         <v>81</v>
       </c>
-      <c r="S18">
+      <c r="S18" s="0" t="n">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
+    <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0" t="n">
         <v>84</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="0" t="n">
         <v>89</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="0" t="n">
         <v>94</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="0" t="n">
         <v>102</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="0" t="n">
         <v>79</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="S19">
+      <c r="S19" s="0" t="n">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
+    <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="0" t="n">
         <v>82</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="0" t="n">
         <v>82</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="0" t="n">
         <v>71</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="0" t="n">
         <v>89</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="0" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
+    <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="B25" t="s">
+    <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="C25" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="E25" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="G25" t="s">
-        <v>24</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="G25" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="I25" t="s">
-        <v>24</v>
-      </c>
-      <c r="J25" t="s">
+      <c r="I25" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="K25" t="s">
-        <v>24</v>
-      </c>
-      <c r="L25" t="s">
+      <c r="K25" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L25" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="M25" t="s">
-        <v>24</v>
-      </c>
-      <c r="N25" t="s">
+      <c r="M25" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="N25" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="O25" t="s">
-        <v>24</v>
-      </c>
-      <c r="P25" t="s">
+      <c r="O25" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P25" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="Q25" t="s">
-        <v>24</v>
-      </c>
-      <c r="R25" t="s">
+      <c r="Q25" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="R25" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="S25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
+      <c r="S25" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="0" t="n">
         <v>81</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="0" t="n">
         <v>88</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="0" t="n">
         <v>81</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="0" t="n">
         <v>77</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="P26">
+      <c r="P26" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" s="0" t="n">
         <v>76</v>
       </c>
-      <c r="R26">
+      <c r="R26" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="S26">
+      <c r="S26" s="0" t="n">
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
+    <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="0" t="n">
         <v>101</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="0" t="n">
         <v>84</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="P27">
+      <c r="P27" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="Q27">
+      <c r="Q27" s="0" t="n">
         <v>82</v>
       </c>
-      <c r="R27">
+      <c r="R27" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="S27">
+      <c r="S27" s="0" t="n">
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
+    <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="0" t="n">
         <v>89</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="0" t="n">
         <v>79</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="0" t="n">
         <v>88</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="P28">
-        <v>22</v>
-      </c>
-      <c r="Q28">
+      <c r="P28" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q28" s="0" t="n">
         <v>98</v>
       </c>
-      <c r="R28">
+      <c r="R28" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="S28">
+      <c r="S28" s="0" t="n">
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
+    <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="0" t="n">
         <v>67</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="0" t="n">
         <v>69</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="0" t="n">
         <v>74</v>
       </c>
-      <c r="H29">
-        <v>24</v>
-      </c>
-      <c r="I29">
+      <c r="H29" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="I29" s="0" t="n">
         <v>96</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="0" t="n">
         <v>101</v>
       </c>
-      <c r="P29">
+      <c r="P29" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="Q29">
+      <c r="Q29" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="R29">
+      <c r="R29" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="S29">
+      <c r="S29" s="0" t="n">
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
+    <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="0" t="n">
         <v>94</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="0" t="n">
         <v>76</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="0" t="n">
         <v>84</v>
       </c>
-      <c r="P30">
+      <c r="P30" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="Q30">
+      <c r="Q30" s="0" t="n">
         <v>82</v>
       </c>
-      <c r="R30">
+      <c r="R30" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="S30">
+      <c r="S30" s="0" t="n">
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
+    <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="0" t="n">
         <v>94</v>
       </c>
-      <c r="P31">
+      <c r="P31" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="Q31">
+      <c r="Q31" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="R31">
+      <c r="R31" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="S31">
+      <c r="S31" s="0" t="n">
         <v>59</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/Text/research results.xlsx
+++ b/Text/research results.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucasfaijdherbe/Library/Mobile Documents/com~apple~CloudDocs/Computer Science/Intelligent Systems/Project/VU-Intelligent-Systems/Text/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12760" windowHeight="16000" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="nieuwe namen" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Oude benamingen" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="nieuwe namen" sheetId="1" r:id="rId1"/>
+    <sheet name="Oude benamingen" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="171027" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -21,115 +26,105 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="29">
   <si>
-    <t xml:space="preserve">Against Rand</t>
+    <t>Against Rand</t>
   </si>
   <si>
-    <t xml:space="preserve">Round 1</t>
+    <t>Round 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Rand</t>
+    <t>Rand</t>
   </si>
   <si>
-    <t xml:space="preserve">Round 2</t>
+    <t>Round 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Round 3</t>
+    <t>Round 3</t>
   </si>
   <si>
-    <t xml:space="preserve">Round 4</t>
+    <t>Round 4</t>
   </si>
   <si>
-    <t xml:space="preserve">Round 5</t>
+    <t>Round 5</t>
   </si>
   <si>
-    <t xml:space="preserve">Round 6</t>
+    <t>Round 6</t>
   </si>
   <si>
-    <t xml:space="preserve">Round 7</t>
+    <t>Round 7</t>
   </si>
   <si>
-    <t xml:space="preserve">Round 8</t>
+    <t>Round 8</t>
   </si>
   <si>
-    <t xml:space="preserve">Round 9</t>
+    <t>Round 9</t>
   </si>
   <si>
-    <t xml:space="preserve">ml_minimal</t>
+    <t>ml_minimal</t>
   </si>
   <si>
-    <t xml:space="preserve">ml_stripped</t>
+    <t>ml_stripped</t>
   </si>
   <si>
-    <t xml:space="preserve">ml</t>
+    <t>ml</t>
   </si>
   <si>
-    <t xml:space="preserve">ml_enriched</t>
+    <t>ml_enriched</t>
   </si>
   <si>
-    <t xml:space="preserve">ml_advanced</t>
+    <t>ml_advanced</t>
   </si>
   <si>
-    <t xml:space="preserve">ml_combined</t>
+    <t>ml_combined</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean</t>
+    <t>Mean</t>
   </si>
   <si>
-    <t xml:space="preserve">mean won games</t>
+    <t>mean won games</t>
   </si>
   <si>
-    <t xml:space="preserve">Part won</t>
+    <t>Part won</t>
   </si>
   <si>
-    <t xml:space="preserve">Percentage won</t>
+    <t>Percentage won</t>
   </si>
   <si>
-    <t xml:space="preserve">Against Bully</t>
+    <t>Against Bully</t>
   </si>
   <si>
-    <t xml:space="preserve">Bully</t>
+    <t>Bully</t>
   </si>
   <si>
-    <t xml:space="preserve">Against Rdeep</t>
+    <t>Against Rdeep</t>
   </si>
   <si>
-    <t xml:space="preserve">Rdeep</t>
+    <t>Rdeep</t>
   </si>
   <si>
-    <t xml:space="preserve">ml_lucas</t>
+    <t>ml_lucas</t>
+  </si>
+  <si>
+    <t>Total Win</t>
+  </si>
+  <si>
+    <t>Total Lose</t>
+  </si>
+  <si>
+    <t>Total win</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -141,7 +136,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -149,1690 +144,2026 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+  <a:themeElements>
+    <a:clrScheme name="Kantoor">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Kantoor">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Kantoor">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:S79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U79"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B7" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="topRight" activeCell="E41" activeCellId="0" sqref="E41"/>
+    <sheetView windowProtection="1" tabSelected="1" topLeftCell="A50" zoomScale="200" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A7" sqref="A7"/>
+      <selection pane="topRight" activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.765306122449"/>
+    <col min="1" max="1" width="18.83203125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="K2" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="L2" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="M2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="N2" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="O2" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="0" t="s">
+      <c r="P2" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="0" t="s">
+      <c r="Q2" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="0" t="s">
+      <c r="R2" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="0" t="s">
+      <c r="S2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="T2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>98</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>22</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3">
         <v>90</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>30</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3">
         <v>95</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3">
         <v>25</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3">
         <v>101</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3">
         <v>19</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3">
         <v>96</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K3">
         <v>24</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="L3">
         <v>91</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="M3">
         <v>29</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="N3">
         <v>88</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="O3">
         <v>32</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="P3">
         <v>93</v>
       </c>
-      <c r="Q3" s="0" t="n">
+      <c r="Q3">
         <v>27</v>
       </c>
-      <c r="R3" s="0" t="n">
+      <c r="R3">
         <v>91</v>
       </c>
-      <c r="S3" s="0" t="n">
+      <c r="S3">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="T3">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>76</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>44</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4">
         <v>83</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>37</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4">
         <v>89</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4">
         <v>31</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4">
         <v>82</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4">
         <v>38</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4">
         <v>80</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4">
         <v>40</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="L4">
         <v>76</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M4">
         <v>44</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="N4">
         <v>80</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="O4">
         <v>40</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="P4">
         <v>81</v>
       </c>
-      <c r="Q4" s="0" t="n">
+      <c r="Q4">
         <v>39</v>
       </c>
-      <c r="R4" s="0" t="n">
+      <c r="R4">
         <v>89</v>
       </c>
-      <c r="S4" s="0" t="n">
+      <c r="S4">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="T4">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>91</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>29</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5">
         <v>101</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>19</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5">
         <v>100</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5">
         <v>20</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5">
         <v>96</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5">
         <v>24</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5">
         <v>100</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5">
         <v>20</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="L5">
         <v>98</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="M5">
         <v>22</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="N5">
         <v>89</v>
       </c>
-      <c r="O5" s="0" t="n">
+      <c r="O5">
         <v>31</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="P5">
         <v>96</v>
       </c>
-      <c r="Q5" s="0" t="n">
+      <c r="Q5">
         <v>24</v>
       </c>
-      <c r="R5" s="0" t="n">
+      <c r="R5">
         <v>95</v>
       </c>
-      <c r="S5" s="0" t="n">
+      <c r="S5">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="T5">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>90</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>30</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6">
         <v>95</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>25</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6">
         <v>92</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6">
         <v>28</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6">
         <v>108</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6">
         <v>12</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6">
         <v>106</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K6">
         <v>14</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="L6">
         <v>110</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="M6">
         <v>10</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="N6">
         <v>96</v>
       </c>
-      <c r="O6" s="0" t="n">
+      <c r="O6">
         <v>24</v>
       </c>
-      <c r="P6" s="0" t="n">
+      <c r="P6">
         <v>89</v>
       </c>
-      <c r="Q6" s="0" t="n">
+      <c r="Q6">
         <v>31</v>
       </c>
-      <c r="R6" s="0" t="n">
+      <c r="R6">
         <v>95</v>
       </c>
-      <c r="S6" s="0" t="n">
+      <c r="S6">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="T6">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>94</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>26</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7">
         <v>98</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>22</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7">
         <v>92</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7">
         <v>28</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7">
         <v>89</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7">
         <v>31</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7">
         <v>96</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K7">
         <v>24</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="L7">
         <v>95</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="M7">
         <v>25</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="N7">
         <v>99</v>
       </c>
-      <c r="O7" s="0" t="n">
+      <c r="O7">
         <v>21</v>
       </c>
-      <c r="P7" s="0" t="n">
+      <c r="P7">
         <v>95</v>
       </c>
-      <c r="Q7" s="0" t="n">
+      <c r="Q7">
         <v>25</v>
       </c>
-      <c r="R7" s="0" t="n">
+      <c r="R7">
         <v>98</v>
       </c>
-      <c r="S7" s="0" t="n">
+      <c r="S7">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="T7">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>107</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8">
         <v>13</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8">
         <v>105</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8">
         <v>15</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8">
         <v>107</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8">
         <v>13</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8">
         <v>106</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8">
         <v>14</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8">
         <v>107</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="K8">
         <v>13</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="L8">
         <v>103</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="M8">
         <v>17</v>
       </c>
-      <c r="N8" s="0" t="n">
+      <c r="N8">
         <v>99</v>
       </c>
-      <c r="O8" s="0" t="n">
+      <c r="O8">
         <v>21</v>
       </c>
-      <c r="P8" s="0" t="n">
+      <c r="P8">
         <v>107</v>
       </c>
-      <c r="Q8" s="0" t="n">
+      <c r="Q8">
         <v>13</v>
       </c>
-      <c r="R8" s="0" t="n">
+      <c r="R8">
         <v>108</v>
       </c>
-      <c r="S8" s="0" t="n">
+      <c r="S8">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
+      <c r="T8">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <f aca="false">AVERAGE(B3,D3,F3,H3,J3,L3,N3,P3,R3)</f>
-        <v>93.6666666666667</v>
+      <c r="C14" s="1">
+        <f t="shared" ref="C14:C19" si="0">AVERAGE(B3,D3,F3,H3,J3,L3,N3,P3,R3)</f>
+        <v>93.666666666666671</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="1" t="n">
-        <f aca="false">C14/120</f>
-        <v>0.780555555555556</v>
-      </c>
-      <c r="F14" s="1" t="n">
-        <f aca="false">E14*100</f>
-        <v>78.0555555555556</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
+      <c r="E14" s="1">
+        <f t="shared" ref="E14:E19" si="1">C14/120</f>
+        <v>0.78055555555555556</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" ref="F14:F19" si="2">E14*100</f>
+        <v>78.055555555555557</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <f aca="false">AVERAGE(B4,D4,F4,H4,J4,L4,N4,P4,R4)</f>
-        <v>81.7777777777778</v>
+      <c r="C15" s="1">
+        <f t="shared" si="0"/>
+        <v>81.777777777777771</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="1" t="n">
-        <f aca="false">C15/120</f>
-        <v>0.681481481481481</v>
-      </c>
-      <c r="F15" s="1" t="n">
-        <f aca="false">E15*100</f>
-        <v>68.1481481481482</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
+      <c r="E15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.68148148148148147</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="2"/>
+        <v>68.148148148148152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <f aca="false">AVERAGE(B5,D5,F5,H5,J5,L5,N5,P5,R5)</f>
-        <v>96.2222222222222</v>
+      <c r="C16" s="1">
+        <f t="shared" si="0"/>
+        <v>96.222222222222229</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="1" t="n">
-        <f aca="false">C16/120</f>
-        <v>0.801851851851852</v>
-      </c>
-      <c r="F16" s="1" t="n">
-        <f aca="false">E16*100</f>
-        <v>80.1851851851852</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
+      <c r="E16" s="1">
+        <f t="shared" si="1"/>
+        <v>0.80185185185185193</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="2"/>
+        <v>80.18518518518519</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <f aca="false">AVERAGE(B6,D6,F6,H6,J6,L6,N6,P6,R6)</f>
-        <v>97.8888888888889</v>
+      <c r="C17" s="1">
+        <f t="shared" si="0"/>
+        <v>97.888888888888886</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="1" t="n">
-        <f aca="false">C17/120</f>
-        <v>0.815740740740741</v>
-      </c>
-      <c r="F17" s="1" t="n">
-        <f aca="false">E17*100</f>
-        <v>81.5740740740741</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
+      <c r="E17" s="1">
+        <f t="shared" si="1"/>
+        <v>0.81574074074074077</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="2"/>
+        <v>81.574074074074076</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="1" t="n">
-        <f aca="false">AVERAGE(B7,D7,F7,H7,J7,L7,N7,P7,R7)</f>
-        <v>95.1111111111111</v>
+      <c r="C18" s="1">
+        <f t="shared" si="0"/>
+        <v>95.111111111111114</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="1" t="n">
-        <f aca="false">C18/120</f>
-        <v>0.792592592592593</v>
-      </c>
-      <c r="F18" s="1" t="n">
-        <f aca="false">E18*100</f>
-        <v>79.2592592592593</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
+      <c r="E18" s="1">
+        <f t="shared" si="1"/>
+        <v>0.79259259259259263</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="2"/>
+        <v>79.259259259259267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="1" t="n">
-        <f aca="false">AVERAGE(B8,D8,F8,H8,J8,L8,N8,P8,R8)</f>
-        <v>105.444444444444</v>
+      <c r="C19" s="1">
+        <f t="shared" si="0"/>
+        <v>105.44444444444444</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="1" t="n">
-        <f aca="false">C19/120</f>
-        <v>0.878703703703704</v>
-      </c>
-      <c r="F19" s="1" t="n">
-        <f aca="false">E19*100</f>
-        <v>87.8703703703704</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="E19" s="1">
+        <f t="shared" si="1"/>
+        <v>0.87870370370370365</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="2"/>
+        <v>87.870370370370367</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="s">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
         <v>1</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" t="s">
         <v>3</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="0" t="s">
+      <c r="F30" t="s">
         <v>4</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="0" t="s">
+      <c r="H30" t="s">
         <v>5</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J30" s="0" t="s">
+      <c r="J30" t="s">
         <v>6</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L30" s="0" t="s">
+      <c r="L30" t="s">
         <v>7</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N30" s="0" t="s">
+      <c r="N30" t="s">
         <v>8</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="P30" s="0" t="s">
+      <c r="P30" t="s">
         <v>9</v>
       </c>
       <c r="Q30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R30" s="0" t="s">
+      <c r="R30" t="s">
         <v>10</v>
       </c>
       <c r="S30" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="T30" t="s">
+        <v>26</v>
+      </c>
+      <c r="U30" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31">
         <v>98</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31">
         <v>22</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31">
         <v>92</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31">
         <v>28</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="F31">
         <v>93</v>
       </c>
-      <c r="G31" s="0" t="n">
+      <c r="G31">
         <v>27</v>
       </c>
-      <c r="H31" s="0" t="n">
+      <c r="H31">
         <v>93</v>
       </c>
-      <c r="I31" s="0" t="n">
+      <c r="I31">
         <v>27</v>
       </c>
-      <c r="J31" s="0" t="n">
+      <c r="J31">
         <v>97</v>
       </c>
-      <c r="K31" s="0" t="n">
+      <c r="K31">
         <v>23</v>
       </c>
-      <c r="L31" s="0" t="n">
+      <c r="L31">
         <v>79</v>
       </c>
-      <c r="M31" s="0" t="n">
+      <c r="M31">
         <v>41</v>
       </c>
-      <c r="N31" s="0" t="n">
+      <c r="N31">
         <v>103</v>
       </c>
-      <c r="O31" s="0" t="n">
+      <c r="O31">
         <v>17</v>
       </c>
-      <c r="P31" s="0" t="n">
+      <c r="P31">
         <v>92</v>
       </c>
-      <c r="Q31" s="0" t="n">
+      <c r="Q31">
         <v>28</v>
       </c>
-      <c r="R31" s="0" t="n">
+      <c r="R31">
         <v>96</v>
       </c>
-      <c r="S31" s="0" t="n">
+      <c r="S31">
         <v>24</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="T31">
+        <v>837</v>
+      </c>
+      <c r="U31">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32">
         <v>97</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32">
         <v>23</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32">
         <v>83</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32">
         <v>37</v>
       </c>
-      <c r="F32" s="0" t="n">
+      <c r="F32">
         <v>93</v>
       </c>
-      <c r="G32" s="0" t="n">
+      <c r="G32">
         <v>27</v>
       </c>
-      <c r="H32" s="0" t="n">
+      <c r="H32">
         <v>93</v>
       </c>
-      <c r="I32" s="0" t="n">
+      <c r="I32">
         <v>27</v>
       </c>
-      <c r="J32" s="0" t="n">
+      <c r="J32">
         <v>101</v>
       </c>
-      <c r="K32" s="0" t="n">
+      <c r="K32">
         <v>19</v>
       </c>
-      <c r="L32" s="0" t="n">
+      <c r="L32">
         <v>87</v>
       </c>
-      <c r="M32" s="0" t="n">
+      <c r="M32">
         <v>33</v>
       </c>
-      <c r="N32" s="0" t="n">
+      <c r="N32">
         <v>95</v>
       </c>
-      <c r="O32" s="0" t="n">
+      <c r="O32">
         <v>25</v>
       </c>
-      <c r="P32" s="0" t="n">
+      <c r="P32">
         <v>97</v>
       </c>
-      <c r="Q32" s="0" t="n">
+      <c r="Q32">
         <v>23</v>
       </c>
-      <c r="R32" s="0" t="n">
+      <c r="R32">
         <v>97</v>
       </c>
-      <c r="S32" s="0" t="n">
+      <c r="S32">
         <v>23</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="T32">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33">
         <v>98</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33">
         <v>22</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="D33">
         <v>101</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E33">
         <v>19</v>
       </c>
-      <c r="F33" s="0" t="n">
+      <c r="F33">
         <v>92</v>
       </c>
-      <c r="G33" s="0" t="n">
+      <c r="G33">
         <v>28</v>
       </c>
-      <c r="H33" s="0" t="n">
+      <c r="H33">
         <v>91</v>
       </c>
-      <c r="I33" s="0" t="n">
+      <c r="I33">
         <v>29</v>
       </c>
-      <c r="J33" s="0" t="n">
+      <c r="J33">
         <v>96</v>
       </c>
-      <c r="K33" s="0" t="n">
+      <c r="K33">
         <v>24</v>
       </c>
-      <c r="L33" s="0" t="n">
+      <c r="L33">
         <v>91</v>
       </c>
-      <c r="M33" s="0" t="n">
+      <c r="M33">
         <v>29</v>
       </c>
-      <c r="N33" s="0" t="n">
+      <c r="N33">
         <v>105</v>
       </c>
-      <c r="O33" s="0" t="n">
+      <c r="O33">
         <v>15</v>
       </c>
-      <c r="P33" s="0" t="n">
+      <c r="P33">
         <v>97</v>
       </c>
-      <c r="Q33" s="0" t="n">
+      <c r="Q33">
         <v>23</v>
       </c>
-      <c r="R33" s="0" t="n">
+      <c r="R33">
         <v>105</v>
       </c>
-      <c r="S33" s="0" t="n">
+      <c r="S33">
         <v>15</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="T33">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34">
         <v>84</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34">
         <v>36</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="D34">
         <v>81</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34">
         <v>39</v>
       </c>
-      <c r="F34" s="0" t="n">
+      <c r="F34">
         <v>90</v>
       </c>
-      <c r="G34" s="0" t="n">
+      <c r="G34">
         <v>30</v>
       </c>
-      <c r="H34" s="0" t="n">
+      <c r="H34">
         <v>95</v>
       </c>
-      <c r="I34" s="0" t="n">
+      <c r="I34">
         <v>25</v>
       </c>
-      <c r="J34" s="0" t="n">
+      <c r="J34">
         <v>83</v>
       </c>
-      <c r="K34" s="0" t="n">
+      <c r="K34">
         <v>27</v>
       </c>
-      <c r="L34" s="0" t="n">
+      <c r="L34">
         <v>88</v>
       </c>
-      <c r="M34" s="0" t="n">
+      <c r="M34">
         <v>32</v>
       </c>
-      <c r="N34" s="0" t="n">
+      <c r="N34">
         <v>83</v>
       </c>
-      <c r="O34" s="0" t="n">
+      <c r="O34">
         <v>37</v>
       </c>
-      <c r="P34" s="0" t="n">
+      <c r="P34">
         <v>87</v>
       </c>
-      <c r="Q34" s="0" t="n">
+      <c r="Q34">
         <v>33</v>
       </c>
-      <c r="R34" s="0" t="n">
+      <c r="R34">
         <v>81</v>
       </c>
-      <c r="S34" s="0" t="n">
+      <c r="S34">
         <v>39</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="T34">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35">
         <v>84</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35">
         <v>36</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="D35">
         <v>89</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35">
         <v>31</v>
       </c>
-      <c r="F35" s="0" t="n">
+      <c r="F35">
         <v>87</v>
       </c>
-      <c r="G35" s="0" t="n">
+      <c r="G35">
         <v>33</v>
       </c>
-      <c r="H35" s="0" t="n">
+      <c r="H35">
         <v>93</v>
       </c>
-      <c r="I35" s="0" t="n">
+      <c r="I35">
         <v>27</v>
       </c>
-      <c r="J35" s="0" t="n">
+      <c r="J35">
         <v>94</v>
       </c>
-      <c r="K35" s="0" t="n">
+      <c r="K35">
         <v>26</v>
       </c>
-      <c r="L35" s="0" t="n">
+      <c r="L35">
         <v>102</v>
       </c>
-      <c r="M35" s="0" t="n">
+      <c r="M35">
         <v>18</v>
       </c>
-      <c r="N35" s="0" t="n">
+      <c r="N35">
         <v>79</v>
       </c>
-      <c r="O35" s="0" t="n">
+      <c r="O35">
         <v>41</v>
       </c>
-      <c r="P35" s="0" t="n">
+      <c r="P35">
         <v>87</v>
       </c>
-      <c r="Q35" s="0" t="n">
+      <c r="Q35">
         <v>33</v>
       </c>
-      <c r="R35" s="0" t="n">
+      <c r="R35">
         <v>93</v>
       </c>
-      <c r="S35" s="0" t="n">
+      <c r="S35">
         <v>27</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="T35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36">
         <v>90</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36">
         <v>30</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="D36">
         <v>82</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E36">
         <v>38</v>
       </c>
-      <c r="F36" s="0" t="n">
+      <c r="F36">
         <v>82</v>
       </c>
-      <c r="G36" s="0" t="n">
+      <c r="G36">
         <v>38</v>
       </c>
-      <c r="H36" s="0" t="n">
+      <c r="H36">
         <v>91</v>
       </c>
-      <c r="I36" s="0" t="n">
+      <c r="I36">
         <v>29</v>
       </c>
-      <c r="J36" s="0" t="n">
+      <c r="J36">
         <v>83</v>
       </c>
-      <c r="K36" s="0" t="n">
+      <c r="K36">
         <v>37</v>
       </c>
-      <c r="L36" s="0" t="n">
+      <c r="L36">
         <v>86</v>
       </c>
-      <c r="M36" s="0" t="n">
+      <c r="M36">
         <v>34</v>
       </c>
-      <c r="N36" s="0" t="n">
+      <c r="N36">
         <v>71</v>
       </c>
-      <c r="O36" s="0" t="n">
+      <c r="O36">
         <v>49</v>
       </c>
-      <c r="P36" s="0" t="n">
+      <c r="P36">
         <v>85</v>
       </c>
-      <c r="Q36" s="0" t="n">
+      <c r="Q36">
         <v>35</v>
       </c>
-      <c r="R36" s="0" t="n">
+      <c r="R36">
         <v>89</v>
       </c>
-      <c r="S36" s="0" t="n">
+      <c r="S36">
         <v>31</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0" t="s">
+      <c r="T36">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" t="s">
         <v>18</v>
       </c>
-      <c r="E40" s="0" t="s">
+      <c r="E40" t="s">
         <v>19</v>
       </c>
-      <c r="F40" s="0" t="s">
+      <c r="F40" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="0" t="s">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B41" t="s">
         <v>11</v>
       </c>
-      <c r="C41" s="1" t="n">
-        <f aca="false">AVERAGE(B31,D31,F31,H31,J31,L31,N31,P31,R31)</f>
-        <v>93.6666666666667</v>
+      <c r="C41" s="1">
+        <f t="shared" ref="C41:C46" si="3">AVERAGE(B31,D31,F31,H31,J31,L31,N31,P31,R31)</f>
+        <v>93.666666666666671</v>
       </c>
       <c r="D41" s="1"/>
-      <c r="E41" s="1" t="n">
-        <f aca="false">C41/120</f>
-        <v>0.780555555555556</v>
-      </c>
-      <c r="F41" s="1" t="n">
-        <f aca="false">E41*100</f>
-        <v>78.0555555555556</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="0" t="s">
+      <c r="E41" s="1">
+        <f t="shared" ref="E41:E46" si="4">C41/120</f>
+        <v>0.78055555555555556</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" ref="F41:F46" si="5">E41*100</f>
+        <v>78.055555555555557</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="1" t="n">
-        <f aca="false">AVERAGE(B32,D32,F32,H32,J32,L32,N32,P32,R32)</f>
-        <v>93.6666666666667</v>
+      <c r="C42" s="1">
+        <f t="shared" si="3"/>
+        <v>93.666666666666671</v>
       </c>
       <c r="D42" s="1"/>
-      <c r="E42" s="1" t="n">
-        <f aca="false">C42/120</f>
-        <v>0.780555555555556</v>
-      </c>
-      <c r="F42" s="1" t="n">
-        <f aca="false">E42*100</f>
-        <v>78.0555555555556</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="s">
+      <c r="E42" s="1">
+        <f t="shared" si="4"/>
+        <v>0.78055555555555556</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="5"/>
+        <v>78.055555555555557</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="1" t="n">
-        <f aca="false">AVERAGE(B33,D33,F33,H33,J33,L33,N33,P33,R33)</f>
-        <v>97.3333333333333</v>
+      <c r="C43" s="1">
+        <f t="shared" si="3"/>
+        <v>97.333333333333329</v>
       </c>
       <c r="D43" s="1"/>
-      <c r="E43" s="1" t="n">
-        <f aca="false">C43/120</f>
-        <v>0.811111111111111</v>
-      </c>
-      <c r="F43" s="1" t="n">
-        <f aca="false">E43*100</f>
-        <v>81.1111111111111</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0" t="s">
+      <c r="E43" s="1">
+        <f t="shared" si="4"/>
+        <v>0.81111111111111112</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="5"/>
+        <v>81.111111111111114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="1" t="n">
-        <f aca="false">AVERAGE(B34,D34,F34,H34,J34,L34,N34,P34,R34)</f>
-        <v>85.7777777777778</v>
+      <c r="C44" s="1">
+        <f t="shared" si="3"/>
+        <v>85.777777777777771</v>
       </c>
       <c r="D44" s="1"/>
-      <c r="E44" s="1" t="n">
-        <f aca="false">C44/120</f>
-        <v>0.714814814814815</v>
-      </c>
-      <c r="F44" s="1" t="n">
-        <f aca="false">E44*100</f>
-        <v>71.4814814814815</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="s">
+      <c r="E44" s="1">
+        <f t="shared" si="4"/>
+        <v>0.71481481481481479</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="5"/>
+        <v>71.481481481481481</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="1" t="n">
-        <f aca="false">AVERAGE(B35,D35,F35,H35,J35,L35,N35,P35,R35)</f>
-        <v>89.7777777777778</v>
+      <c r="C45" s="1">
+        <f t="shared" si="3"/>
+        <v>89.777777777777771</v>
       </c>
       <c r="D45" s="1"/>
-      <c r="E45" s="1" t="n">
-        <f aca="false">C45/120</f>
-        <v>0.748148148148148</v>
-      </c>
-      <c r="F45" s="1" t="n">
-        <f aca="false">E45*100</f>
-        <v>74.8148148148148</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0" t="s">
+      <c r="E45" s="1">
+        <f t="shared" si="4"/>
+        <v>0.74814814814814812</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="5"/>
+        <v>74.81481481481481</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="1" t="n">
-        <f aca="false">AVERAGE(B36,D36,F36,H36,J36,L36,N36,P36,R36)</f>
-        <v>84.3333333333333</v>
+      <c r="C46" s="1">
+        <f t="shared" si="3"/>
+        <v>84.333333333333329</v>
       </c>
       <c r="D46" s="1"/>
-      <c r="E46" s="1" t="n">
-        <f aca="false">C46/120</f>
-        <v>0.702777777777778</v>
-      </c>
-      <c r="F46" s="1" t="n">
-        <f aca="false">E46*100</f>
-        <v>70.2777777777778</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+      <c r="E46" s="1">
+        <f t="shared" si="4"/>
+        <v>0.70277777777777772</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="5"/>
+        <v>70.277777777777771</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="0" t="s">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B63" t="s">
         <v>1</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C63" t="s">
         <v>24</v>
       </c>
-      <c r="D63" s="0" t="s">
+      <c r="D63" t="s">
         <v>3</v>
       </c>
-      <c r="E63" s="0" t="s">
+      <c r="E63" t="s">
         <v>24</v>
       </c>
-      <c r="F63" s="0" t="s">
+      <c r="F63" t="s">
         <v>4</v>
       </c>
-      <c r="G63" s="0" t="s">
+      <c r="G63" t="s">
         <v>24</v>
       </c>
-      <c r="H63" s="0" t="s">
+      <c r="H63" t="s">
         <v>5</v>
       </c>
-      <c r="I63" s="0" t="s">
+      <c r="I63" t="s">
         <v>24</v>
       </c>
-      <c r="J63" s="0" t="s">
+      <c r="J63" t="s">
         <v>6</v>
       </c>
-      <c r="K63" s="0" t="s">
+      <c r="K63" t="s">
         <v>24</v>
       </c>
-      <c r="L63" s="0" t="s">
+      <c r="L63" t="s">
         <v>7</v>
       </c>
-      <c r="M63" s="0" t="s">
+      <c r="M63" t="s">
         <v>24</v>
       </c>
-      <c r="N63" s="0" t="s">
+      <c r="N63" t="s">
         <v>8</v>
       </c>
-      <c r="O63" s="0" t="s">
+      <c r="O63" t="s">
         <v>24</v>
       </c>
-      <c r="P63" s="0" t="s">
+      <c r="P63" t="s">
         <v>9</v>
       </c>
-      <c r="Q63" s="0" t="s">
+      <c r="Q63" t="s">
         <v>24</v>
       </c>
-      <c r="R63" s="0" t="s">
+      <c r="R63" t="s">
         <v>10</v>
       </c>
-      <c r="S63" s="0" t="s">
+      <c r="S63" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+      <c r="T63" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
         <v>11</v>
       </c>
-      <c r="B64" s="0" t="n">
+      <c r="B64">
         <v>39</v>
       </c>
-      <c r="C64" s="0" t="n">
+      <c r="C64">
         <v>81</v>
       </c>
-      <c r="D64" s="0" t="n">
+      <c r="D64">
         <v>32</v>
       </c>
-      <c r="E64" s="0" t="n">
+      <c r="E64">
         <v>88</v>
       </c>
-      <c r="F64" s="0" t="n">
+      <c r="F64">
         <v>39</v>
       </c>
-      <c r="G64" s="0" t="n">
+      <c r="G64">
         <v>81</v>
       </c>
-      <c r="H64" s="0" t="n">
+      <c r="H64">
         <v>33</v>
       </c>
-      <c r="I64" s="0" t="n">
+      <c r="I64">
         <v>87</v>
       </c>
-      <c r="J64" s="0" t="n">
+      <c r="J64">
         <v>43</v>
       </c>
-      <c r="K64" s="0" t="n">
+      <c r="K64">
         <v>77</v>
       </c>
-      <c r="L64" s="0" t="n">
+      <c r="L64">
         <v>40</v>
       </c>
-      <c r="M64" s="0" t="n">
+      <c r="M64">
         <v>80</v>
       </c>
-      <c r="N64" s="0" t="n">
+      <c r="N64">
         <v>45</v>
       </c>
-      <c r="O64" s="0" t="n">
+      <c r="O64">
         <v>75</v>
       </c>
-      <c r="P64" s="0" t="n">
+      <c r="P64">
         <v>44</v>
       </c>
-      <c r="Q64" s="0" t="n">
+      <c r="Q64">
         <v>76</v>
       </c>
-      <c r="R64" s="0" t="n">
+      <c r="R64">
         <v>33</v>
       </c>
-      <c r="S64" s="0" t="n">
+      <c r="S64">
         <v>87</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+      <c r="T64">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
         <v>12</v>
       </c>
-      <c r="B65" s="0" t="n">
+      <c r="B65">
         <v>19</v>
       </c>
-      <c r="C65" s="0" t="n">
+      <c r="C65">
         <v>101</v>
       </c>
-      <c r="D65" s="0" t="n">
+      <c r="D65">
         <v>34</v>
       </c>
-      <c r="E65" s="0" t="n">
+      <c r="E65">
         <v>86</v>
       </c>
-      <c r="F65" s="0" t="n">
+      <c r="F65">
         <v>29</v>
       </c>
-      <c r="G65" s="0" t="n">
+      <c r="G65">
         <v>91</v>
       </c>
-      <c r="H65" s="0" t="n">
+      <c r="H65">
         <v>33</v>
       </c>
-      <c r="I65" s="0" t="n">
+      <c r="I65">
         <v>87</v>
       </c>
-      <c r="J65" s="0" t="n">
+      <c r="J65">
         <v>29</v>
       </c>
-      <c r="K65" s="0" t="n">
+      <c r="K65">
         <v>91</v>
       </c>
-      <c r="L65" s="0" t="n">
+      <c r="L65">
         <v>36</v>
       </c>
-      <c r="M65" s="0" t="n">
+      <c r="M65">
         <v>84</v>
       </c>
-      <c r="N65" s="0" t="n">
+      <c r="N65">
         <v>37</v>
       </c>
-      <c r="O65" s="0" t="n">
+      <c r="O65">
         <v>83</v>
       </c>
-      <c r="P65" s="0" t="n">
+      <c r="P65">
         <v>38</v>
       </c>
-      <c r="Q65" s="0" t="n">
+      <c r="Q65">
         <v>82</v>
       </c>
-      <c r="R65" s="0" t="n">
+      <c r="R65">
         <v>28</v>
       </c>
-      <c r="S65" s="0" t="n">
+      <c r="S65">
         <v>92</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+      <c r="T65">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
         <v>13</v>
       </c>
-      <c r="B66" s="0" t="n">
+      <c r="B66">
         <v>31</v>
       </c>
-      <c r="C66" s="0" t="n">
+      <c r="C66">
         <v>89</v>
       </c>
-      <c r="D66" s="0" t="n">
+      <c r="D66">
         <v>41</v>
       </c>
-      <c r="E66" s="0" t="n">
+      <c r="E66">
         <v>79</v>
       </c>
-      <c r="F66" s="0" t="n">
+      <c r="F66">
         <v>32</v>
       </c>
-      <c r="G66" s="0" t="n">
+      <c r="G66">
         <v>88</v>
       </c>
-      <c r="H66" s="0" t="n">
+      <c r="H66">
         <v>28</v>
       </c>
-      <c r="I66" s="0" t="n">
+      <c r="I66">
         <v>92</v>
       </c>
-      <c r="J66" s="0" t="n">
+      <c r="J66">
         <v>29</v>
       </c>
-      <c r="K66" s="0" t="n">
+      <c r="K66">
         <v>91</v>
       </c>
-      <c r="L66" s="0" t="n">
+      <c r="L66">
         <v>23</v>
       </c>
-      <c r="M66" s="0" t="n">
+      <c r="M66">
         <v>97</v>
       </c>
-      <c r="N66" s="0" t="n">
+      <c r="N66">
         <v>28</v>
       </c>
-      <c r="O66" s="0" t="n">
+      <c r="O66">
         <v>92</v>
       </c>
-      <c r="P66" s="0" t="n">
+      <c r="P66">
         <v>22</v>
       </c>
-      <c r="Q66" s="0" t="n">
+      <c r="Q66">
         <v>98</v>
       </c>
-      <c r="R66" s="0" t="n">
+      <c r="R66">
         <v>23</v>
       </c>
-      <c r="S66" s="0" t="n">
+      <c r="S66">
         <v>97</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+      <c r="T66">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
         <v>14</v>
       </c>
-      <c r="B67" s="0" t="n">
+      <c r="B67">
         <v>53</v>
       </c>
-      <c r="C67" s="0" t="n">
+      <c r="C67">
         <v>67</v>
       </c>
-      <c r="D67" s="0" t="n">
+      <c r="D67">
         <v>51</v>
       </c>
-      <c r="E67" s="0" t="n">
+      <c r="E67">
         <v>69</v>
       </c>
-      <c r="F67" s="0" t="n">
+      <c r="F67">
         <v>46</v>
       </c>
-      <c r="G67" s="0" t="n">
+      <c r="G67">
         <v>74</v>
       </c>
-      <c r="H67" s="0" t="n">
+      <c r="H67">
         <v>24</v>
       </c>
-      <c r="I67" s="0" t="n">
+      <c r="I67">
         <v>96</v>
       </c>
-      <c r="J67" s="0" t="n">
+      <c r="J67">
         <v>30</v>
       </c>
-      <c r="K67" s="0" t="n">
+      <c r="K67">
         <v>90</v>
       </c>
-      <c r="L67" s="0" t="n">
+      <c r="L67">
         <v>23</v>
       </c>
-      <c r="M67" s="0" t="n">
+      <c r="M67">
         <v>97</v>
       </c>
-      <c r="N67" s="0" t="n">
+      <c r="N67">
         <v>19</v>
       </c>
-      <c r="O67" s="0" t="n">
+      <c r="O67">
         <v>101</v>
       </c>
-      <c r="P67" s="0" t="n">
+      <c r="P67">
         <v>21</v>
       </c>
-      <c r="Q67" s="0" t="n">
+      <c r="Q67">
         <v>99</v>
       </c>
-      <c r="R67" s="0" t="n">
+      <c r="R67">
         <v>17</v>
       </c>
-      <c r="S67" s="0" t="n">
+      <c r="S67">
         <v>103</v>
       </c>
-    </row>
-    <row r="68" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+      <c r="T67">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
         <v>15</v>
       </c>
-      <c r="B68" s="0" t="n">
+      <c r="B68">
         <v>23</v>
       </c>
-      <c r="C68" s="0" t="n">
+      <c r="C68">
         <v>97</v>
       </c>
-      <c r="D68" s="0" t="n">
+      <c r="D68">
         <v>33</v>
       </c>
-      <c r="E68" s="0" t="n">
+      <c r="E68">
         <v>87</v>
       </c>
-      <c r="F68" s="0" t="n">
+      <c r="F68">
         <v>26</v>
       </c>
-      <c r="G68" s="0" t="n">
+      <c r="G68">
         <v>94</v>
       </c>
-      <c r="H68" s="0" t="n">
+      <c r="H68">
         <v>34</v>
       </c>
-      <c r="I68" s="0" t="n">
+      <c r="I68">
         <v>86</v>
       </c>
-      <c r="J68" s="0" t="n">
+      <c r="J68">
         <v>30</v>
       </c>
-      <c r="K68" s="0" t="n">
+      <c r="K68">
         <v>90</v>
       </c>
-      <c r="L68" s="0" t="n">
+      <c r="L68">
         <v>44</v>
       </c>
-      <c r="M68" s="0" t="n">
+      <c r="M68">
         <v>76</v>
       </c>
-      <c r="N68" s="0" t="n">
+      <c r="N68">
         <v>36</v>
       </c>
-      <c r="O68" s="0" t="n">
+      <c r="O68">
         <v>84</v>
       </c>
-      <c r="P68" s="0" t="n">
+      <c r="P68">
         <v>38</v>
       </c>
-      <c r="Q68" s="0" t="n">
+      <c r="Q68">
         <v>82</v>
       </c>
-      <c r="R68" s="0" t="n">
+      <c r="R68">
         <v>28</v>
       </c>
-      <c r="S68" s="0" t="n">
+      <c r="S68">
         <v>92</v>
       </c>
-    </row>
-    <row r="69" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+      <c r="T68">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="0" t="n">
+      <c r="B69">
         <v>21</v>
       </c>
-      <c r="C69" s="0" t="n">
+      <c r="C69">
         <v>99</v>
       </c>
-      <c r="D69" s="0" t="n">
+      <c r="D69">
         <v>20</v>
       </c>
-      <c r="E69" s="0" t="n">
+      <c r="E69">
         <v>100</v>
       </c>
-      <c r="F69" s="0" t="n">
+      <c r="F69">
         <v>33</v>
       </c>
-      <c r="G69" s="0" t="n">
+      <c r="G69">
         <v>87</v>
       </c>
-      <c r="H69" s="0" t="n">
+      <c r="H69">
         <v>25</v>
       </c>
-      <c r="I69" s="0" t="n">
+      <c r="I69">
         <v>95</v>
       </c>
-      <c r="J69" s="0" t="n">
+      <c r="J69">
         <v>27</v>
       </c>
-      <c r="K69" s="0" t="n">
+      <c r="K69">
         <v>93</v>
       </c>
-      <c r="L69" s="0" t="n">
+      <c r="L69">
         <v>33</v>
       </c>
-      <c r="M69" s="0" t="n">
+      <c r="M69">
         <v>87</v>
       </c>
-      <c r="N69" s="0" t="n">
+      <c r="N69">
         <v>26</v>
       </c>
-      <c r="O69" s="0" t="n">
+      <c r="O69">
         <v>94</v>
       </c>
-      <c r="P69" s="0" t="n">
+      <c r="P69">
         <v>28</v>
       </c>
-      <c r="Q69" s="0" t="n">
+      <c r="Q69">
         <v>92</v>
       </c>
-      <c r="R69" s="0" t="n">
+      <c r="R69">
         <v>61</v>
       </c>
-      <c r="S69" s="0" t="n">
+      <c r="S69">
         <v>59</v>
       </c>
-    </row>
-    <row r="73" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="0" t="s">
+      <c r="T69">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B73" t="s">
         <v>17</v>
       </c>
-      <c r="C73" s="0" t="s">
+      <c r="C73" t="s">
         <v>18</v>
       </c>
-      <c r="E73" s="0" t="s">
+      <c r="E73" t="s">
         <v>19</v>
       </c>
-      <c r="F73" s="0" t="s">
+      <c r="F73" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="0" t="s">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B74" t="s">
         <v>11</v>
       </c>
-      <c r="C74" s="1" t="n">
-        <f aca="false">AVERAGE(B64,D64,F64,H64,J64,L64,N64,P64,R64)</f>
-        <v>38.6666666666667</v>
+      <c r="C74" s="1">
+        <f t="shared" ref="C74:C79" si="6">AVERAGE(B64,D64,F64,H64,J64,L64,N64,P64,R64)</f>
+        <v>38.666666666666664</v>
       </c>
       <c r="D74" s="1"/>
-      <c r="E74" s="1" t="n">
-        <f aca="false">C74/120</f>
-        <v>0.322222222222222</v>
-      </c>
-      <c r="F74" s="1" t="n">
-        <f aca="false">E74*100</f>
-        <v>32.2222222222222</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="0" t="s">
+      <c r="E74" s="1">
+        <f t="shared" ref="E74:E79" si="7">C74/120</f>
+        <v>0.32222222222222219</v>
+      </c>
+      <c r="F74" s="1">
+        <f t="shared" ref="F74:F79" si="8">E74*100</f>
+        <v>32.222222222222221</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B75" t="s">
         <v>12</v>
       </c>
-      <c r="C75" s="1" t="n">
-        <f aca="false">AVERAGE(B65,D65,F65,H65,J65,L65,N65,P65,R65)</f>
-        <v>31.4444444444444</v>
+      <c r="C75" s="1">
+        <f t="shared" si="6"/>
+        <v>31.444444444444443</v>
       </c>
       <c r="D75" s="1"/>
-      <c r="E75" s="1" t="n">
-        <f aca="false">C75/120</f>
-        <v>0.262037037037037</v>
-      </c>
-      <c r="F75" s="1" t="n">
-        <f aca="false">E75*100</f>
-        <v>26.2037037037037</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="0" t="s">
+      <c r="E75" s="1">
+        <f t="shared" si="7"/>
+        <v>0.26203703703703701</v>
+      </c>
+      <c r="F75" s="1">
+        <f t="shared" si="8"/>
+        <v>26.203703703703702</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B76" t="s">
         <v>13</v>
       </c>
-      <c r="C76" s="1" t="n">
-        <f aca="false">AVERAGE(B66,D66,F66,H66,J66,L66,N66,P66,R66)</f>
-        <v>28.5555555555556</v>
+      <c r="C76" s="1">
+        <f t="shared" si="6"/>
+        <v>28.555555555555557</v>
       </c>
       <c r="D76" s="1"/>
-      <c r="E76" s="1" t="n">
-        <f aca="false">C76/120</f>
-        <v>0.237962962962963</v>
-      </c>
-      <c r="F76" s="1" t="n">
-        <f aca="false">E76*100</f>
-        <v>23.7962962962963</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="0" t="s">
+      <c r="E76" s="1">
+        <f t="shared" si="7"/>
+        <v>0.23796296296296299</v>
+      </c>
+      <c r="F76" s="1">
+        <f t="shared" si="8"/>
+        <v>23.796296296296298</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B77" t="s">
         <v>14</v>
       </c>
-      <c r="C77" s="1" t="n">
-        <f aca="false">AVERAGE(B67,D67,F67,H67,J67,L67,N67,P67,R67)</f>
-        <v>31.5555555555556</v>
+      <c r="C77" s="1">
+        <f t="shared" si="6"/>
+        <v>31.555555555555557</v>
       </c>
       <c r="D77" s="1"/>
-      <c r="E77" s="1" t="n">
-        <f aca="false">C77/120</f>
-        <v>0.262962962962963</v>
-      </c>
-      <c r="F77" s="1" t="n">
-        <f aca="false">E77*100</f>
-        <v>26.2962962962963</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="0" t="s">
+      <c r="E77" s="1">
+        <f t="shared" si="7"/>
+        <v>0.26296296296296295</v>
+      </c>
+      <c r="F77" s="1">
+        <f t="shared" si="8"/>
+        <v>26.296296296296294</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B78" t="s">
         <v>15</v>
       </c>
-      <c r="C78" s="1" t="n">
-        <f aca="false">AVERAGE(B68,D68,F68,H68,J68,L68,N68,P68,R68)</f>
-        <v>32.4444444444444</v>
+      <c r="C78" s="1">
+        <f t="shared" si="6"/>
+        <v>32.444444444444443</v>
       </c>
       <c r="D78" s="1"/>
-      <c r="E78" s="1" t="n">
-        <f aca="false">C78/120</f>
-        <v>0.27037037037037</v>
-      </c>
-      <c r="F78" s="1" t="n">
-        <f aca="false">E78*100</f>
-        <v>27.037037037037</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="0" t="s">
+      <c r="E78" s="1">
+        <f t="shared" si="7"/>
+        <v>0.27037037037037037</v>
+      </c>
+      <c r="F78" s="1">
+        <f t="shared" si="8"/>
+        <v>27.037037037037038</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B79" t="s">
         <v>16</v>
       </c>
-      <c r="C79" s="1" t="n">
-        <f aca="false">AVERAGE(B69,D69,F69,H69,J69,L69,N69,P69,R69)</f>
-        <v>30.4444444444444</v>
+      <c r="C79" s="1">
+        <f t="shared" si="6"/>
+        <v>30.444444444444443</v>
       </c>
       <c r="D79" s="1"/>
-      <c r="E79" s="1" t="n">
-        <f aca="false">C79/120</f>
-        <v>0.253703703703704</v>
-      </c>
-      <c r="F79" s="1" t="n">
-        <f aca="false">E79*100</f>
-        <v>25.3703703703704</v>
+      <c r="E79" s="1">
+        <f t="shared" si="7"/>
+        <v>0.25370370370370371</v>
+      </c>
+      <c r="F79" s="1">
+        <f t="shared" si="8"/>
+        <v>25.37037037037037</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1840,1228 +2171,1223 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:S31"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C15" activeCellId="0" sqref="C15"/>
+    <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="7.02040816326531"/>
+    <col min="1" max="1" width="12.33203125"/>
+    <col min="2" max="2" width="7.83203125"/>
+    <col min="4" max="4" width="7.6640625"/>
+    <col min="6" max="6" width="7.6640625"/>
+    <col min="8" max="8" width="8.1640625"/>
+    <col min="10" max="10" width="7.5"/>
+    <col min="12" max="12" width="7"/>
+    <col min="14" max="14" width="7.6640625"/>
+    <col min="16" max="16" width="7.33203125"/>
+    <col min="18" max="18" width="7"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="K3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="L3" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="M3" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="N3" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="0" t="s">
+      <c r="O3" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="0" t="s">
+      <c r="P3" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="Q3" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="0" t="s">
+      <c r="R3" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="0" t="s">
+      <c r="S3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>98</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>22</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4">
         <v>90</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>30</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4">
         <v>95</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4">
         <v>25</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4">
         <v>101</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4">
         <v>19</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4">
         <v>96</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4">
         <v>24</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="L4">
         <v>91</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M4">
         <v>29</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="N4">
         <v>88</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="O4">
         <v>32</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="P4">
         <v>93</v>
       </c>
-      <c r="Q4" s="0" t="n">
+      <c r="Q4">
         <v>27</v>
       </c>
-      <c r="R4" s="0" t="n">
+      <c r="R4">
         <v>91</v>
       </c>
-      <c r="S4" s="0" t="n">
+      <c r="S4">
         <v>29</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>76</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>44</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5">
         <v>83</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>37</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5">
         <v>89</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5">
         <v>31</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5">
         <v>82</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5">
         <v>38</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5">
         <v>80</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5">
         <v>40</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="L5">
         <v>76</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="M5">
         <v>44</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="N5">
         <v>80</v>
       </c>
-      <c r="O5" s="0" t="n">
+      <c r="O5">
         <v>40</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="P5">
         <v>81</v>
       </c>
-      <c r="Q5" s="0" t="n">
+      <c r="Q5">
         <v>39</v>
       </c>
-      <c r="R5" s="0" t="n">
+      <c r="R5">
         <v>89</v>
       </c>
-      <c r="S5" s="0" t="n">
+      <c r="S5">
         <v>31</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>91</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>29</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6">
         <v>101</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>19</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6">
         <v>100</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6">
         <v>20</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6">
         <v>96</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6">
         <v>24</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6">
         <v>100</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K6">
         <v>20</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="L6">
         <v>98</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="M6">
         <v>22</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="N6">
         <v>89</v>
       </c>
-      <c r="O6" s="0" t="n">
+      <c r="O6">
         <v>31</v>
       </c>
-      <c r="P6" s="0" t="n">
+      <c r="P6">
         <v>96</v>
       </c>
-      <c r="Q6" s="0" t="n">
+      <c r="Q6">
         <v>24</v>
       </c>
-      <c r="R6" s="0" t="n">
+      <c r="R6">
         <v>95</v>
       </c>
-      <c r="S6" s="0" t="n">
+      <c r="S6">
         <v>25</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>90</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>30</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7">
         <v>95</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>25</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7">
         <v>92</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7">
         <v>28</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7">
         <v>108</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7">
         <v>12</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7">
         <v>106</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K7">
         <v>14</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="L7">
         <v>110</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="M7">
         <v>10</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="N7">
         <v>96</v>
       </c>
-      <c r="O7" s="0" t="n">
+      <c r="O7">
         <v>24</v>
       </c>
-      <c r="P7" s="0" t="n">
+      <c r="P7">
         <v>89</v>
       </c>
-      <c r="Q7" s="0" t="n">
+      <c r="Q7">
         <v>31</v>
       </c>
-      <c r="R7" s="0" t="n">
+      <c r="R7">
         <v>95</v>
       </c>
-      <c r="S7" s="0" t="n">
+      <c r="S7">
         <v>25</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>94</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8">
         <v>26</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8">
         <v>98</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8">
         <v>22</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8">
         <v>92</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8">
         <v>28</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8">
         <v>89</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8">
         <v>31</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8">
         <v>96</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="K8">
         <v>24</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="L8">
         <v>95</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="M8">
         <v>25</v>
       </c>
-      <c r="N8" s="0" t="n">
+      <c r="N8">
         <v>99</v>
       </c>
-      <c r="O8" s="0" t="n">
+      <c r="O8">
         <v>21</v>
       </c>
-      <c r="P8" s="0" t="n">
+      <c r="P8">
         <v>95</v>
       </c>
-      <c r="Q8" s="0" t="n">
+      <c r="Q8">
         <v>25</v>
       </c>
-      <c r="R8" s="0" t="n">
+      <c r="R8">
         <v>98</v>
       </c>
-      <c r="S8" s="0" t="n">
+      <c r="S8">
         <v>22</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>107</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9">
         <v>13</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9">
         <v>105</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>15</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9">
         <v>107</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9">
         <v>13</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9">
         <v>106</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9">
         <v>14</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9">
         <v>107</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="K9">
         <v>13</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="L9">
         <v>103</v>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="M9">
         <v>17</v>
       </c>
-      <c r="N9" s="0" t="n">
+      <c r="N9">
         <v>99</v>
       </c>
-      <c r="O9" s="0" t="n">
+      <c r="O9">
         <v>21</v>
       </c>
-      <c r="P9" s="0" t="n">
+      <c r="P9">
         <v>107</v>
       </c>
-      <c r="Q9" s="0" t="n">
+      <c r="Q9">
         <v>13</v>
       </c>
-      <c r="R9" s="0" t="n">
+      <c r="R9">
         <v>108</v>
       </c>
-      <c r="S9" s="0" t="n">
+      <c r="S9">
         <v>12</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>3</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" t="s">
         <v>4</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="H14" t="s">
         <v>5</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="0" t="s">
+      <c r="J14" t="s">
         <v>6</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="0" t="s">
+      <c r="L14" t="s">
         <v>7</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N14" s="0" t="s">
+      <c r="N14" t="s">
         <v>8</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="P14" s="0" t="s">
+      <c r="P14" t="s">
         <v>9</v>
       </c>
       <c r="Q14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R14" s="0" t="s">
+      <c r="R14" t="s">
         <v>10</v>
       </c>
       <c r="S14" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>98</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15">
         <v>22</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15">
         <v>92</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15">
         <v>28</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15">
         <v>93</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15">
         <v>27</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15">
         <v>93</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="I15">
         <v>27</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="J15">
         <v>97</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="K15">
         <v>23</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="L15">
         <v>79</v>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="M15">
         <v>41</v>
       </c>
-      <c r="N15" s="0" t="n">
+      <c r="N15">
         <v>103</v>
       </c>
-      <c r="O15" s="0" t="n">
+      <c r="O15">
         <v>17</v>
       </c>
-      <c r="P15" s="0" t="n">
+      <c r="P15">
         <v>92</v>
       </c>
-      <c r="Q15" s="0" t="n">
+      <c r="Q15">
         <v>28</v>
       </c>
-      <c r="R15" s="0" t="n">
+      <c r="R15">
         <v>96</v>
       </c>
-      <c r="S15" s="0" t="n">
+      <c r="S15">
         <v>24</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>98</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17">
         <v>22</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17">
         <v>101</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17">
         <v>19</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17">
         <v>92</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="G17">
         <v>28</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="H17">
         <v>91</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="I17">
         <v>29</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="J17">
         <v>96</v>
       </c>
-      <c r="K17" s="0" t="n">
+      <c r="K17">
         <v>24</v>
       </c>
-      <c r="L17" s="0" t="n">
+      <c r="L17">
         <v>91</v>
       </c>
-      <c r="M17" s="0" t="n">
+      <c r="M17">
         <v>29</v>
       </c>
-      <c r="N17" s="0" t="n">
+      <c r="N17">
         <v>105</v>
       </c>
-      <c r="O17" s="0" t="n">
+      <c r="O17">
         <v>15</v>
       </c>
-      <c r="P17" s="0" t="n">
+      <c r="P17">
         <v>97</v>
       </c>
-      <c r="Q17" s="0" t="n">
+      <c r="Q17">
         <v>23</v>
       </c>
-      <c r="R17" s="0" t="n">
+      <c r="R17">
         <v>105</v>
       </c>
-      <c r="S17" s="0" t="n">
+      <c r="S17">
         <v>15</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18">
         <v>84</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18">
         <v>36</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18">
         <v>81</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18">
         <v>39</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18">
         <v>90</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="G18">
         <v>30</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="H18">
         <v>95</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="I18">
         <v>25</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="J18">
         <v>83</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="K18">
         <v>27</v>
       </c>
-      <c r="L18" s="0" t="n">
+      <c r="L18">
         <v>88</v>
       </c>
-      <c r="M18" s="0" t="n">
+      <c r="M18">
         <v>32</v>
       </c>
-      <c r="N18" s="0" t="n">
+      <c r="N18">
         <v>83</v>
       </c>
-      <c r="O18" s="0" t="n">
+      <c r="O18">
         <v>37</v>
       </c>
-      <c r="P18" s="0" t="n">
+      <c r="P18">
         <v>87</v>
       </c>
-      <c r="Q18" s="0" t="n">
+      <c r="Q18">
         <v>33</v>
       </c>
-      <c r="R18" s="0" t="n">
+      <c r="R18">
         <v>81</v>
       </c>
-      <c r="S18" s="0" t="n">
+      <c r="S18">
         <v>39</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19">
         <v>84</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19">
         <v>36</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19">
         <v>89</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19">
         <v>31</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19">
         <v>87</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="G19">
         <v>33</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="H19">
         <v>93</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="I19">
         <v>27</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="J19">
         <v>94</v>
       </c>
-      <c r="K19" s="0" t="n">
+      <c r="K19">
         <v>26</v>
       </c>
-      <c r="L19" s="0" t="n">
+      <c r="L19">
         <v>102</v>
       </c>
-      <c r="M19" s="0" t="n">
+      <c r="M19">
         <v>18</v>
       </c>
-      <c r="N19" s="0" t="n">
+      <c r="N19">
         <v>79</v>
       </c>
-      <c r="O19" s="0" t="n">
+      <c r="O19">
         <v>41</v>
       </c>
-      <c r="P19" s="0" t="n">
+      <c r="P19">
         <v>87</v>
       </c>
-      <c r="Q19" s="0" t="n">
+      <c r="Q19">
         <v>33</v>
       </c>
-      <c r="R19" s="0" t="n">
+      <c r="R19">
         <v>93</v>
       </c>
-      <c r="S19" s="0" t="n">
+      <c r="S19">
         <v>27</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20">
         <v>90</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20">
         <v>30</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20">
         <v>82</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20">
         <v>38</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20">
         <v>82</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="G20">
         <v>38</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="H20">
         <v>91</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="I20">
         <v>29</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="J20">
         <v>83</v>
       </c>
-      <c r="K20" s="0" t="n">
+      <c r="K20">
         <v>37</v>
       </c>
-      <c r="L20" s="0" t="n">
+      <c r="L20">
         <v>86</v>
       </c>
-      <c r="M20" s="0" t="n">
+      <c r="M20">
         <v>34</v>
       </c>
-      <c r="N20" s="0" t="n">
+      <c r="N20">
         <v>71</v>
       </c>
-      <c r="O20" s="0" t="n">
+      <c r="O20">
         <v>49</v>
       </c>
-      <c r="P20" s="0" t="n">
+      <c r="P20">
         <v>85</v>
       </c>
-      <c r="Q20" s="0" t="n">
+      <c r="Q20">
         <v>35</v>
       </c>
-      <c r="R20" s="0" t="n">
+      <c r="R20">
         <v>89</v>
       </c>
-      <c r="S20" s="0" t="n">
+      <c r="S20">
         <v>31</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E25" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="F25" t="s">
         <v>4</v>
       </c>
-      <c r="G25" s="0" t="s">
+      <c r="G25" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="0" t="s">
+      <c r="H25" t="s">
         <v>5</v>
       </c>
-      <c r="I25" s="0" t="s">
+      <c r="I25" t="s">
         <v>24</v>
       </c>
-      <c r="J25" s="0" t="s">
+      <c r="J25" t="s">
         <v>6</v>
       </c>
-      <c r="K25" s="0" t="s">
+      <c r="K25" t="s">
         <v>24</v>
       </c>
-      <c r="L25" s="0" t="s">
+      <c r="L25" t="s">
         <v>7</v>
       </c>
-      <c r="M25" s="0" t="s">
+      <c r="M25" t="s">
         <v>24</v>
       </c>
-      <c r="N25" s="0" t="s">
+      <c r="N25" t="s">
         <v>8</v>
       </c>
-      <c r="O25" s="0" t="s">
+      <c r="O25" t="s">
         <v>24</v>
       </c>
-      <c r="P25" s="0" t="s">
+      <c r="P25" t="s">
         <v>9</v>
       </c>
-      <c r="Q25" s="0" t="s">
+      <c r="Q25" t="s">
         <v>24</v>
       </c>
-      <c r="R25" s="0" t="s">
+      <c r="R25" t="s">
         <v>10</v>
       </c>
-      <c r="S25" s="0" t="s">
+      <c r="S25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26">
         <v>39</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26">
         <v>81</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26">
         <v>32</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26">
         <v>88</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26">
         <v>39</v>
       </c>
-      <c r="G26" s="0" t="n">
+      <c r="G26">
         <v>81</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="H26">
         <v>33</v>
       </c>
-      <c r="I26" s="0" t="n">
+      <c r="I26">
         <v>87</v>
       </c>
-      <c r="J26" s="0" t="n">
+      <c r="J26">
         <v>43</v>
       </c>
-      <c r="K26" s="0" t="n">
+      <c r="K26">
         <v>77</v>
       </c>
-      <c r="L26" s="0" t="n">
+      <c r="L26">
         <v>40</v>
       </c>
-      <c r="M26" s="0" t="n">
+      <c r="M26">
         <v>80</v>
       </c>
-      <c r="N26" s="0" t="n">
+      <c r="N26">
         <v>45</v>
       </c>
-      <c r="O26" s="0" t="n">
+      <c r="O26">
         <v>75</v>
       </c>
-      <c r="P26" s="0" t="n">
+      <c r="P26">
         <v>44</v>
       </c>
-      <c r="Q26" s="0" t="n">
+      <c r="Q26">
         <v>76</v>
       </c>
-      <c r="R26" s="0" t="n">
+      <c r="R26">
         <v>33</v>
       </c>
-      <c r="S26" s="0" t="n">
+      <c r="S26">
         <v>87</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27">
         <v>19</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27">
         <v>101</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27">
         <v>34</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27">
         <v>86</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F27">
         <v>29</v>
       </c>
-      <c r="G27" s="0" t="n">
+      <c r="G27">
         <v>91</v>
       </c>
-      <c r="H27" s="0" t="n">
+      <c r="H27">
         <v>33</v>
       </c>
-      <c r="I27" s="0" t="n">
+      <c r="I27">
         <v>87</v>
       </c>
-      <c r="J27" s="0" t="n">
+      <c r="J27">
         <v>29</v>
       </c>
-      <c r="K27" s="0" t="n">
+      <c r="K27">
         <v>91</v>
       </c>
-      <c r="L27" s="0" t="n">
+      <c r="L27">
         <v>36</v>
       </c>
-      <c r="M27" s="0" t="n">
+      <c r="M27">
         <v>84</v>
       </c>
-      <c r="N27" s="0" t="n">
+      <c r="N27">
         <v>37</v>
       </c>
-      <c r="O27" s="0" t="n">
+      <c r="O27">
         <v>83</v>
       </c>
-      <c r="P27" s="0" t="n">
+      <c r="P27">
         <v>38</v>
       </c>
-      <c r="Q27" s="0" t="n">
+      <c r="Q27">
         <v>82</v>
       </c>
-      <c r="R27" s="0" t="n">
+      <c r="R27">
         <v>28</v>
       </c>
-      <c r="S27" s="0" t="n">
+      <c r="S27">
         <v>92</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28">
         <v>31</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28">
         <v>89</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28">
         <v>41</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28">
         <v>79</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F28">
         <v>32</v>
       </c>
-      <c r="G28" s="0" t="n">
+      <c r="G28">
         <v>88</v>
       </c>
-      <c r="H28" s="0" t="n">
+      <c r="H28">
         <v>28</v>
       </c>
-      <c r="I28" s="0" t="n">
+      <c r="I28">
         <v>92</v>
       </c>
-      <c r="J28" s="0" t="n">
+      <c r="J28">
         <v>29</v>
       </c>
-      <c r="K28" s="0" t="n">
+      <c r="K28">
         <v>91</v>
       </c>
-      <c r="L28" s="0" t="n">
+      <c r="L28">
         <v>23</v>
       </c>
-      <c r="M28" s="0" t="n">
+      <c r="M28">
         <v>97</v>
       </c>
-      <c r="N28" s="0" t="n">
+      <c r="N28">
         <v>28</v>
       </c>
-      <c r="O28" s="0" t="n">
+      <c r="O28">
         <v>92</v>
       </c>
-      <c r="P28" s="0" t="n">
+      <c r="P28">
         <v>22</v>
       </c>
-      <c r="Q28" s="0" t="n">
+      <c r="Q28">
         <v>98</v>
       </c>
-      <c r="R28" s="0" t="n">
+      <c r="R28">
         <v>23</v>
       </c>
-      <c r="S28" s="0" t="n">
+      <c r="S28">
         <v>97</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29">
         <v>53</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29">
         <v>67</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29">
         <v>51</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29">
         <v>69</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F29">
         <v>46</v>
       </c>
-      <c r="G29" s="0" t="n">
+      <c r="G29">
         <v>74</v>
       </c>
-      <c r="H29" s="0" t="n">
+      <c r="H29">
         <v>24</v>
       </c>
-      <c r="I29" s="0" t="n">
+      <c r="I29">
         <v>96</v>
       </c>
-      <c r="J29" s="0" t="n">
+      <c r="J29">
         <v>30</v>
       </c>
-      <c r="K29" s="0" t="n">
+      <c r="K29">
         <v>90</v>
       </c>
-      <c r="L29" s="0" t="n">
+      <c r="L29">
         <v>23</v>
       </c>
-      <c r="M29" s="0" t="n">
+      <c r="M29">
         <v>97</v>
       </c>
-      <c r="N29" s="0" t="n">
+      <c r="N29">
         <v>19</v>
       </c>
-      <c r="O29" s="0" t="n">
+      <c r="O29">
         <v>101</v>
       </c>
-      <c r="P29" s="0" t="n">
+      <c r="P29">
         <v>21</v>
       </c>
-      <c r="Q29" s="0" t="n">
+      <c r="Q29">
         <v>99</v>
       </c>
-      <c r="R29" s="0" t="n">
+      <c r="R29">
         <v>17</v>
       </c>
-      <c r="S29" s="0" t="n">
+      <c r="S29">
         <v>103</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30">
         <v>23</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30">
         <v>97</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30">
         <v>33</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30">
         <v>87</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="F30">
         <v>26</v>
       </c>
-      <c r="G30" s="0" t="n">
+      <c r="G30">
         <v>94</v>
       </c>
-      <c r="H30" s="0" t="n">
+      <c r="H30">
         <v>34</v>
       </c>
-      <c r="I30" s="0" t="n">
+      <c r="I30">
         <v>86</v>
       </c>
-      <c r="J30" s="0" t="n">
+      <c r="J30">
         <v>30</v>
       </c>
-      <c r="K30" s="0" t="n">
+      <c r="K30">
         <v>90</v>
       </c>
-      <c r="L30" s="0" t="n">
+      <c r="L30">
         <v>44</v>
       </c>
-      <c r="M30" s="0" t="n">
+      <c r="M30">
         <v>76</v>
       </c>
-      <c r="N30" s="0" t="n">
+      <c r="N30">
         <v>36</v>
       </c>
-      <c r="O30" s="0" t="n">
+      <c r="O30">
         <v>84</v>
       </c>
-      <c r="P30" s="0" t="n">
+      <c r="P30">
         <v>38</v>
       </c>
-      <c r="Q30" s="0" t="n">
+      <c r="Q30">
         <v>82</v>
       </c>
-      <c r="R30" s="0" t="n">
+      <c r="R30">
         <v>28</v>
       </c>
-      <c r="S30" s="0" t="n">
+      <c r="S30">
         <v>92</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31">
         <v>21</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31">
         <v>99</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31">
         <v>20</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31">
         <v>100</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="F31">
         <v>33</v>
       </c>
-      <c r="G31" s="0" t="n">
+      <c r="G31">
         <v>87</v>
       </c>
-      <c r="H31" s="0" t="n">
+      <c r="H31">
         <v>25</v>
       </c>
-      <c r="I31" s="0" t="n">
+      <c r="I31">
         <v>95</v>
       </c>
-      <c r="J31" s="0" t="n">
+      <c r="J31">
         <v>27</v>
       </c>
-      <c r="K31" s="0" t="n">
+      <c r="K31">
         <v>93</v>
       </c>
-      <c r="L31" s="0" t="n">
+      <c r="L31">
         <v>33</v>
       </c>
-      <c r="M31" s="0" t="n">
+      <c r="M31">
         <v>87</v>
       </c>
-      <c r="N31" s="0" t="n">
+      <c r="N31">
         <v>26</v>
       </c>
-      <c r="O31" s="0" t="n">
+      <c r="O31">
         <v>94</v>
       </c>
-      <c r="P31" s="0" t="n">
+      <c r="P31">
         <v>28</v>
       </c>
-      <c r="Q31" s="0" t="n">
+      <c r="Q31">
         <v>92</v>
       </c>
-      <c r="R31" s="0" t="n">
+      <c r="R31">
         <v>61</v>
       </c>
-      <c r="S31" s="0" t="n">
+      <c r="S31">
         <v>59</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
